--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5841CD70-015E-6B46-B567-D2C98ACF0F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBF74B-7896-2444-BAFA-5C3C111F030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="620" windowWidth="25320" windowHeight="13660" xr2:uid="{401D180D-DEBC-4403-BFFA-F0CF0B3ED978}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="28Jul21" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'28Jul21'!$A$1:$X$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'28Jul21'!$A$1:$W$145</definedName>
     <definedName name="d17006e1890" localSheetId="0">'28Jul21'!#REF!</definedName>
     <definedName name="d17006e1895" localSheetId="0">'28Jul21'!#REF!</definedName>
   </definedNames>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="633">
-  <si>
-    <t>BCIO_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="631">
   <si>
     <t>Label</t>
   </si>
   <si>
-    <t>parent class</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>REL 'is attribute of' [SIO_000011]</t>
   </si>
   <si>
-    <t>Definition ID</t>
-  </si>
-  <si>
     <t>Elaboration</t>
   </si>
   <si>
@@ -105,27 +96,6 @@
   </si>
   <si>
     <t>Aggregate</t>
-  </si>
-  <si>
-    <t>curator note</t>
-  </si>
-  <si>
-    <t>curator</t>
-  </si>
-  <si>
-    <t>curation status</t>
-  </si>
-  <si>
-    <t>to be reviewed by</t>
-  </si>
-  <si>
-    <t>reviewer query</t>
-  </si>
-  <si>
-    <t>synonyms</t>
-  </si>
-  <si>
-    <t>cross-reference</t>
   </si>
   <si>
     <t>BCIO:015000</t>
@@ -1988,6 +1958,30 @@
   </si>
   <si>
     <t>BCIO:015495</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Curator note</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Cross-reference</t>
+  </si>
+  <si>
+    <t>Curation status</t>
   </si>
 </sst>
 </file>
@@ -3108,13 +3102,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8993D19A-7CCB-4D6D-AE8D-D43A00334DEA}">
-  <dimension ref="A1:CE249"/>
+  <dimension ref="A1:CC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A136" sqref="A136"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3128,112 +3122,107 @@
     <col min="7" max="14" width="9.1640625" style="27" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="28" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="106" customWidth="1"/>
-    <col min="18" max="18" width="35.83203125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="21.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="32.5" style="18" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="18" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" style="32" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="106"/>
-    <col min="25" max="25" width="9.5" style="30" customWidth="1"/>
-    <col min="26" max="29" width="9.1640625" style="30"/>
-    <col min="30" max="30" width="24.6640625" style="18" customWidth="1"/>
-    <col min="31" max="83" width="9.1640625" style="30"/>
-    <col min="84" max="16384" width="9.1640625" style="18"/>
+    <col min="17" max="17" width="35.83203125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="18" customWidth="1"/>
+    <col min="19" max="19" width="32.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="18" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" style="32" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" style="30" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" style="106"/>
+    <col min="24" max="24" width="9.5" style="30" customWidth="1"/>
+    <col min="25" max="27" width="9.1640625" style="30"/>
+    <col min="28" max="28" width="24.6640625" style="18" customWidth="1"/>
+    <col min="29" max="81" width="9.1640625" style="30"/>
+    <col min="82" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="21" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" s="21" customFormat="1" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="P1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>22</v>
+      <c r="W1" s="70" t="s">
+        <v>625</v>
       </c>
       <c r="X1" s="70" t="s">
-        <v>23</v>
+        <v>626</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>24</v>
+        <v>630</v>
       </c>
       <c r="Z1" s="70" t="s">
-        <v>25</v>
+        <v>627</v>
       </c>
       <c r="AA1" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="36" t="s">
-        <v>29</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
       <c r="AE1" s="30"/>
       <c r="AF1" s="30"/>
       <c r="AG1" s="30"/>
@@ -3285,21 +3274,19 @@
       <c r="CA1" s="30"/>
       <c r="CB1" s="30"/>
       <c r="CC1" s="30"/>
-      <c r="CD1" s="30"/>
-      <c r="CE1" s="30"/>
-    </row>
-    <row r="2" spans="1:83" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:81" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="7"/>
@@ -3313,9 +3300,11 @@
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="V2" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="U2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
       <c r="AF2" s="30"/>
       <c r="AG2" s="30"/>
@@ -3367,21 +3356,19 @@
       <c r="CA2" s="30"/>
       <c r="CB2" s="30"/>
       <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-    </row>
-    <row r="3" spans="1:83" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:81" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="12"/>
@@ -3395,10 +3382,12 @@
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="V3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="6"/>
+      <c r="U3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
@@ -3450,30 +3439,30 @@
       <c r="CA3" s="30"/>
       <c r="CB3" s="30"/>
       <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-    </row>
-    <row r="4" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E4" s="41"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="R4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="6"/>
+      <c r="Q4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="6"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
@@ -3525,21 +3514,19 @@
       <c r="CA4" s="30"/>
       <c r="CB4" s="30"/>
       <c r="CC4" s="30"/>
-      <c r="CD4" s="30"/>
-      <c r="CE4" s="30"/>
-    </row>
-    <row r="5" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="12"/>
@@ -3553,13 +3540,15 @@
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="6"/>
+      <c r="AB5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="6"/>
-      <c r="AD5" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
@@ -3611,24 +3600,22 @@
       <c r="CA5" s="30"/>
       <c r="CB5" s="30"/>
       <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="30"/>
-    </row>
-    <row r="6" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3641,12 +3628,14 @@
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="W6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="V6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
@@ -3698,24 +3687,22 @@
       <c r="CA6" s="30"/>
       <c r="CB6" s="30"/>
       <c r="CC6" s="30"/>
-      <c r="CD6" s="30"/>
-      <c r="CE6" s="30"/>
-    </row>
-    <row r="7" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3728,10 +3715,12 @@
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="V7" s="12"/>
-      <c r="AD7" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="U7" s="12"/>
+      <c r="AB7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
@@ -3783,24 +3772,22 @@
       <c r="CA7" s="30"/>
       <c r="CB7" s="30"/>
       <c r="CC7" s="30"/>
-      <c r="CD7" s="30"/>
-      <c r="CE7" s="30"/>
-    </row>
-    <row r="8" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3813,13 +3800,15 @@
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
@@ -3871,24 +3860,22 @@
       <c r="CA8" s="30"/>
       <c r="CB8" s="30"/>
       <c r="CC8" s="30"/>
-      <c r="CD8" s="30"/>
-      <c r="CE8" s="30"/>
-    </row>
-    <row r="9" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -3901,13 +3888,15 @@
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
@@ -3959,24 +3948,22 @@
       <c r="CA9" s="30"/>
       <c r="CB9" s="30"/>
       <c r="CC9" s="30"/>
-      <c r="CD9" s="30"/>
-      <c r="CE9" s="30"/>
-    </row>
-    <row r="10" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3989,13 +3976,15 @@
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
@@ -4047,21 +4036,19 @@
       <c r="CA10" s="30"/>
       <c r="CB10" s="30"/>
       <c r="CC10" s="30"/>
-      <c r="CD10" s="30"/>
-      <c r="CE10" s="30"/>
-    </row>
-    <row r="11" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="12"/>
@@ -4075,10 +4062,12 @@
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="V11" s="12"/>
-      <c r="AD11" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="U11" s="12"/>
+      <c r="AB11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
@@ -4130,21 +4119,19 @@
       <c r="CA11" s="30"/>
       <c r="CB11" s="30"/>
       <c r="CC11" s="30"/>
-      <c r="CD11" s="30"/>
-      <c r="CE11" s="30"/>
-    </row>
-    <row r="12" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="12"/>
@@ -4158,13 +4145,15 @@
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="U12" s="12"/>
+      <c r="V12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
@@ -4216,21 +4205,19 @@
       <c r="CA12" s="30"/>
       <c r="CB12" s="30"/>
       <c r="CC12" s="30"/>
-      <c r="CD12" s="30"/>
-      <c r="CE12" s="30"/>
-    </row>
-    <row r="13" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="12"/>
@@ -4244,13 +4231,15 @@
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
       <c r="AG13" s="30"/>
@@ -4302,21 +4291,19 @@
       <c r="CA13" s="30"/>
       <c r="CB13" s="30"/>
       <c r="CC13" s="30"/>
-      <c r="CD13" s="30"/>
-      <c r="CE13" s="30"/>
-    </row>
-    <row r="14" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="12"/>
@@ -4330,13 +4317,15 @@
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
@@ -4388,21 +4377,19 @@
       <c r="CA14" s="30"/>
       <c r="CB14" s="30"/>
       <c r="CC14" s="30"/>
-      <c r="CD14" s="30"/>
-      <c r="CE14" s="30"/>
-    </row>
-    <row r="15" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="12"/>
@@ -4416,13 +4403,15 @@
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="53" t="s">
+      <c r="U15" s="12"/>
+      <c r="V15" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
       <c r="AG15" s="30"/>
@@ -4474,21 +4463,19 @@
       <c r="CA15" s="30"/>
       <c r="CB15" s="30"/>
       <c r="CC15" s="30"/>
-      <c r="CD15" s="30"/>
-      <c r="CE15" s="30"/>
-    </row>
-    <row r="16" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="12"/>
@@ -4502,13 +4489,15 @@
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
@@ -4560,21 +4549,19 @@
       <c r="CA16" s="30"/>
       <c r="CB16" s="30"/>
       <c r="CC16" s="30"/>
-      <c r="CD16" s="30"/>
-      <c r="CE16" s="30"/>
-    </row>
-    <row r="17" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="12"/>
@@ -4588,13 +4575,15 @@
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
@@ -4646,21 +4635,19 @@
       <c r="CA17" s="30"/>
       <c r="CB17" s="30"/>
       <c r="CC17" s="30"/>
-      <c r="CD17" s="30"/>
-      <c r="CE17" s="30"/>
-    </row>
-    <row r="18" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="12"/>
@@ -4674,10 +4661,12 @@
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="U18" s="12"/>
+      <c r="V18" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
       <c r="AE18" s="30"/>
       <c r="AF18" s="30"/>
       <c r="AG18" s="30"/>
@@ -4729,21 +4718,19 @@
       <c r="CA18" s="30"/>
       <c r="CB18" s="30"/>
       <c r="CC18" s="30"/>
-      <c r="CD18" s="30"/>
-      <c r="CE18" s="30"/>
-    </row>
-    <row r="19" spans="1:83" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:81" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="12"/>
@@ -4757,15 +4744,17 @@
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="V19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="W19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="U19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
       <c r="AG19" s="30"/>
@@ -4817,21 +4806,19 @@
       <c r="CA19" s="30"/>
       <c r="CB19" s="30"/>
       <c r="CC19" s="30"/>
-      <c r="CD19" s="30"/>
-      <c r="CE19" s="30"/>
-    </row>
-    <row r="20" spans="1:83" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:81" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="14"/>
@@ -4845,12 +4832,14 @@
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="V20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="W20" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="U20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="30"/>
@@ -4902,21 +4891,19 @@
       <c r="CA20" s="30"/>
       <c r="CB20" s="30"/>
       <c r="CC20" s="30"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="30"/>
-    </row>
-    <row r="21" spans="1:83" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:81" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="14"/>
@@ -4930,14 +4917,16 @@
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
+      <c r="S21" s="49"/>
       <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="W21" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="U21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
       <c r="AG21" s="30"/>
@@ -4989,24 +4978,22 @@
       <c r="CA21" s="30"/>
       <c r="CB21" s="30"/>
       <c r="CC21" s="30"/>
-      <c r="CD21" s="30"/>
-      <c r="CE21" s="30"/>
-    </row>
-    <row r="22" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -5019,17 +5006,19 @@
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
-      <c r="T22" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="S22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="30"/>
@@ -5081,24 +5070,22 @@
       <c r="CA22" s="30"/>
       <c r="CB22" s="30"/>
       <c r="CC22" s="30"/>
-      <c r="CD22" s="30"/>
-      <c r="CE22" s="30"/>
-    </row>
-    <row r="23" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -5111,17 +5098,19 @@
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="T23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="U23" s="22"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="S23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="22"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
       <c r="AE23" s="30"/>
       <c r="AF23" s="30"/>
       <c r="AG23" s="30"/>
@@ -5173,24 +5162,22 @@
       <c r="CA23" s="30"/>
       <c r="CB23" s="30"/>
       <c r="CC23" s="30"/>
-      <c r="CD23" s="30"/>
-      <c r="CE23" s="30"/>
-    </row>
-    <row r="24" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -5203,13 +5190,15 @@
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
-      <c r="T24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="U24" s="22"/>
-      <c r="AD24" s="100" t="s">
-        <v>110</v>
-      </c>
+      <c r="S24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="AB24" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
       <c r="AE24" s="30"/>
       <c r="AF24" s="30"/>
       <c r="AG24" s="30"/>
@@ -5261,21 +5250,19 @@
       <c r="CA24" s="30"/>
       <c r="CB24" s="30"/>
       <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-    </row>
-    <row r="25" spans="1:83" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:81" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="14"/>
@@ -5289,16 +5276,18 @@
       <c r="N25" s="12"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="T25" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="W25" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="S25" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" s="22"/>
+      <c r="U25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="30"/>
       <c r="AG25" s="30"/>
@@ -5350,21 +5339,19 @@
       <c r="CA25" s="30"/>
       <c r="CB25" s="30"/>
       <c r="CC25" s="30"/>
-      <c r="CD25" s="30"/>
-      <c r="CE25" s="30"/>
-    </row>
-    <row r="26" spans="1:83" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:81" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="14"/>
@@ -5378,16 +5365,18 @@
       <c r="N26" s="12"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="T26" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="W26" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="S26" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="T26" s="22"/>
+      <c r="U26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
       <c r="AG26" s="30"/>
@@ -5439,21 +5428,19 @@
       <c r="CA26" s="30"/>
       <c r="CB26" s="30"/>
       <c r="CC26" s="30"/>
-      <c r="CD26" s="30"/>
-      <c r="CE26" s="30"/>
-    </row>
-    <row r="27" spans="1:83" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:81" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="14"/>
@@ -5467,16 +5454,18 @@
       <c r="N27" s="12"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="T27" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="W27" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="S27" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V27" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="30"/>
@@ -5528,21 +5517,19 @@
       <c r="CA27" s="30"/>
       <c r="CB27" s="30"/>
       <c r="CC27" s="30"/>
-      <c r="CD27" s="30"/>
-      <c r="CE27" s="30"/>
-    </row>
-    <row r="28" spans="1:83" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:81" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="14"/>
@@ -5556,16 +5543,18 @@
       <c r="N28" s="12"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-      <c r="T28" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="W28" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="S28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T28" s="22"/>
+      <c r="U28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V28" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
       <c r="AE28" s="30"/>
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
@@ -5617,21 +5606,19 @@
       <c r="CA28" s="30"/>
       <c r="CB28" s="30"/>
       <c r="CC28" s="30"/>
-      <c r="CD28" s="30"/>
-      <c r="CE28" s="30"/>
-    </row>
-    <row r="29" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E29" s="102"/>
       <c r="F29" s="14"/>
@@ -5645,15 +5632,17 @@
       <c r="N29" s="12"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="R29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="103" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
       <c r="AE29" s="30"/>
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
@@ -5705,21 +5694,19 @@
       <c r="CA29" s="30"/>
       <c r="CB29" s="30"/>
       <c r="CC29" s="30"/>
-      <c r="CD29" s="30"/>
-      <c r="CE29" s="30"/>
-    </row>
-    <row r="30" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E30" s="102"/>
       <c r="F30" s="12"/>
@@ -5733,10 +5720,12 @@
       <c r="N30" s="12"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="U30" s="14"/>
+      <c r="V30" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
@@ -5788,21 +5777,19 @@
       <c r="CA30" s="30"/>
       <c r="CB30" s="30"/>
       <c r="CC30" s="30"/>
-      <c r="CD30" s="30"/>
-      <c r="CE30" s="30"/>
-    </row>
-    <row r="31" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E31" s="83"/>
       <c r="F31" s="12"/>
@@ -5816,13 +5803,15 @@
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
-      <c r="R31" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="V31" s="14"/>
-      <c r="W31" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
       <c r="AG31" s="30"/>
@@ -5874,21 +5863,19 @@
       <c r="CA31" s="30"/>
       <c r="CB31" s="30"/>
       <c r="CC31" s="30"/>
-      <c r="CD31" s="30"/>
-      <c r="CE31" s="30"/>
-    </row>
-    <row r="32" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E32" s="71"/>
       <c r="F32" s="12"/>
@@ -5902,18 +5889,20 @@
       <c r="N32" s="12"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
-      <c r="R32" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="W32" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD32" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="Q32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="V32" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
       <c r="AE32" s="30"/>
       <c r="AF32" s="30"/>
       <c r="AG32" s="30"/>
@@ -5965,21 +5954,19 @@
       <c r="CA32" s="30"/>
       <c r="CB32" s="30"/>
       <c r="CC32" s="30"/>
-      <c r="CD32" s="30"/>
-      <c r="CE32" s="30"/>
-    </row>
-    <row r="33" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="12"/>
@@ -5993,16 +5980,18 @@
       <c r="N33" s="12"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="T33" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="U33" s="103"/>
-      <c r="W33" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD33" s="103" t="s">
-        <v>142</v>
-      </c>
+      <c r="S33" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" s="103"/>
+      <c r="V33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
       <c r="AE33" s="30"/>
       <c r="AF33" s="30"/>
       <c r="AG33" s="30"/>
@@ -6054,21 +6043,19 @@
       <c r="CA33" s="30"/>
       <c r="CB33" s="30"/>
       <c r="CC33" s="30"/>
-      <c r="CD33" s="30"/>
-      <c r="CE33" s="30"/>
-    </row>
-    <row r="34" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="12"/>
@@ -6082,15 +6069,17 @@
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="T34" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="W34" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD34" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="S34" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="V34" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
       <c r="AE34" s="30"/>
       <c r="AF34" s="30"/>
       <c r="AG34" s="30"/>
@@ -6142,21 +6131,19 @@
       <c r="CA34" s="30"/>
       <c r="CB34" s="30"/>
       <c r="CC34" s="30"/>
-      <c r="CD34" s="30"/>
-      <c r="CE34" s="30"/>
-    </row>
-    <row r="35" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="12"/>
@@ -6170,16 +6157,18 @@
       <c r="N35" s="12"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="T35" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="U35" s="103"/>
-      <c r="W35" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD35" s="14" t="s">
+      <c r="S35" s="103" t="s">
         <v>138</v>
       </c>
+      <c r="T35" s="103"/>
+      <c r="V35" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
       <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
@@ -6231,21 +6220,19 @@
       <c r="CA35" s="30"/>
       <c r="CB35" s="30"/>
       <c r="CC35" s="30"/>
-      <c r="CD35" s="30"/>
-      <c r="CE35" s="30"/>
-    </row>
-    <row r="36" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D36" s="85" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="12"/>
@@ -6259,10 +6246,12 @@
       <c r="N36" s="12"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="53" t="s">
-        <v>151</v>
-      </c>
+      <c r="U36" s="12"/>
+      <c r="V36" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
       <c r="AE36" s="30"/>
       <c r="AF36" s="30"/>
       <c r="AG36" s="30"/>
@@ -6314,19 +6303,17 @@
       <c r="CA36" s="30"/>
       <c r="CB36" s="30"/>
       <c r="CC36" s="30"/>
-      <c r="CD36" s="30"/>
-      <c r="CE36" s="30"/>
-    </row>
-    <row r="37" spans="1:83" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:81" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="12"/>
@@ -6340,13 +6327,15 @@
       <c r="N37" s="12"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="U37" s="12"/>
+      <c r="V37" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
       <c r="AG37" s="30"/>
@@ -6398,24 +6387,22 @@
       <c r="CA37" s="30"/>
       <c r="CB37" s="30"/>
       <c r="CC37" s="30"/>
-      <c r="CD37" s="30"/>
-      <c r="CE37" s="30"/>
-    </row>
-    <row r="38" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -6428,11 +6415,13 @@
       <c r="N38" s="12"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD38" s="2"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
       <c r="AG38" s="30"/>
@@ -6484,25 +6473,23 @@
       <c r="CA38" s="30"/>
       <c r="CB38" s="30"/>
       <c r="CC38" s="30"/>
-      <c r="CD38" s="30"/>
-      <c r="CE38" s="30"/>
-    </row>
-    <row r="39" spans="1:83" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:81" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -6514,13 +6501,15 @@
       <c r="N39" s="12"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="V39" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="W39" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD39" s="2"/>
+      <c r="U39" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V39" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
       <c r="AE39" s="30"/>
       <c r="AF39" s="30"/>
       <c r="AG39" s="30"/>
@@ -6572,21 +6561,19 @@
       <c r="CA39" s="30"/>
       <c r="CB39" s="30"/>
       <c r="CC39" s="30"/>
-      <c r="CD39" s="30"/>
-      <c r="CE39" s="30"/>
-    </row>
-    <row r="40" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="64"/>
@@ -6597,16 +6584,18 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="V40" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="W40" s="53"/>
-      <c r="AD40" s="2"/>
+      <c r="U40" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V40" s="53"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
       <c r="AE40" s="30"/>
       <c r="AF40" s="30"/>
       <c r="AG40" s="30"/>
@@ -6658,21 +6647,19 @@
       <c r="CA40" s="30"/>
       <c r="CB40" s="30"/>
       <c r="CC40" s="30"/>
-      <c r="CD40" s="30"/>
-      <c r="CE40" s="30"/>
-    </row>
-    <row r="41" spans="1:83" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:81" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="12"/>
@@ -6686,11 +6673,13 @@
       <c r="N41" s="12"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
-      <c r="V41" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="W41" s="53"/>
-      <c r="AD41" s="2"/>
+      <c r="U41" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V41" s="53"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
       <c r="AE41" s="30"/>
       <c r="AF41" s="30"/>
       <c r="AG41" s="30"/>
@@ -6742,21 +6731,19 @@
       <c r="CA41" s="30"/>
       <c r="CB41" s="30"/>
       <c r="CC41" s="30"/>
-      <c r="CD41" s="30"/>
-      <c r="CE41" s="30"/>
-    </row>
-    <row r="42" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="12"/>
@@ -6770,11 +6757,13 @@
       <c r="N42" s="12"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD42" s="2"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
       <c r="AE42" s="30"/>
       <c r="AF42" s="30"/>
       <c r="AG42" s="30"/>
@@ -6826,21 +6815,19 @@
       <c r="CA42" s="30"/>
       <c r="CB42" s="30"/>
       <c r="CC42" s="30"/>
-      <c r="CD42" s="30"/>
-      <c r="CE42" s="30"/>
-    </row>
-    <row r="43" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="12"/>
@@ -6854,11 +6841,13 @@
       <c r="N43" s="12"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD43" s="2"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
       <c r="AE43" s="30"/>
       <c r="AF43" s="30"/>
       <c r="AG43" s="30"/>
@@ -6910,21 +6899,19 @@
       <c r="CA43" s="30"/>
       <c r="CB43" s="30"/>
       <c r="CC43" s="30"/>
-      <c r="CD43" s="30"/>
-      <c r="CE43" s="30"/>
-    </row>
-    <row r="44" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E44" s="42"/>
       <c r="F44" s="12"/>
@@ -6938,14 +6925,16 @@
       <c r="N44" s="12"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="T44" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="V44" s="12"/>
-      <c r="W44" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD44" s="2"/>
+      <c r="S44" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U44" s="12"/>
+      <c r="V44" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
       <c r="AE44" s="30"/>
       <c r="AF44" s="30"/>
       <c r="AG44" s="30"/>
@@ -6997,21 +6986,19 @@
       <c r="CA44" s="30"/>
       <c r="CB44" s="30"/>
       <c r="CC44" s="30"/>
-      <c r="CD44" s="30"/>
-      <c r="CE44" s="30"/>
-    </row>
-    <row r="45" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="12"/>
@@ -7025,11 +7012,13 @@
       <c r="N45" s="12"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD45" s="2"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
       <c r="AE45" s="30"/>
       <c r="AF45" s="30"/>
       <c r="AG45" s="30"/>
@@ -7081,21 +7070,19 @@
       <c r="CA45" s="30"/>
       <c r="CB45" s="30"/>
       <c r="CC45" s="30"/>
-      <c r="CD45" s="30"/>
-      <c r="CE45" s="30"/>
-    </row>
-    <row r="46" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="12"/>
@@ -7109,11 +7096,13 @@
       <c r="N46" s="12"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD46" s="2"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
       <c r="AE46" s="30"/>
       <c r="AF46" s="30"/>
       <c r="AG46" s="30"/>
@@ -7165,21 +7154,19 @@
       <c r="CA46" s="30"/>
       <c r="CB46" s="30"/>
       <c r="CC46" s="30"/>
-      <c r="CD46" s="30"/>
-      <c r="CE46" s="30"/>
-    </row>
-    <row r="47" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="12"/>
@@ -7193,14 +7180,16 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
-      <c r="T47" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="V47" s="12"/>
-      <c r="W47" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD47" s="2"/>
+      <c r="S47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="U47" s="12"/>
+      <c r="V47" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
       <c r="AE47" s="30"/>
       <c r="AF47" s="30"/>
       <c r="AG47" s="30"/>
@@ -7252,21 +7241,19 @@
       <c r="CA47" s="30"/>
       <c r="CB47" s="30"/>
       <c r="CC47" s="30"/>
-      <c r="CD47" s="30"/>
-      <c r="CE47" s="30"/>
-    </row>
-    <row r="48" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="12"/>
@@ -7280,11 +7267,13 @@
       <c r="N48" s="12"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD48" s="2"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
       <c r="AE48" s="30"/>
       <c r="AF48" s="30"/>
       <c r="AG48" s="30"/>
@@ -7336,21 +7325,19 @@
       <c r="CA48" s="30"/>
       <c r="CB48" s="30"/>
       <c r="CC48" s="30"/>
-      <c r="CD48" s="30"/>
-      <c r="CE48" s="30"/>
-    </row>
-    <row r="49" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="12"/>
@@ -7364,11 +7351,13 @@
       <c r="N49" s="12"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD49" s="2"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
       <c r="AE49" s="30"/>
       <c r="AF49" s="30"/>
       <c r="AG49" s="30"/>
@@ -7420,21 +7409,19 @@
       <c r="CA49" s="30"/>
       <c r="CB49" s="30"/>
       <c r="CC49" s="30"/>
-      <c r="CD49" s="30"/>
-      <c r="CE49" s="30"/>
-    </row>
-    <row r="50" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="12"/>
@@ -7448,10 +7435,12 @@
       <c r="N50" s="12"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="53" t="s">
-        <v>192</v>
-      </c>
+      <c r="U50" s="12"/>
+      <c r="V50" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
       <c r="AE50" s="30"/>
       <c r="AF50" s="30"/>
       <c r="AG50" s="30"/>
@@ -7503,24 +7492,22 @@
       <c r="CA50" s="30"/>
       <c r="CB50" s="30"/>
       <c r="CC50" s="30"/>
-      <c r="CD50" s="30"/>
-      <c r="CE50" s="30"/>
-    </row>
-    <row r="51" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -7533,8 +7520,10 @@
       <c r="N51" s="12"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="53"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="53"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
       <c r="AF51" s="30"/>
       <c r="AG51" s="30"/>
@@ -7586,24 +7575,22 @@
       <c r="CA51" s="30"/>
       <c r="CB51" s="30"/>
       <c r="CC51" s="30"/>
-      <c r="CD51" s="30"/>
-      <c r="CE51" s="30"/>
-    </row>
-    <row r="52" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -7616,8 +7603,10 @@
       <c r="N52" s="12"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="53"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="53"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
       <c r="AF52" s="30"/>
       <c r="AG52" s="30"/>
@@ -7669,24 +7658,22 @@
       <c r="CA52" s="30"/>
       <c r="CB52" s="30"/>
       <c r="CC52" s="30"/>
-      <c r="CD52" s="30"/>
-      <c r="CE52" s="30"/>
-    </row>
-    <row r="53" spans="1:83" s="11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:81" s="11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -7699,13 +7686,15 @@
       <c r="N53" s="12"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
-      <c r="T53" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="V53" s="12"/>
-      <c r="W53" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="S53" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="U53" s="12"/>
+      <c r="V53" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
       <c r="AE53" s="30"/>
       <c r="AF53" s="30"/>
       <c r="AG53" s="30"/>
@@ -7757,21 +7746,19 @@
       <c r="CA53" s="30"/>
       <c r="CB53" s="30"/>
       <c r="CC53" s="30"/>
-      <c r="CD53" s="30"/>
-      <c r="CE53" s="30"/>
-    </row>
-    <row r="54" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="12"/>
@@ -7785,14 +7772,16 @@
       <c r="N54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
-      <c r="T54" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="V54" s="12"/>
-      <c r="W54" s="53"/>
-      <c r="AD54" s="34" t="s">
-        <v>197</v>
-      </c>
+      <c r="S54" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="U54" s="12"/>
+      <c r="V54" s="53"/>
+      <c r="AB54" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
       <c r="AF54" s="30"/>
       <c r="AG54" s="30"/>
@@ -7844,21 +7833,19 @@
       <c r="CA54" s="30"/>
       <c r="CB54" s="30"/>
       <c r="CC54" s="30"/>
-      <c r="CD54" s="30"/>
-      <c r="CE54" s="30"/>
-    </row>
-    <row r="55" spans="1:83" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:81" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E55" s="42"/>
       <c r="F55" s="12"/>
@@ -7871,16 +7858,18 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="P55" s="13"/>
-      <c r="T55" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="V55" s="12"/>
-      <c r="W55" s="53" t="s">
-        <v>203</v>
-      </c>
+      <c r="S55" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U55" s="12"/>
+      <c r="V55" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
       <c r="AF55" s="30"/>
       <c r="AG55" s="30"/>
@@ -7932,21 +7921,19 @@
       <c r="CA55" s="30"/>
       <c r="CB55" s="30"/>
       <c r="CC55" s="30"/>
-      <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
-    </row>
-    <row r="56" spans="1:83" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:81" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="12"/>
@@ -7959,16 +7946,18 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="P56" s="13"/>
-      <c r="T56" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="V56" s="12"/>
-      <c r="W56" s="53" t="s">
-        <v>203</v>
-      </c>
+      <c r="S56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="U56" s="12"/>
+      <c r="V56" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
       <c r="AE56" s="30"/>
       <c r="AF56" s="30"/>
       <c r="AG56" s="30"/>
@@ -8020,21 +8009,19 @@
       <c r="CA56" s="30"/>
       <c r="CB56" s="30"/>
       <c r="CC56" s="30"/>
-      <c r="CD56" s="30"/>
-      <c r="CE56" s="30"/>
-    </row>
-    <row r="57" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="12"/>
@@ -8048,7 +8035,9 @@
       <c r="N57" s="12"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
-      <c r="V57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
       <c r="AE57" s="30"/>
       <c r="AF57" s="30"/>
       <c r="AG57" s="30"/>
@@ -8100,24 +8089,22 @@
       <c r="CA57" s="30"/>
       <c r="CB57" s="30"/>
       <c r="CC57" s="30"/>
-      <c r="CD57" s="30"/>
-      <c r="CE57" s="30"/>
-    </row>
-    <row r="58" spans="1:83" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:81" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -8129,15 +8116,17 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="24" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P58" s="13"/>
+      <c r="S58" s="50"/>
       <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="53" t="s">
-        <v>203</v>
-      </c>
+      <c r="U58" s="12"/>
+      <c r="V58" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
       <c r="AF58" s="30"/>
       <c r="AG58" s="30"/>
@@ -8189,21 +8178,19 @@
       <c r="CA58" s="30"/>
       <c r="CB58" s="30"/>
       <c r="CC58" s="30"/>
-      <c r="CD58" s="30"/>
-      <c r="CE58" s="30"/>
-    </row>
-    <row r="59" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="12"/>
@@ -8217,18 +8204,20 @@
       <c r="N59" s="12"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
-      <c r="R59" s="11" t="s">
-        <v>428</v>
-      </c>
+      <c r="Q59" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="S59" s="22"/>
       <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="U59" s="14"/>
+      <c r="V59" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
       <c r="AF59" s="30"/>
       <c r="AG59" s="30"/>
@@ -8280,24 +8269,22 @@
       <c r="CA59" s="30"/>
       <c r="CB59" s="30"/>
       <c r="CC59" s="30"/>
-      <c r="CD59" s="30"/>
-      <c r="CE59" s="30"/>
-    </row>
-    <row r="60" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -8310,13 +8297,15 @@
       <c r="N60" s="12"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
-      <c r="T60" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="U60" s="22"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="53"/>
-      <c r="AD60" s="3"/>
+      <c r="S60" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="T60" s="22"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="53"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
       <c r="AF60" s="30"/>
       <c r="AG60" s="30"/>
@@ -8368,21 +8357,19 @@
       <c r="CA60" s="30"/>
       <c r="CB60" s="30"/>
       <c r="CC60" s="30"/>
-      <c r="CD60" s="30"/>
-      <c r="CE60" s="30"/>
-    </row>
-    <row r="61" spans="1:83" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:81" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E61" s="48"/>
       <c r="F61" s="12"/>
@@ -8396,16 +8383,18 @@
       <c r="N61" s="12"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
-      <c r="R61" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="U61" s="22"/>
-      <c r="V61" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W61" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q61" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="T61" s="22"/>
+      <c r="U61" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V61" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
       <c r="AF61" s="30"/>
       <c r="AG61" s="30"/>
@@ -8457,21 +8446,19 @@
       <c r="CA61" s="30"/>
       <c r="CB61" s="30"/>
       <c r="CC61" s="30"/>
-      <c r="CD61" s="30"/>
-      <c r="CE61" s="30"/>
-    </row>
-    <row r="62" spans="1:83" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:81" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="12"/>
@@ -8485,19 +8472,21 @@
       <c r="N62" s="12"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
-      <c r="R62" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="U62" s="22"/>
-      <c r="V62" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W62" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD62" s="61" t="s">
-        <v>224</v>
-      </c>
+      <c r="Q62" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="T62" s="22"/>
+      <c r="U62" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V62" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB62" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
       <c r="AF62" s="30"/>
       <c r="AG62" s="30"/>
@@ -8549,21 +8538,19 @@
       <c r="CA62" s="30"/>
       <c r="CB62" s="30"/>
       <c r="CC62" s="30"/>
-      <c r="CD62" s="30"/>
-      <c r="CE62" s="30"/>
-    </row>
-    <row r="63" spans="1:83" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:81" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="12"/>
@@ -8577,19 +8564,21 @@
       <c r="N63" s="12"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
-      <c r="R63" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="U63" s="22"/>
-      <c r="V63" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W63" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD63" s="60" t="s">
-        <v>228</v>
-      </c>
+      <c r="Q63" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="T63" s="22"/>
+      <c r="U63" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V63" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB63" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
       <c r="AF63" s="30"/>
       <c r="AG63" s="30"/>
@@ -8641,21 +8630,19 @@
       <c r="CA63" s="30"/>
       <c r="CB63" s="30"/>
       <c r="CC63" s="30"/>
-      <c r="CD63" s="30"/>
-      <c r="CE63" s="30"/>
-    </row>
-    <row r="64" spans="1:83" s="11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:81" s="11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="12"/>
@@ -8669,20 +8656,22 @@
       <c r="N64" s="12"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
-      <c r="R64" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="S64" s="104"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W64" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD64" s="60" t="s">
-        <v>232</v>
-      </c>
+      <c r="Q64" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="R64" s="104"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V64" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB64" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
       <c r="AF64" s="30"/>
       <c r="AG64" s="30"/>
@@ -8734,21 +8723,19 @@
       <c r="CA64" s="30"/>
       <c r="CB64" s="30"/>
       <c r="CC64" s="30"/>
-      <c r="CD64" s="30"/>
-      <c r="CE64" s="30"/>
-    </row>
-    <row r="65" spans="1:83" s="11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:81" s="11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E65" s="48"/>
       <c r="F65" s="12"/>
@@ -8762,19 +8749,21 @@
       <c r="N65" s="12"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
-      <c r="R65" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="U65" s="22"/>
-      <c r="V65" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W65" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD65" s="60" t="s">
-        <v>236</v>
-      </c>
+      <c r="Q65" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="T65" s="22"/>
+      <c r="U65" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V65" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB65" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
       <c r="AF65" s="30"/>
       <c r="AG65" s="30"/>
@@ -8826,21 +8815,19 @@
       <c r="CA65" s="30"/>
       <c r="CB65" s="30"/>
       <c r="CC65" s="30"/>
-      <c r="CD65" s="30"/>
-      <c r="CE65" s="30"/>
-    </row>
-    <row r="66" spans="1:83" s="11" customFormat="1" ht="380" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:81" s="11" customFormat="1" ht="380" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E66" s="48"/>
       <c r="F66" s="12"/>
@@ -8854,16 +8841,18 @@
       <c r="N66" s="12"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
-      <c r="R66" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="U66" s="22"/>
-      <c r="V66" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W66" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q66" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="T66" s="22"/>
+      <c r="U66" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V66" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
       <c r="AF66" s="30"/>
       <c r="AG66" s="30"/>
@@ -8915,21 +8904,19 @@
       <c r="CA66" s="30"/>
       <c r="CB66" s="30"/>
       <c r="CC66" s="30"/>
-      <c r="CD66" s="30"/>
-      <c r="CE66" s="30"/>
-    </row>
-    <row r="67" spans="1:83" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:81" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E67" s="48"/>
       <c r="F67" s="12"/>
@@ -8943,16 +8930,18 @@
       <c r="N67" s="12"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
-      <c r="R67" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="U67" s="22"/>
-      <c r="V67" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W67" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q67" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="T67" s="22"/>
+      <c r="U67" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V67" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
       <c r="AF67" s="30"/>
       <c r="AG67" s="30"/>
@@ -9004,21 +8993,19 @@
       <c r="CA67" s="30"/>
       <c r="CB67" s="30"/>
       <c r="CC67" s="30"/>
-      <c r="CD67" s="30"/>
-      <c r="CE67" s="30"/>
-    </row>
-    <row r="68" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="12"/>
@@ -9032,7 +9019,9 @@
       <c r="N68" s="12"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
-      <c r="V68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
       <c r="AF68" s="30"/>
       <c r="AG68" s="30"/>
@@ -9084,21 +9073,19 @@
       <c r="CA68" s="30"/>
       <c r="CB68" s="30"/>
       <c r="CC68" s="30"/>
-      <c r="CD68" s="30"/>
-      <c r="CE68" s="30"/>
-    </row>
-    <row r="69" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="12"/>
@@ -9112,10 +9099,12 @@
       <c r="N69" s="12"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="U69" s="12"/>
+      <c r="V69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
       <c r="AF69" s="30"/>
       <c r="AG69" s="30"/>
@@ -9167,21 +9156,19 @@
       <c r="CA69" s="30"/>
       <c r="CB69" s="30"/>
       <c r="CC69" s="30"/>
-      <c r="CD69" s="30"/>
-      <c r="CE69" s="30"/>
-    </row>
-    <row r="70" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="12"/>
@@ -9195,13 +9182,15 @@
       <c r="N70" s="12"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="U70" s="12"/>
+      <c r="V70" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
       <c r="AE70" s="30"/>
       <c r="AF70" s="30"/>
       <c r="AG70" s="30"/>
@@ -9253,21 +9242,19 @@
       <c r="CA70" s="30"/>
       <c r="CB70" s="30"/>
       <c r="CC70" s="30"/>
-      <c r="CD70" s="30"/>
-      <c r="CE70" s="30"/>
-    </row>
-    <row r="71" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="12"/>
@@ -9281,15 +9268,17 @@
       <c r="N71" s="12"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
-      <c r="S71" s="58"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="64"/>
-      <c r="W71" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD71" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="R71" s="58"/>
+      <c r="T71" s="58"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB71" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
       <c r="AE71" s="30"/>
       <c r="AF71" s="30"/>
       <c r="AG71" s="30"/>
@@ -9341,21 +9330,19 @@
       <c r="CA71" s="30"/>
       <c r="CB71" s="30"/>
       <c r="CC71" s="30"/>
-      <c r="CD71" s="30"/>
-      <c r="CE71" s="30"/>
-    </row>
-    <row r="72" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="12"/>
@@ -9369,15 +9356,17 @@
       <c r="N72" s="12"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
-      <c r="S72" s="58"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="64"/>
-      <c r="W72" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD72" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="R72" s="58"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
       <c r="AE72" s="30"/>
       <c r="AF72" s="30"/>
       <c r="AG72" s="30"/>
@@ -9429,21 +9418,19 @@
       <c r="CA72" s="30"/>
       <c r="CB72" s="30"/>
       <c r="CC72" s="30"/>
-      <c r="CD72" s="30"/>
-      <c r="CE72" s="30"/>
-    </row>
-    <row r="73" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="12"/>
@@ -9457,12 +9444,14 @@
       <c r="N73" s="12"/>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
-      <c r="S73" s="58"/>
-      <c r="U73" s="58"/>
-      <c r="V73" s="64"/>
-      <c r="W73" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R73" s="58"/>
+      <c r="T73" s="58"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
       <c r="AE73" s="30"/>
       <c r="AF73" s="30"/>
       <c r="AG73" s="30"/>
@@ -9514,21 +9503,19 @@
       <c r="CA73" s="30"/>
       <c r="CB73" s="30"/>
       <c r="CC73" s="30"/>
-      <c r="CD73" s="30"/>
-      <c r="CE73" s="30"/>
-    </row>
-    <row r="74" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="12"/>
@@ -9542,12 +9529,14 @@
       <c r="N74" s="12"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
-      <c r="S74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R74" s="58"/>
+      <c r="T74" s="58"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
       <c r="AE74" s="30"/>
       <c r="AF74" s="30"/>
       <c r="AG74" s="30"/>
@@ -9599,21 +9588,19 @@
       <c r="CA74" s="30"/>
       <c r="CB74" s="30"/>
       <c r="CC74" s="30"/>
-      <c r="CD74" s="30"/>
-      <c r="CE74" s="30"/>
-    </row>
-    <row r="75" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="12"/>
@@ -9627,12 +9614,14 @@
       <c r="N75" s="12"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
-      <c r="S75" s="58"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="64"/>
-      <c r="W75" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R75" s="58"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
       <c r="AE75" s="30"/>
       <c r="AF75" s="30"/>
       <c r="AG75" s="30"/>
@@ -9684,21 +9673,19 @@
       <c r="CA75" s="30"/>
       <c r="CB75" s="30"/>
       <c r="CC75" s="30"/>
-      <c r="CD75" s="30"/>
-      <c r="CE75" s="30"/>
-    </row>
-    <row r="76" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E76" s="48"/>
       <c r="F76" s="12"/>
@@ -9712,19 +9699,21 @@
       <c r="N76" s="12"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
-      <c r="R76" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="S76" s="58"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="80"/>
-      <c r="V76" s="64"/>
-      <c r="W76" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD76" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="Q76" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="R76" s="58"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="80"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
       <c r="AE76" s="30"/>
       <c r="AF76" s="30"/>
       <c r="AG76" s="30"/>
@@ -9776,21 +9765,19 @@
       <c r="CA76" s="30"/>
       <c r="CB76" s="30"/>
       <c r="CC76" s="30"/>
-      <c r="CD76" s="30"/>
-      <c r="CE76" s="30"/>
-    </row>
-    <row r="77" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="12"/>
@@ -9804,15 +9791,17 @@
       <c r="N77" s="12"/>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
-      <c r="S77" s="58"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="81"/>
-      <c r="V77" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="W77" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R77" s="58"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="81"/>
+      <c r="U77" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="V77" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
       <c r="AE77" s="30"/>
       <c r="AF77" s="30"/>
       <c r="AG77" s="30"/>
@@ -9864,21 +9853,19 @@
       <c r="CA77" s="30"/>
       <c r="CB77" s="30"/>
       <c r="CC77" s="30"/>
-      <c r="CD77" s="30"/>
-      <c r="CE77" s="30"/>
-    </row>
-    <row r="78" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E78" s="48"/>
       <c r="F78" s="12"/>
@@ -9892,15 +9879,17 @@
       <c r="N78" s="12"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
-      <c r="R78" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="S78" s="58"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="64"/>
-      <c r="W78" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q78" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="R78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="64"/>
+      <c r="V78" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
       <c r="AE78" s="30"/>
       <c r="AF78" s="30"/>
       <c r="AG78" s="30"/>
@@ -9952,21 +9941,19 @@
       <c r="CA78" s="30"/>
       <c r="CB78" s="30"/>
       <c r="CC78" s="30"/>
-      <c r="CD78" s="30"/>
-      <c r="CE78" s="30"/>
-    </row>
-    <row r="79" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E79" s="48"/>
       <c r="F79" s="12"/>
@@ -9980,15 +9967,17 @@
       <c r="N79" s="12"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
-      <c r="S79" s="58"/>
-      <c r="U79" s="58"/>
-      <c r="V79" s="64"/>
-      <c r="W79" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD79" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="R79" s="58"/>
+      <c r="T79" s="58"/>
+      <c r="U79" s="64"/>
+      <c r="V79" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
       <c r="AE79" s="30"/>
       <c r="AF79" s="30"/>
       <c r="AG79" s="30"/>
@@ -10040,21 +10029,19 @@
       <c r="CA79" s="30"/>
       <c r="CB79" s="30"/>
       <c r="CC79" s="30"/>
-      <c r="CD79" s="30"/>
-      <c r="CE79" s="30"/>
-    </row>
-    <row r="80" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E80" s="48"/>
       <c r="F80" s="12"/>
@@ -10068,12 +10055,14 @@
       <c r="N80" s="12"/>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
-      <c r="S80" s="58"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="64"/>
-      <c r="W80" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R80" s="58"/>
+      <c r="T80" s="58"/>
+      <c r="U80" s="64"/>
+      <c r="V80" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
       <c r="AE80" s="30"/>
       <c r="AF80" s="30"/>
       <c r="AG80" s="30"/>
@@ -10125,21 +10114,19 @@
       <c r="CA80" s="30"/>
       <c r="CB80" s="30"/>
       <c r="CC80" s="30"/>
-      <c r="CD80" s="30"/>
-      <c r="CE80" s="30"/>
-    </row>
-    <row r="81" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="107" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E81" s="48"/>
       <c r="F81" s="12"/>
@@ -10153,13 +10140,15 @@
       <c r="N81" s="12"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
-      <c r="S81" s="58"/>
+      <c r="R81" s="58"/>
+      <c r="T81" s="58"/>
       <c r="U81" s="58"/>
-      <c r="V81" s="58"/>
-      <c r="W81" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD81" s="22"/>
+      <c r="V81" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
       <c r="AE81" s="30"/>
       <c r="AF81" s="30"/>
       <c r="AG81" s="30"/>
@@ -10211,21 +10200,19 @@
       <c r="CA81" s="30"/>
       <c r="CB81" s="30"/>
       <c r="CC81" s="30"/>
-      <c r="CD81" s="30"/>
-      <c r="CE81" s="30"/>
-    </row>
-    <row r="82" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E82" s="48"/>
       <c r="F82" s="12"/>
@@ -10239,16 +10226,18 @@
       <c r="N82" s="12"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="78"/>
-      <c r="U82" s="58"/>
-      <c r="V82" s="64"/>
-      <c r="W82" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD82" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="78"/>
+      <c r="T82" s="58"/>
+      <c r="U82" s="64"/>
+      <c r="V82" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
       <c r="AE82" s="30"/>
       <c r="AF82" s="30"/>
       <c r="AG82" s="30"/>
@@ -10300,21 +10289,19 @@
       <c r="CA82" s="30"/>
       <c r="CB82" s="30"/>
       <c r="CC82" s="30"/>
-      <c r="CD82" s="30"/>
-      <c r="CE82" s="30"/>
-    </row>
-    <row r="83" spans="1:83" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:81" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E83" s="48"/>
       <c r="F83" s="12"/>
@@ -10328,13 +10315,15 @@
       <c r="N83" s="12"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
-      <c r="S83" s="58"/>
-      <c r="U83" s="58"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD83" s="22"/>
+      <c r="R83" s="58"/>
+      <c r="T83" s="58"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
       <c r="AE83" s="30"/>
       <c r="AF83" s="30"/>
       <c r="AG83" s="30"/>
@@ -10386,21 +10375,19 @@
       <c r="CA83" s="30"/>
       <c r="CB83" s="30"/>
       <c r="CC83" s="30"/>
-      <c r="CD83" s="30"/>
-      <c r="CE83" s="30"/>
-    </row>
-    <row r="84" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="107" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E84" s="48"/>
       <c r="F84" s="12"/>
@@ -10414,15 +10401,17 @@
       <c r="N84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
-      <c r="S84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="T84" s="58"/>
       <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
-      <c r="W84" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD84" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="V84" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB84" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
       <c r="AE84" s="30"/>
       <c r="AF84" s="30"/>
       <c r="AG84" s="30"/>
@@ -10474,21 +10463,19 @@
       <c r="CA84" s="30"/>
       <c r="CB84" s="30"/>
       <c r="CC84" s="30"/>
-      <c r="CD84" s="30"/>
-      <c r="CE84" s="30"/>
-    </row>
-    <row r="85" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E85" s="48"/>
       <c r="F85" s="12"/>
@@ -10502,15 +10489,17 @@
       <c r="N85" s="12"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
-      <c r="S85" s="58"/>
-      <c r="U85" s="58"/>
-      <c r="V85" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="W85" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD85" s="22"/>
+      <c r="R85" s="58"/>
+      <c r="T85" s="58"/>
+      <c r="U85" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="V85" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
       <c r="AE85" s="30"/>
       <c r="AF85" s="30"/>
       <c r="AG85" s="30"/>
@@ -10562,21 +10551,19 @@
       <c r="CA85" s="30"/>
       <c r="CB85" s="30"/>
       <c r="CC85" s="30"/>
-      <c r="CD85" s="30"/>
-      <c r="CE85" s="30"/>
-    </row>
-    <row r="86" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E86" s="48"/>
       <c r="F86" s="12"/>
@@ -10590,14 +10577,16 @@
       <c r="N86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
-      <c r="S86" s="58"/>
-      <c r="U86" s="58"/>
-      <c r="V86" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="W86" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="V86" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
       <c r="AE86" s="30"/>
       <c r="AF86" s="30"/>
       <c r="AG86" s="30"/>
@@ -10649,21 +10638,19 @@
       <c r="CA86" s="30"/>
       <c r="CB86" s="30"/>
       <c r="CC86" s="30"/>
-      <c r="CD86" s="30"/>
-      <c r="CE86" s="30"/>
-    </row>
-    <row r="87" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="94" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="12"/>
@@ -10677,10 +10664,12 @@
       <c r="N87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
-      <c r="S87" s="58"/>
-      <c r="U87" s="58"/>
-      <c r="V87" s="64"/>
-      <c r="W87" s="54"/>
+      <c r="R87" s="58"/>
+      <c r="T87" s="58"/>
+      <c r="U87" s="64"/>
+      <c r="V87" s="54"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
       <c r="AE87" s="30"/>
       <c r="AF87" s="30"/>
       <c r="AG87" s="30"/>
@@ -10732,21 +10721,19 @@
       <c r="CA87" s="30"/>
       <c r="CB87" s="30"/>
       <c r="CC87" s="30"/>
-      <c r="CD87" s="30"/>
-      <c r="CE87" s="30"/>
-    </row>
-    <row r="88" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E88" s="48"/>
       <c r="F88" s="12"/>
@@ -10759,20 +10746,22 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
       <c r="O88" s="24" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="P88" s="13"/>
-      <c r="S88" s="58"/>
-      <c r="T88" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="U88" s="58"/>
-      <c r="V88" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="W88" s="55" t="s">
-        <v>70</v>
-      </c>
+      <c r="R88" s="58"/>
+      <c r="S88" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="T88" s="58"/>
+      <c r="U88" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="V88" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
       <c r="AE88" s="30"/>
       <c r="AF88" s="30"/>
       <c r="AG88" s="30"/>
@@ -10824,21 +10813,19 @@
       <c r="CA88" s="30"/>
       <c r="CB88" s="30"/>
       <c r="CC88" s="30"/>
-      <c r="CD88" s="30"/>
-      <c r="CE88" s="30"/>
-    </row>
-    <row r="89" spans="1:83" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:81" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E89" s="48"/>
       <c r="G89" s="12"/>
@@ -10850,20 +10837,22 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
       <c r="O89" s="24" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="P89" s="13"/>
-      <c r="R89" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="S89" s="58"/>
-      <c r="U89" s="58"/>
-      <c r="V89" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="W89" s="55" t="s">
-        <v>295</v>
-      </c>
+      <c r="Q89" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="R89" s="58"/>
+      <c r="T89" s="58"/>
+      <c r="U89" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="V89" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
       <c r="AE89" s="30"/>
       <c r="AF89" s="30"/>
       <c r="AG89" s="30"/>
@@ -10915,21 +10904,19 @@
       <c r="CA89" s="30"/>
       <c r="CB89" s="30"/>
       <c r="CC89" s="30"/>
-      <c r="CD89" s="30"/>
-      <c r="CE89" s="30"/>
-    </row>
-    <row r="90" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E90" s="42"/>
       <c r="F90" s="12"/>
@@ -10943,15 +10930,17 @@
       <c r="N90" s="12"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
-      <c r="S90" s="58"/>
-      <c r="U90" s="58"/>
-      <c r="V90" s="64"/>
-      <c r="W90" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD90" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="R90" s="58"/>
+      <c r="T90" s="58"/>
+      <c r="U90" s="64"/>
+      <c r="V90" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
       <c r="AE90" s="30"/>
       <c r="AF90" s="30"/>
       <c r="AG90" s="30"/>
@@ -11003,21 +10992,19 @@
       <c r="CA90" s="30"/>
       <c r="CB90" s="30"/>
       <c r="CC90" s="30"/>
-      <c r="CD90" s="30"/>
-      <c r="CE90" s="30"/>
-    </row>
-    <row r="91" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E91" s="42"/>
       <c r="F91" s="12"/>
@@ -11031,12 +11018,14 @@
       <c r="N91" s="12"/>
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
-      <c r="S91" s="58"/>
-      <c r="U91" s="58"/>
-      <c r="V91" s="64"/>
-      <c r="W91" s="53" t="s">
-        <v>303</v>
-      </c>
+      <c r="R91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="64"/>
+      <c r="V91" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
       <c r="AE91" s="30"/>
       <c r="AF91" s="30"/>
       <c r="AG91" s="30"/>
@@ -11088,21 +11077,19 @@
       <c r="CA91" s="30"/>
       <c r="CB91" s="30"/>
       <c r="CC91" s="30"/>
-      <c r="CD91" s="30"/>
-      <c r="CE91" s="30"/>
-    </row>
-    <row r="92" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="12"/>
@@ -11116,12 +11103,14 @@
       <c r="N92" s="12"/>
       <c r="O92" s="13"/>
       <c r="P92" s="13"/>
-      <c r="S92" s="58"/>
-      <c r="U92" s="58"/>
-      <c r="V92" s="64"/>
-      <c r="W92" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R92" s="58"/>
+      <c r="T92" s="58"/>
+      <c r="U92" s="64"/>
+      <c r="V92" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
       <c r="AE92" s="30"/>
       <c r="AF92" s="30"/>
       <c r="AG92" s="30"/>
@@ -11173,21 +11162,19 @@
       <c r="CA92" s="30"/>
       <c r="CB92" s="30"/>
       <c r="CC92" s="30"/>
-      <c r="CD92" s="30"/>
-      <c r="CE92" s="30"/>
-    </row>
-    <row r="93" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="12"/>
@@ -11201,12 +11188,14 @@
       <c r="N93" s="12"/>
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
-      <c r="S93" s="58"/>
-      <c r="U93" s="58"/>
-      <c r="V93" s="64"/>
-      <c r="W93" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R93" s="58"/>
+      <c r="T93" s="58"/>
+      <c r="U93" s="64"/>
+      <c r="V93" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
       <c r="AE93" s="30"/>
       <c r="AF93" s="30"/>
       <c r="AG93" s="30"/>
@@ -11258,21 +11247,19 @@
       <c r="CA93" s="30"/>
       <c r="CB93" s="30"/>
       <c r="CC93" s="30"/>
-      <c r="CD93" s="30"/>
-      <c r="CE93" s="30"/>
-    </row>
-    <row r="94" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="12"/>
@@ -11286,12 +11273,14 @@
       <c r="N94" s="12"/>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
-      <c r="S94" s="58"/>
-      <c r="U94" s="58"/>
-      <c r="V94" s="64"/>
-      <c r="W94" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R94" s="58"/>
+      <c r="T94" s="58"/>
+      <c r="U94" s="64"/>
+      <c r="V94" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC94" s="30"/>
+      <c r="AD94" s="30"/>
       <c r="AE94" s="30"/>
       <c r="AF94" s="30"/>
       <c r="AG94" s="30"/>
@@ -11343,21 +11332,19 @@
       <c r="CA94" s="30"/>
       <c r="CB94" s="30"/>
       <c r="CC94" s="30"/>
-      <c r="CD94" s="30"/>
-      <c r="CE94" s="30"/>
-    </row>
-    <row r="95" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="12"/>
@@ -11371,12 +11358,14 @@
       <c r="N95" s="12"/>
       <c r="O95" s="13"/>
       <c r="P95" s="13"/>
-      <c r="S95" s="58"/>
-      <c r="U95" s="58"/>
-      <c r="V95" s="64"/>
-      <c r="W95" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R95" s="58"/>
+      <c r="T95" s="58"/>
+      <c r="U95" s="64"/>
+      <c r="V95" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC95" s="30"/>
+      <c r="AD95" s="30"/>
       <c r="AE95" s="30"/>
       <c r="AF95" s="30"/>
       <c r="AG95" s="30"/>
@@ -11428,21 +11417,19 @@
       <c r="CA95" s="30"/>
       <c r="CB95" s="30"/>
       <c r="CC95" s="30"/>
-      <c r="CD95" s="30"/>
-      <c r="CE95" s="30"/>
-    </row>
-    <row r="96" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E96" s="42"/>
       <c r="F96" s="12"/>
@@ -11456,12 +11443,14 @@
       <c r="N96" s="12"/>
       <c r="O96" s="13"/>
       <c r="P96" s="13"/>
-      <c r="S96" s="58"/>
-      <c r="U96" s="58"/>
-      <c r="V96" s="64"/>
-      <c r="W96" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R96" s="58"/>
+      <c r="T96" s="58"/>
+      <c r="U96" s="64"/>
+      <c r="V96" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30"/>
       <c r="AE96" s="30"/>
       <c r="AF96" s="30"/>
       <c r="AG96" s="30"/>
@@ -11513,21 +11502,19 @@
       <c r="CA96" s="30"/>
       <c r="CB96" s="30"/>
       <c r="CC96" s="30"/>
-      <c r="CD96" s="30"/>
-      <c r="CE96" s="30"/>
-    </row>
-    <row r="97" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E97" s="43"/>
       <c r="F97" s="12"/>
@@ -11541,9 +11528,11 @@
       <c r="N97" s="12"/>
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
-      <c r="S97" s="58"/>
-      <c r="U97" s="58"/>
-      <c r="V97" s="64"/>
+      <c r="R97" s="58"/>
+      <c r="T97" s="58"/>
+      <c r="U97" s="64"/>
+      <c r="AC97" s="30"/>
+      <c r="AD97" s="30"/>
       <c r="AE97" s="30"/>
       <c r="AF97" s="30"/>
       <c r="AG97" s="30"/>
@@ -11595,21 +11584,19 @@
       <c r="CA97" s="30"/>
       <c r="CB97" s="30"/>
       <c r="CC97" s="30"/>
-      <c r="CD97" s="30"/>
-      <c r="CE97" s="30"/>
-    </row>
-    <row r="98" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E98" s="43"/>
       <c r="F98" s="12"/>
@@ -11623,12 +11610,14 @@
       <c r="N98" s="12"/>
       <c r="O98" s="13"/>
       <c r="P98" s="13"/>
-      <c r="S98" s="58"/>
-      <c r="U98" s="58"/>
-      <c r="V98" s="64"/>
-      <c r="W98" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R98" s="58"/>
+      <c r="T98" s="58"/>
+      <c r="U98" s="64"/>
+      <c r="V98" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
       <c r="AE98" s="30"/>
       <c r="AF98" s="30"/>
       <c r="AG98" s="30"/>
@@ -11680,21 +11669,19 @@
       <c r="CA98" s="30"/>
       <c r="CB98" s="30"/>
       <c r="CC98" s="30"/>
-      <c r="CD98" s="30"/>
-      <c r="CE98" s="30"/>
-    </row>
-    <row r="99" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E99" s="43"/>
       <c r="F99" s="12"/>
@@ -11708,12 +11695,14 @@
       <c r="N99" s="12"/>
       <c r="O99" s="13"/>
       <c r="P99" s="13"/>
-      <c r="S99" s="58"/>
-      <c r="U99" s="58"/>
-      <c r="V99" s="64"/>
-      <c r="W99" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R99" s="58"/>
+      <c r="T99" s="58"/>
+      <c r="U99" s="64"/>
+      <c r="V99" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
       <c r="AE99" s="30"/>
       <c r="AF99" s="30"/>
       <c r="AG99" s="30"/>
@@ -11765,21 +11754,19 @@
       <c r="CA99" s="30"/>
       <c r="CB99" s="30"/>
       <c r="CC99" s="30"/>
-      <c r="CD99" s="30"/>
-      <c r="CE99" s="30"/>
-    </row>
-    <row r="100" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E100" s="43"/>
       <c r="F100" s="12"/>
@@ -11793,12 +11780,14 @@
       <c r="N100" s="12"/>
       <c r="O100" s="13"/>
       <c r="P100" s="13"/>
-      <c r="S100" s="58"/>
-      <c r="U100" s="58"/>
-      <c r="V100" s="64"/>
-      <c r="W100" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R100" s="58"/>
+      <c r="T100" s="58"/>
+      <c r="U100" s="64"/>
+      <c r="V100" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
       <c r="AE100" s="30"/>
       <c r="AF100" s="30"/>
       <c r="AG100" s="30"/>
@@ -11850,21 +11839,19 @@
       <c r="CA100" s="30"/>
       <c r="CB100" s="30"/>
       <c r="CC100" s="30"/>
-      <c r="CD100" s="30"/>
-      <c r="CE100" s="30"/>
-    </row>
-    <row r="101" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E101" s="43"/>
       <c r="F101" s="12"/>
@@ -11878,12 +11865,14 @@
       <c r="N101" s="12"/>
       <c r="O101" s="13"/>
       <c r="P101" s="13"/>
-      <c r="S101" s="58"/>
-      <c r="U101" s="58"/>
-      <c r="V101" s="64"/>
-      <c r="W101" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R101" s="58"/>
+      <c r="T101" s="58"/>
+      <c r="U101" s="64"/>
+      <c r="V101" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
       <c r="AE101" s="30"/>
       <c r="AF101" s="30"/>
       <c r="AG101" s="30"/>
@@ -11935,21 +11924,19 @@
       <c r="CA101" s="30"/>
       <c r="CB101" s="30"/>
       <c r="CC101" s="30"/>
-      <c r="CD101" s="30"/>
-      <c r="CE101" s="30"/>
-    </row>
-    <row r="102" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E102" s="43"/>
       <c r="F102" s="12"/>
@@ -11963,12 +11950,14 @@
       <c r="N102" s="12"/>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
-      <c r="S102" s="58"/>
-      <c r="U102" s="58"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R102" s="58"/>
+      <c r="T102" s="58"/>
+      <c r="U102" s="64"/>
+      <c r="V102" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
       <c r="AE102" s="30"/>
       <c r="AF102" s="30"/>
       <c r="AG102" s="30"/>
@@ -12020,21 +12009,19 @@
       <c r="CA102" s="30"/>
       <c r="CB102" s="30"/>
       <c r="CC102" s="30"/>
-      <c r="CD102" s="30"/>
-      <c r="CE102" s="30"/>
-    </row>
-    <row r="103" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E103" s="43"/>
       <c r="F103" s="12"/>
@@ -12048,12 +12035,14 @@
       <c r="N103" s="12"/>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
-      <c r="S103" s="58"/>
-      <c r="U103" s="58"/>
-      <c r="V103" s="64"/>
-      <c r="W103" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R103" s="58"/>
+      <c r="T103" s="58"/>
+      <c r="U103" s="64"/>
+      <c r="V103" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
       <c r="AE103" s="30"/>
       <c r="AF103" s="30"/>
       <c r="AG103" s="30"/>
@@ -12105,21 +12094,19 @@
       <c r="CA103" s="30"/>
       <c r="CB103" s="30"/>
       <c r="CC103" s="30"/>
-      <c r="CD103" s="30"/>
-      <c r="CE103" s="30"/>
-    </row>
-    <row r="104" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C104" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="23" t="s">
         <v>318</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="12"/>
@@ -12133,12 +12120,14 @@
       <c r="N104" s="12"/>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
-      <c r="S104" s="58"/>
-      <c r="U104" s="58"/>
-      <c r="V104" s="64"/>
-      <c r="W104" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="64"/>
+      <c r="V104" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="30"/>
       <c r="AE104" s="30"/>
       <c r="AF104" s="30"/>
       <c r="AG104" s="30"/>
@@ -12190,21 +12179,19 @@
       <c r="CA104" s="30"/>
       <c r="CB104" s="30"/>
       <c r="CC104" s="30"/>
-      <c r="CD104" s="30"/>
-      <c r="CE104" s="30"/>
-    </row>
-    <row r="105" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E105" s="43"/>
       <c r="F105" s="12"/>
@@ -12218,12 +12205,14 @@
       <c r="N105" s="12"/>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
-      <c r="S105" s="58"/>
-      <c r="U105" s="58"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R105" s="58"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="64"/>
+      <c r="V105" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
       <c r="AE105" s="30"/>
       <c r="AF105" s="30"/>
       <c r="AG105" s="30"/>
@@ -12275,21 +12264,19 @@
       <c r="CA105" s="30"/>
       <c r="CB105" s="30"/>
       <c r="CC105" s="30"/>
-      <c r="CD105" s="30"/>
-      <c r="CE105" s="30"/>
-    </row>
-    <row r="106" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E106" s="43"/>
       <c r="F106" s="12"/>
@@ -12303,12 +12290,14 @@
       <c r="N106" s="12"/>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
-      <c r="S106" s="58"/>
-      <c r="U106" s="58"/>
-      <c r="V106" s="64"/>
-      <c r="W106" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R106" s="58"/>
+      <c r="T106" s="58"/>
+      <c r="U106" s="64"/>
+      <c r="V106" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC106" s="30"/>
+      <c r="AD106" s="30"/>
       <c r="AE106" s="30"/>
       <c r="AF106" s="30"/>
       <c r="AG106" s="30"/>
@@ -12360,21 +12349,19 @@
       <c r="CA106" s="30"/>
       <c r="CB106" s="30"/>
       <c r="CC106" s="30"/>
-      <c r="CD106" s="30"/>
-      <c r="CE106" s="30"/>
-    </row>
-    <row r="107" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E107" s="43"/>
       <c r="F107" s="12"/>
@@ -12388,12 +12375,14 @@
       <c r="N107" s="12"/>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
-      <c r="S107" s="58"/>
-      <c r="U107" s="58"/>
-      <c r="V107" s="64"/>
-      <c r="W107" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="64"/>
+      <c r="V107" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
       <c r="AE107" s="30"/>
       <c r="AF107" s="30"/>
       <c r="AG107" s="30"/>
@@ -12445,21 +12434,19 @@
       <c r="CA107" s="30"/>
       <c r="CB107" s="30"/>
       <c r="CC107" s="30"/>
-      <c r="CD107" s="30"/>
-      <c r="CE107" s="30"/>
-    </row>
-    <row r="108" spans="1:83" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:81" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E108" s="48"/>
       <c r="F108" s="12"/>
@@ -12473,14 +12460,16 @@
       <c r="N108" s="12"/>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
-      <c r="S108" s="58"/>
-      <c r="U108" s="58"/>
-      <c r="V108" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="W108" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R108" s="58"/>
+      <c r="T108" s="58"/>
+      <c r="U108" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="V108" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC108" s="30"/>
+      <c r="AD108" s="30"/>
       <c r="AE108" s="30"/>
       <c r="AF108" s="30"/>
       <c r="AG108" s="30"/>
@@ -12532,21 +12521,19 @@
       <c r="CA108" s="30"/>
       <c r="CB108" s="30"/>
       <c r="CC108" s="30"/>
-      <c r="CD108" s="30"/>
-      <c r="CE108" s="30"/>
-    </row>
-    <row r="109" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E109" s="48"/>
       <c r="F109" s="12"/>
@@ -12560,15 +12547,17 @@
       <c r="N109" s="12"/>
       <c r="O109" s="13"/>
       <c r="P109" s="13"/>
-      <c r="S109" s="58"/>
-      <c r="U109" s="58"/>
-      <c r="V109" s="64"/>
-      <c r="W109" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD109" s="3" t="s">
-        <v>339</v>
-      </c>
+      <c r="R109" s="58"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="64"/>
+      <c r="V109" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB109" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
       <c r="AE109" s="30"/>
       <c r="AF109" s="30"/>
       <c r="AG109" s="30"/>
@@ -12620,21 +12609,19 @@
       <c r="CA109" s="30"/>
       <c r="CB109" s="30"/>
       <c r="CC109" s="30"/>
-      <c r="CD109" s="30"/>
-      <c r="CE109" s="30"/>
-    </row>
-    <row r="110" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E110" s="42"/>
       <c r="F110" s="12"/>
@@ -12648,12 +12635,14 @@
       <c r="N110" s="12"/>
       <c r="O110" s="13"/>
       <c r="P110" s="13"/>
-      <c r="S110" s="58"/>
-      <c r="U110" s="58"/>
-      <c r="V110" s="64"/>
-      <c r="W110" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="R110" s="58"/>
+      <c r="T110" s="58"/>
+      <c r="U110" s="64"/>
+      <c r="V110" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
       <c r="AE110" s="30"/>
       <c r="AF110" s="30"/>
       <c r="AG110" s="30"/>
@@ -12705,21 +12694,19 @@
       <c r="CA110" s="30"/>
       <c r="CB110" s="30"/>
       <c r="CC110" s="30"/>
-      <c r="CD110" s="30"/>
-      <c r="CE110" s="30"/>
-    </row>
-    <row r="111" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E111" s="42"/>
       <c r="F111" s="12"/>
@@ -12733,12 +12720,14 @@
       <c r="N111" s="12"/>
       <c r="O111" s="13"/>
       <c r="P111" s="13"/>
-      <c r="S111" s="58"/>
-      <c r="U111" s="58"/>
-      <c r="V111" s="64"/>
-      <c r="W111" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="R111" s="58"/>
+      <c r="T111" s="58"/>
+      <c r="U111" s="64"/>
+      <c r="V111" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
       <c r="AE111" s="30"/>
       <c r="AF111" s="30"/>
       <c r="AG111" s="30"/>
@@ -12790,21 +12779,19 @@
       <c r="CA111" s="30"/>
       <c r="CB111" s="30"/>
       <c r="CC111" s="30"/>
-      <c r="CD111" s="30"/>
-      <c r="CE111" s="30"/>
-    </row>
-    <row r="112" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E112" s="42"/>
       <c r="F112" s="12"/>
@@ -12818,12 +12805,14 @@
       <c r="N112" s="12"/>
       <c r="O112" s="13"/>
       <c r="P112" s="13"/>
-      <c r="S112" s="58"/>
-      <c r="U112" s="58"/>
-      <c r="V112" s="64"/>
-      <c r="W112" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="R112" s="58"/>
+      <c r="T112" s="58"/>
+      <c r="U112" s="64"/>
+      <c r="V112" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="30"/>
       <c r="AE112" s="30"/>
       <c r="AF112" s="30"/>
       <c r="AG112" s="30"/>
@@ -12875,21 +12864,19 @@
       <c r="CA112" s="30"/>
       <c r="CB112" s="30"/>
       <c r="CC112" s="30"/>
-      <c r="CD112" s="30"/>
-      <c r="CE112" s="30"/>
-    </row>
-    <row r="113" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E113" s="42"/>
       <c r="G113" s="12"/>
@@ -12902,15 +12889,17 @@
       <c r="N113" s="12"/>
       <c r="O113" s="13"/>
       <c r="P113" s="13"/>
-      <c r="S113" s="58"/>
-      <c r="U113" s="58"/>
-      <c r="V113" s="64"/>
-      <c r="W113" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD113" s="11" t="s">
-        <v>348</v>
-      </c>
+      <c r="R113" s="58"/>
+      <c r="T113" s="58"/>
+      <c r="U113" s="64"/>
+      <c r="V113" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB113" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
       <c r="AE113" s="30"/>
       <c r="AF113" s="30"/>
       <c r="AG113" s="30"/>
@@ -12962,24 +12951,22 @@
       <c r="CA113" s="30"/>
       <c r="CB113" s="30"/>
       <c r="CC113" s="30"/>
-      <c r="CD113" s="30"/>
-      <c r="CE113" s="30"/>
-    </row>
-    <row r="114" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E114" s="46" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
@@ -12992,15 +12979,17 @@
       <c r="N114" s="12"/>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
-      <c r="S114" s="58"/>
-      <c r="U114" s="58"/>
-      <c r="V114" s="64"/>
-      <c r="W114" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD114" s="105" t="s">
-        <v>351</v>
-      </c>
+      <c r="R114" s="58"/>
+      <c r="T114" s="58"/>
+      <c r="U114" s="64"/>
+      <c r="V114" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB114" s="105" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="30"/>
       <c r="AE114" s="30"/>
       <c r="AF114" s="30"/>
       <c r="AG114" s="30"/>
@@ -13052,21 +13041,19 @@
       <c r="CA114" s="30"/>
       <c r="CB114" s="30"/>
       <c r="CC114" s="30"/>
-      <c r="CD114" s="30"/>
-      <c r="CE114" s="30"/>
-    </row>
-    <row r="115" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E115" s="48"/>
       <c r="F115" s="12"/>
@@ -13080,15 +13067,17 @@
       <c r="N115" s="12"/>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
-      <c r="S115" s="58"/>
-      <c r="U115" s="58"/>
-      <c r="V115" s="64"/>
-      <c r="W115" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD115" s="105" t="s">
-        <v>355</v>
-      </c>
+      <c r="R115" s="58"/>
+      <c r="T115" s="58"/>
+      <c r="U115" s="64"/>
+      <c r="V115" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB115" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="30"/>
       <c r="AE115" s="30"/>
       <c r="AF115" s="30"/>
       <c r="AG115" s="30"/>
@@ -13140,21 +13129,19 @@
       <c r="CA115" s="30"/>
       <c r="CB115" s="30"/>
       <c r="CC115" s="30"/>
-      <c r="CD115" s="30"/>
-      <c r="CE115" s="30"/>
-    </row>
-    <row r="116" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E116" s="48"/>
       <c r="F116" s="12"/>
@@ -13168,15 +13155,17 @@
       <c r="N116" s="12"/>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
-      <c r="S116" s="58"/>
-      <c r="U116" s="58"/>
-      <c r="V116" s="64"/>
-      <c r="W116" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD116" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R116" s="58"/>
+      <c r="T116" s="58"/>
+      <c r="U116" s="64"/>
+      <c r="V116" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB116" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
       <c r="AE116" s="30"/>
       <c r="AF116" s="30"/>
       <c r="AG116" s="30"/>
@@ -13228,21 +13217,19 @@
       <c r="CA116" s="30"/>
       <c r="CB116" s="30"/>
       <c r="CC116" s="30"/>
-      <c r="CD116" s="30"/>
-      <c r="CE116" s="30"/>
-    </row>
-    <row r="117" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E117" s="48"/>
       <c r="F117" s="12"/>
@@ -13256,15 +13243,17 @@
       <c r="N117" s="12"/>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
-      <c r="S117" s="58"/>
-      <c r="U117" s="58"/>
-      <c r="V117" s="64"/>
-      <c r="W117" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD117" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R117" s="58"/>
+      <c r="T117" s="58"/>
+      <c r="U117" s="64"/>
+      <c r="V117" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB117" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
       <c r="AE117" s="30"/>
       <c r="AF117" s="30"/>
       <c r="AG117" s="30"/>
@@ -13316,21 +13305,19 @@
       <c r="CA117" s="30"/>
       <c r="CB117" s="30"/>
       <c r="CC117" s="30"/>
-      <c r="CD117" s="30"/>
-      <c r="CE117" s="30"/>
-    </row>
-    <row r="118" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E118" s="48"/>
       <c r="F118" s="12"/>
@@ -13344,15 +13331,17 @@
       <c r="N118" s="12"/>
       <c r="O118" s="13"/>
       <c r="P118" s="13"/>
-      <c r="S118" s="58"/>
-      <c r="U118" s="58"/>
-      <c r="V118" s="64"/>
-      <c r="W118" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD118" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R118" s="58"/>
+      <c r="T118" s="58"/>
+      <c r="U118" s="64"/>
+      <c r="V118" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB118" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
       <c r="AE118" s="30"/>
       <c r="AF118" s="30"/>
       <c r="AG118" s="30"/>
@@ -13404,21 +13393,19 @@
       <c r="CA118" s="30"/>
       <c r="CB118" s="30"/>
       <c r="CC118" s="30"/>
-      <c r="CD118" s="30"/>
-      <c r="CE118" s="30"/>
-    </row>
-    <row r="119" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E119" s="48"/>
       <c r="F119" s="12"/>
@@ -13432,15 +13419,17 @@
       <c r="N119" s="12"/>
       <c r="O119" s="13"/>
       <c r="P119" s="13"/>
-      <c r="S119" s="58"/>
-      <c r="U119" s="58"/>
-      <c r="V119" s="64"/>
-      <c r="W119" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD119" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R119" s="58"/>
+      <c r="T119" s="58"/>
+      <c r="U119" s="64"/>
+      <c r="V119" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB119" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
       <c r="AE119" s="30"/>
       <c r="AF119" s="30"/>
       <c r="AG119" s="30"/>
@@ -13492,21 +13481,19 @@
       <c r="CA119" s="30"/>
       <c r="CB119" s="30"/>
       <c r="CC119" s="30"/>
-      <c r="CD119" s="30"/>
-      <c r="CE119" s="30"/>
-    </row>
-    <row r="120" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E120" s="48"/>
       <c r="F120" s="12"/>
@@ -13520,15 +13507,17 @@
       <c r="N120" s="12"/>
       <c r="O120" s="13"/>
       <c r="P120" s="13"/>
-      <c r="S120" s="58"/>
-      <c r="U120" s="58"/>
-      <c r="V120" s="64"/>
-      <c r="W120" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD120" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R120" s="58"/>
+      <c r="T120" s="58"/>
+      <c r="U120" s="64"/>
+      <c r="V120" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB120" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="30"/>
       <c r="AE120" s="30"/>
       <c r="AF120" s="30"/>
       <c r="AG120" s="30"/>
@@ -13580,21 +13569,19 @@
       <c r="CA120" s="30"/>
       <c r="CB120" s="30"/>
       <c r="CC120" s="30"/>
-      <c r="CD120" s="30"/>
-      <c r="CE120" s="30"/>
-    </row>
-    <row r="121" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E121" s="48"/>
       <c r="F121" s="12"/>
@@ -13608,15 +13595,17 @@
       <c r="N121" s="12"/>
       <c r="O121" s="13"/>
       <c r="P121" s="13"/>
-      <c r="S121" s="58"/>
-      <c r="U121" s="58"/>
-      <c r="V121" s="64"/>
-      <c r="W121" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD121" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R121" s="58"/>
+      <c r="T121" s="58"/>
+      <c r="U121" s="64"/>
+      <c r="V121" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB121" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
       <c r="AE121" s="30"/>
       <c r="AF121" s="30"/>
       <c r="AG121" s="30"/>
@@ -13668,21 +13657,19 @@
       <c r="CA121" s="30"/>
       <c r="CB121" s="30"/>
       <c r="CC121" s="30"/>
-      <c r="CD121" s="30"/>
-      <c r="CE121" s="30"/>
-    </row>
-    <row r="122" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E122" s="48"/>
       <c r="F122" s="12"/>
@@ -13696,15 +13683,17 @@
       <c r="N122" s="12"/>
       <c r="O122" s="13"/>
       <c r="P122" s="13"/>
-      <c r="S122" s="58"/>
-      <c r="U122" s="58"/>
-      <c r="V122" s="64"/>
-      <c r="W122" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD122" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R122" s="58"/>
+      <c r="T122" s="58"/>
+      <c r="U122" s="64"/>
+      <c r="V122" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB122" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="30"/>
       <c r="AE122" s="30"/>
       <c r="AF122" s="30"/>
       <c r="AG122" s="30"/>
@@ -13756,21 +13745,19 @@
       <c r="CA122" s="30"/>
       <c r="CB122" s="30"/>
       <c r="CC122" s="30"/>
-      <c r="CD122" s="30"/>
-      <c r="CE122" s="30"/>
-    </row>
-    <row r="123" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E123" s="48"/>
       <c r="F123" s="12"/>
@@ -13784,15 +13771,17 @@
       <c r="N123" s="12"/>
       <c r="O123" s="13"/>
       <c r="P123" s="13"/>
-      <c r="S123" s="58"/>
-      <c r="U123" s="58"/>
-      <c r="V123" s="64"/>
-      <c r="W123" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD123" s="11" t="s">
-        <v>358</v>
-      </c>
+      <c r="R123" s="58"/>
+      <c r="T123" s="58"/>
+      <c r="U123" s="64"/>
+      <c r="V123" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB123" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
       <c r="AE123" s="30"/>
       <c r="AF123" s="30"/>
       <c r="AG123" s="30"/>
@@ -13844,21 +13833,19 @@
       <c r="CA123" s="30"/>
       <c r="CB123" s="30"/>
       <c r="CC123" s="30"/>
-      <c r="CD123" s="30"/>
-      <c r="CE123" s="30"/>
-    </row>
-    <row r="124" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E124" s="48"/>
       <c r="F124" s="12"/>
@@ -13872,10 +13859,12 @@
       <c r="N124" s="12"/>
       <c r="O124" s="13"/>
       <c r="P124" s="24"/>
-      <c r="S124" s="58"/>
-      <c r="U124" s="58"/>
-      <c r="V124" s="64"/>
-      <c r="W124" s="53"/>
+      <c r="R124" s="58"/>
+      <c r="T124" s="58"/>
+      <c r="U124" s="64"/>
+      <c r="V124" s="53"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30"/>
       <c r="AE124" s="30"/>
       <c r="AF124" s="30"/>
       <c r="AG124" s="30"/>
@@ -13927,24 +13916,22 @@
       <c r="CA124" s="30"/>
       <c r="CB124" s="30"/>
       <c r="CC124" s="30"/>
-      <c r="CD124" s="30"/>
-      <c r="CE124" s="30"/>
-    </row>
-    <row r="125" spans="1:83" s="11" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:81" s="11" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
@@ -13957,19 +13944,21 @@
       <c r="N125" s="12"/>
       <c r="O125" s="13"/>
       <c r="P125" s="24"/>
-      <c r="R125" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="S125" s="58"/>
-      <c r="T125" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="U125" s="58"/>
-      <c r="V125" s="64"/>
-      <c r="W125" s="53"/>
-      <c r="AD125" s="11" t="s">
-        <v>421</v>
-      </c>
+      <c r="Q125" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="R125" s="58"/>
+      <c r="S125" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="T125" s="58"/>
+      <c r="U125" s="64"/>
+      <c r="V125" s="53"/>
+      <c r="AB125" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC125" s="30"/>
+      <c r="AD125" s="30"/>
       <c r="AE125" s="30"/>
       <c r="AF125" s="30"/>
       <c r="AG125" s="30"/>
@@ -14021,21 +14010,19 @@
       <c r="CA125" s="30"/>
       <c r="CB125" s="30"/>
       <c r="CC125" s="30"/>
-      <c r="CD125" s="30"/>
-      <c r="CE125" s="30"/>
-    </row>
-    <row r="126" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E126" s="42"/>
       <c r="F126" s="12"/>
@@ -14049,14 +14036,16 @@
       <c r="N126" s="12"/>
       <c r="O126" s="13"/>
       <c r="P126" s="13"/>
-      <c r="S126" s="58"/>
-      <c r="U126" s="58"/>
-      <c r="V126" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="W126" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="R126" s="58"/>
+      <c r="T126" s="58"/>
+      <c r="U126" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="V126" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
       <c r="AE126" s="30"/>
       <c r="AF126" s="30"/>
       <c r="AG126" s="30"/>
@@ -14108,24 +14097,22 @@
       <c r="CA126" s="30"/>
       <c r="CB126" s="30"/>
       <c r="CC126" s="30"/>
-      <c r="CD126" s="30"/>
-      <c r="CE126" s="30"/>
-    </row>
-    <row r="127" spans="1:83" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:81" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -14138,18 +14125,20 @@
       <c r="N127" s="12"/>
       <c r="O127" s="13"/>
       <c r="P127" s="13"/>
-      <c r="S127" s="58"/>
-      <c r="T127" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="U127" s="58"/>
-      <c r="V127" s="64"/>
-      <c r="W127" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD127" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="R127" s="58"/>
+      <c r="S127" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="T127" s="58"/>
+      <c r="U127" s="64"/>
+      <c r="V127" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB127" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC127" s="30"/>
+      <c r="AD127" s="30"/>
       <c r="AE127" s="30"/>
       <c r="AF127" s="30"/>
       <c r="AG127" s="30"/>
@@ -14201,21 +14190,19 @@
       <c r="CA127" s="30"/>
       <c r="CB127" s="30"/>
       <c r="CC127" s="30"/>
-      <c r="CD127" s="30"/>
-      <c r="CE127" s="30"/>
-    </row>
-    <row r="128" spans="1:83" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:81" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E128" s="42"/>
       <c r="F128" s="12"/>
@@ -14229,18 +14216,20 @@
       <c r="N128" s="12"/>
       <c r="O128" s="13"/>
       <c r="P128" s="13"/>
-      <c r="R128" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="S128" s="58"/>
-      <c r="T128" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="U128" s="58"/>
-      <c r="V128" s="64"/>
-      <c r="W128" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q128" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="R128" s="58"/>
+      <c r="S128" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="T128" s="58"/>
+      <c r="U128" s="64"/>
+      <c r="V128" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="30"/>
       <c r="AE128" s="30"/>
       <c r="AF128" s="30"/>
       <c r="AG128" s="30"/>
@@ -14292,21 +14281,19 @@
       <c r="CA128" s="30"/>
       <c r="CB128" s="30"/>
       <c r="CC128" s="30"/>
-      <c r="CD128" s="30"/>
-      <c r="CE128" s="30"/>
-    </row>
-    <row r="129" spans="1:83" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:81" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="94" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E129" s="42"/>
       <c r="F129" s="12"/>
@@ -14320,15 +14307,17 @@
       <c r="N129" s="12"/>
       <c r="O129" s="13"/>
       <c r="P129" s="13"/>
-      <c r="S129" s="58"/>
-      <c r="T129" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="U129" s="58"/>
-      <c r="V129" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="W129" s="53"/>
+      <c r="R129" s="58"/>
+      <c r="S129" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="T129" s="58"/>
+      <c r="U129" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V129" s="53"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="30"/>
       <c r="AE129" s="30"/>
       <c r="AF129" s="30"/>
       <c r="AG129" s="30"/>
@@ -14380,24 +14369,22 @@
       <c r="CA129" s="30"/>
       <c r="CB129" s="30"/>
       <c r="CC129" s="30"/>
-      <c r="CD129" s="30"/>
-      <c r="CE129" s="30"/>
-    </row>
-    <row r="130" spans="1:83" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:81" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E130" s="75" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -14410,14 +14397,16 @@
       <c r="N130" s="12"/>
       <c r="O130" s="13"/>
       <c r="P130" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S130" s="58"/>
-      <c r="T130" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="U130" s="58"/>
-      <c r="V130" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="R130" s="58"/>
+      <c r="S130" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="T130" s="58"/>
+      <c r="U130" s="64"/>
+      <c r="AC130" s="30"/>
+      <c r="AD130" s="30"/>
       <c r="AE130" s="30"/>
       <c r="AF130" s="30"/>
       <c r="AG130" s="30"/>
@@ -14469,21 +14458,19 @@
       <c r="CA130" s="30"/>
       <c r="CB130" s="30"/>
       <c r="CC130" s="30"/>
-      <c r="CD130" s="30"/>
-      <c r="CE130" s="30"/>
-    </row>
-    <row r="131" spans="1:83" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="95" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="56"/>
@@ -14498,36 +14485,34 @@
       <c r="O131" s="13"/>
       <c r="P131" s="13"/>
       <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-      <c r="S131" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="T131" s="11"/>
-      <c r="U131" s="58"/>
-      <c r="V131" s="64" t="s">
-        <v>399</v>
-      </c>
+      <c r="R131" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="S131" s="11"/>
+      <c r="T131" s="58"/>
+      <c r="U131" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="V131" s="11"/>
       <c r="W131" s="11"/>
       <c r="X131" s="11"/>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
       <c r="AB131" s="11"/>
-      <c r="AC131" s="11"/>
-      <c r="AD131" s="11"/>
-    </row>
-    <row r="132" spans="1:83" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="95" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="56"/>
@@ -14542,32 +14527,30 @@
       <c r="O132" s="13"/>
       <c r="P132" s="13"/>
       <c r="Q132" s="11"/>
-      <c r="R132" s="11"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="11"/>
-      <c r="U132" s="58"/>
-      <c r="V132" s="64"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="58"/>
+      <c r="U132" s="64"/>
+      <c r="V132" s="11"/>
       <c r="W132" s="11"/>
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
       <c r="AB132" s="11"/>
-      <c r="AC132" s="11"/>
-      <c r="AD132" s="11"/>
-    </row>
-    <row r="133" spans="1:83" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="95" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D133" s="85" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="56"/>
@@ -14582,39 +14565,37 @@
       <c r="O133" s="13"/>
       <c r="P133" s="13"/>
       <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="T133" s="11"/>
-      <c r="U133" s="58"/>
-      <c r="V133" s="64" t="s">
-        <v>401</v>
-      </c>
+      <c r="R133" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="S133" s="11"/>
+      <c r="T133" s="58"/>
+      <c r="U133" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="V133" s="11"/>
       <c r="W133" s="11"/>
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
       <c r="AB133" s="11"/>
-      <c r="AC133" s="11"/>
-      <c r="AD133" s="11"/>
-    </row>
-    <row r="134" spans="1:83" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:81" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="90" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D134" s="85" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F134" s="56"/>
       <c r="G134" s="12"/>
@@ -14628,37 +14609,35 @@
       <c r="O134" s="13"/>
       <c r="P134" s="13"/>
       <c r="Q134" s="11"/>
-      <c r="R134" s="11"/>
-      <c r="S134" s="58"/>
-      <c r="T134" s="11"/>
-      <c r="U134" s="58"/>
-      <c r="V134" s="64" t="s">
-        <v>402</v>
-      </c>
+      <c r="R134" s="58"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="58"/>
+      <c r="U134" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="V134" s="11"/>
       <c r="W134" s="11"/>
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
       <c r="AB134" s="11"/>
-      <c r="AC134" s="11"/>
-      <c r="AD134" s="11"/>
-    </row>
-    <row r="135" spans="1:83" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:81" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="96" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F135" s="56"/>
       <c r="G135" s="12"/>
@@ -14672,34 +14651,32 @@
       <c r="O135" s="13"/>
       <c r="P135" s="13"/>
       <c r="Q135" s="11"/>
-      <c r="R135" s="11"/>
-      <c r="S135" s="58"/>
-      <c r="T135" s="11"/>
-      <c r="U135" s="58"/>
-      <c r="V135" s="64" t="s">
-        <v>404</v>
-      </c>
+      <c r="R135" s="58"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="58"/>
+      <c r="U135" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="V135" s="11"/>
       <c r="W135" s="11"/>
       <c r="X135" s="11"/>
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
       <c r="AB135" s="11"/>
-      <c r="AC135" s="11"/>
-      <c r="AD135" s="11"/>
-    </row>
-    <row r="136" spans="1:83" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="91" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="56"/>
@@ -14714,35 +14691,33 @@
       <c r="O136" s="13"/>
       <c r="P136" s="13"/>
       <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="58"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="58"/>
-      <c r="V136" s="64"/>
+      <c r="R136" s="58"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="58"/>
+      <c r="U136" s="64"/>
+      <c r="V136" s="11"/>
       <c r="W136" s="11"/>
       <c r="X136" s="11"/>
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
       <c r="AB136" s="11"/>
-      <c r="AC136" s="11"/>
-      <c r="AD136" s="11"/>
-    </row>
-    <row r="137" spans="1:83" s="30" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:81" s="30" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A137" s="91" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C137" s="87" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D137" s="88" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F137" s="56"/>
       <c r="G137" s="12"/>
@@ -14756,32 +14731,30 @@
       <c r="O137" s="13"/>
       <c r="P137" s="13"/>
       <c r="Q137" s="11"/>
-      <c r="R137" s="11"/>
-      <c r="S137" s="58"/>
-      <c r="T137" s="11"/>
-      <c r="U137" s="58"/>
-      <c r="V137" s="64"/>
+      <c r="R137" s="58"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="58"/>
+      <c r="U137" s="64"/>
+      <c r="V137" s="11"/>
       <c r="W137" s="11"/>
       <c r="X137" s="11"/>
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
       <c r="AB137" s="11"/>
-      <c r="AC137" s="11"/>
-      <c r="AD137" s="11"/>
-    </row>
-    <row r="138" spans="1:83" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="90" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E138" s="42"/>
       <c r="F138" s="56"/>
@@ -14796,35 +14769,33 @@
       <c r="O138" s="13"/>
       <c r="P138" s="13"/>
       <c r="Q138" s="11"/>
-      <c r="R138" s="11"/>
-      <c r="S138" s="58"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="58"/>
-      <c r="V138" s="64"/>
+      <c r="R138" s="58"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="58"/>
+      <c r="U138" s="64"/>
+      <c r="V138" s="11"/>
       <c r="W138" s="11"/>
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
       <c r="AB138" s="11"/>
-      <c r="AC138" s="11"/>
-      <c r="AD138" s="11"/>
-    </row>
-    <row r="139" spans="1:83" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="91" t="s">
+        <v>465</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>485</v>
-      </c>
       <c r="E139" s="42" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F139" s="56"/>
       <c r="G139" s="12"/>
@@ -14838,32 +14809,30 @@
       <c r="O139" s="13"/>
       <c r="P139" s="13"/>
       <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="58"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="58"/>
-      <c r="V139" s="64"/>
+      <c r="R139" s="58"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="58"/>
+      <c r="U139" s="64"/>
+      <c r="V139" s="11"/>
       <c r="W139" s="11"/>
       <c r="X139" s="11"/>
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
       <c r="AB139" s="11"/>
-      <c r="AC139" s="11"/>
-      <c r="AD139" s="11"/>
-    </row>
-    <row r="140" spans="1:83" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="97" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D140" s="89" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E140" s="59"/>
       <c r="F140" s="56"/>
@@ -14878,37 +14847,35 @@
       <c r="O140" s="13"/>
       <c r="P140" s="13"/>
       <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="76"/>
-      <c r="T140" s="11"/>
-      <c r="U140" s="76"/>
-      <c r="V140" s="67" t="s">
-        <v>407</v>
-      </c>
+      <c r="R140" s="76"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="76"/>
+      <c r="U140" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="V140" s="11"/>
       <c r="W140" s="11"/>
       <c r="X140" s="11"/>
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
       <c r="AB140" s="11"/>
-      <c r="AC140" s="11"/>
-      <c r="AD140" s="11"/>
-    </row>
-    <row r="141" spans="1:83" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:81" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="98" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D141" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="E141" s="42" t="s">
         <v>480</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D141" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="E141" s="42" t="s">
-        <v>490</v>
       </c>
       <c r="F141" s="56"/>
       <c r="G141" s="12"/>
@@ -14922,32 +14889,30 @@
       <c r="O141" s="13"/>
       <c r="P141" s="13"/>
       <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="T141" s="58"/>
-      <c r="V141" s="68" t="s">
-        <v>408</v>
-      </c>
+      <c r="S141" s="58"/>
+      <c r="U141" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="V141" s="11"/>
       <c r="W141" s="11"/>
       <c r="X141" s="11"/>
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
       <c r="AB141" s="11"/>
-      <c r="AC141" s="11"/>
-      <c r="AD141" s="11"/>
-    </row>
-    <row r="142" spans="1:83" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:81" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A142" s="98" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D142" s="85" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E142" s="42"/>
       <c r="F142" s="56"/>
@@ -14962,35 +14927,33 @@
       <c r="O142" s="13"/>
       <c r="P142" s="13"/>
       <c r="Q142" s="11"/>
-      <c r="R142" s="11"/>
-      <c r="T142" s="58"/>
-      <c r="V142" s="68" t="s">
-        <v>410</v>
-      </c>
+      <c r="S142" s="58"/>
+      <c r="U142" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="V142" s="11"/>
       <c r="W142" s="11"/>
       <c r="X142" s="11"/>
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
       <c r="AB142" s="11"/>
-      <c r="AC142" s="11"/>
-      <c r="AD142" s="11"/>
-    </row>
-    <row r="143" spans="1:83" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:81" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="99" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D143" s="85" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F143" s="56"/>
       <c r="G143" s="12"/>
@@ -15004,37 +14967,35 @@
       <c r="O143" s="13"/>
       <c r="P143" s="13"/>
       <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="77"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="77"/>
-      <c r="V143" s="69" t="s">
-        <v>412</v>
-      </c>
+      <c r="R143" s="77"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="77"/>
+      <c r="U143" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="V143" s="11"/>
       <c r="W143" s="11"/>
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
       <c r="AB143" s="11"/>
-      <c r="AC143" s="11"/>
-      <c r="AD143" s="11"/>
-    </row>
-    <row r="144" spans="1:83" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="91" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D144" s="88" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E144" s="41" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F144" s="56"/>
       <c r="G144" s="12"/>
@@ -15048,35 +15009,33 @@
       <c r="O144" s="13"/>
       <c r="P144" s="13"/>
       <c r="Q144" s="11"/>
-      <c r="R144" s="11"/>
-      <c r="S144" s="58"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="58"/>
-      <c r="V144" s="64"/>
+      <c r="R144" s="58"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="58"/>
+      <c r="U144" s="64"/>
+      <c r="V144" s="11"/>
       <c r="W144" s="11"/>
       <c r="X144" s="11"/>
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
       <c r="AB144" s="11"/>
-      <c r="AC144" s="11"/>
-      <c r="AD144" s="11"/>
-    </row>
-    <row r="145" spans="1:30" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:28" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="91" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D145" s="88" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E145" s="41" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
@@ -15090,21 +15049,19 @@
       <c r="O145" s="13"/>
       <c r="P145" s="13"/>
       <c r="Q145" s="11"/>
-      <c r="R145" s="11"/>
-      <c r="S145" s="58"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="58"/>
-      <c r="V145" s="64"/>
+      <c r="R145" s="58"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="58"/>
+      <c r="U145" s="64"/>
+      <c r="V145" s="11"/>
       <c r="W145" s="11"/>
       <c r="X145" s="11"/>
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
       <c r="AB145" s="11"/>
-      <c r="AC145" s="11"/>
-      <c r="AD145" s="11"/>
-    </row>
-    <row r="146" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="C146" s="26"/>
       <c r="E146" s="44"/>
@@ -15119,9 +15076,9 @@
       <c r="N146" s="27"/>
       <c r="O146" s="28"/>
       <c r="P146" s="29"/>
-      <c r="V146" s="27"/>
-    </row>
-    <row r="147" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U146" s="27"/>
+    </row>
+    <row r="147" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="B147" s="19"/>
       <c r="C147" s="26"/>
@@ -15137,9 +15094,9 @@
       <c r="N147" s="27"/>
       <c r="O147" s="28"/>
       <c r="P147" s="29"/>
-      <c r="V147" s="27"/>
-    </row>
-    <row r="148" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U147" s="27"/>
+    </row>
+    <row r="148" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="B148" s="19"/>
       <c r="C148" s="26"/>
@@ -15155,9 +15112,9 @@
       <c r="N148" s="27"/>
       <c r="O148" s="28"/>
       <c r="P148" s="29"/>
-      <c r="V148" s="27"/>
-    </row>
-    <row r="149" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U148" s="27"/>
+    </row>
+    <row r="149" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="B149" s="19"/>
       <c r="C149" s="26"/>
@@ -15173,9 +15130,9 @@
       <c r="N149" s="27"/>
       <c r="O149" s="28"/>
       <c r="P149" s="29"/>
-      <c r="V149" s="27"/>
-    </row>
-    <row r="150" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U149" s="27"/>
+    </row>
+    <row r="150" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="B150" s="19"/>
       <c r="C150" s="26"/>
@@ -15191,9 +15148,9 @@
       <c r="N150" s="27"/>
       <c r="O150" s="28"/>
       <c r="P150" s="29"/>
-      <c r="V150" s="27"/>
-    </row>
-    <row r="151" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U150" s="27"/>
+    </row>
+    <row r="151" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="B151" s="19"/>
       <c r="C151" s="26"/>
@@ -15209,9 +15166,9 @@
       <c r="N151" s="27"/>
       <c r="O151" s="28"/>
       <c r="P151" s="29"/>
-      <c r="V151" s="27"/>
-    </row>
-    <row r="152" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U151" s="27"/>
+    </row>
+    <row r="152" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="B152" s="19"/>
       <c r="C152" s="26"/>
@@ -15227,9 +15184,9 @@
       <c r="N152" s="27"/>
       <c r="O152" s="28"/>
       <c r="P152" s="29"/>
-      <c r="V152" s="27"/>
-    </row>
-    <row r="153" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U152" s="27"/>
+    </row>
+    <row r="153" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="B153" s="19"/>
       <c r="C153" s="26"/>
@@ -15245,9 +15202,9 @@
       <c r="N153" s="27"/>
       <c r="O153" s="28"/>
       <c r="P153" s="29"/>
-      <c r="V153" s="27"/>
-    </row>
-    <row r="154" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U153" s="27"/>
+    </row>
+    <row r="154" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="B154" s="19"/>
       <c r="C154" s="26"/>
@@ -15263,9 +15220,9 @@
       <c r="N154" s="27"/>
       <c r="O154" s="28"/>
       <c r="P154" s="29"/>
-      <c r="V154" s="27"/>
-    </row>
-    <row r="155" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U154" s="27"/>
+    </row>
+    <row r="155" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="B155" s="19"/>
       <c r="C155" s="26"/>
@@ -15281,9 +15238,9 @@
       <c r="N155" s="27"/>
       <c r="O155" s="28"/>
       <c r="P155" s="29"/>
-      <c r="V155" s="27"/>
-    </row>
-    <row r="156" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U155" s="27"/>
+    </row>
+    <row r="156" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="B156" s="19"/>
       <c r="C156" s="26"/>
@@ -15299,9 +15256,9 @@
       <c r="N156" s="27"/>
       <c r="O156" s="28"/>
       <c r="P156" s="29"/>
-      <c r="V156" s="27"/>
-    </row>
-    <row r="157" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U156" s="27"/>
+    </row>
+    <row r="157" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="B157" s="19"/>
       <c r="C157" s="26"/>
@@ -15317,9 +15274,9 @@
       <c r="N157" s="27"/>
       <c r="O157" s="28"/>
       <c r="P157" s="29"/>
-      <c r="V157" s="27"/>
-    </row>
-    <row r="158" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U157" s="27"/>
+    </row>
+    <row r="158" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="B158" s="19"/>
       <c r="C158" s="26"/>
@@ -15335,9 +15292,9 @@
       <c r="N158" s="27"/>
       <c r="O158" s="28"/>
       <c r="P158" s="29"/>
-      <c r="V158" s="27"/>
-    </row>
-    <row r="159" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U158" s="27"/>
+    </row>
+    <row r="159" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="B159" s="19"/>
       <c r="C159" s="26"/>
@@ -15353,9 +15310,9 @@
       <c r="N159" s="27"/>
       <c r="O159" s="28"/>
       <c r="P159" s="29"/>
-      <c r="V159" s="27"/>
-    </row>
-    <row r="160" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U159" s="27"/>
+    </row>
+    <row r="160" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="B160" s="19"/>
       <c r="C160" s="26"/>
@@ -15371,9 +15328,9 @@
       <c r="N160" s="27"/>
       <c r="O160" s="28"/>
       <c r="P160" s="29"/>
-      <c r="V160" s="27"/>
-    </row>
-    <row r="161" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U160" s="27"/>
+    </row>
+    <row r="161" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="B161" s="19"/>
       <c r="C161" s="26"/>
@@ -15389,9 +15346,9 @@
       <c r="N161" s="27"/>
       <c r="O161" s="28"/>
       <c r="P161" s="29"/>
-      <c r="V161" s="27"/>
-    </row>
-    <row r="162" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U161" s="27"/>
+    </row>
+    <row r="162" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="B162" s="19"/>
       <c r="C162" s="26"/>
@@ -15407,9 +15364,9 @@
       <c r="N162" s="27"/>
       <c r="O162" s="28"/>
       <c r="P162" s="29"/>
-      <c r="V162" s="27"/>
-    </row>
-    <row r="163" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U162" s="27"/>
+    </row>
+    <row r="163" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="B163" s="19"/>
       <c r="C163" s="26"/>
@@ -15425,9 +15382,9 @@
       <c r="N163" s="27"/>
       <c r="O163" s="28"/>
       <c r="P163" s="29"/>
-      <c r="V163" s="27"/>
-    </row>
-    <row r="164" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U163" s="27"/>
+    </row>
+    <row r="164" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="B164" s="19"/>
       <c r="C164" s="26"/>
@@ -15443,9 +15400,9 @@
       <c r="N164" s="27"/>
       <c r="O164" s="28"/>
       <c r="P164" s="29"/>
-      <c r="V164" s="27"/>
-    </row>
-    <row r="165" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U164" s="27"/>
+    </row>
+    <row r="165" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="B165" s="19"/>
       <c r="C165" s="26"/>
@@ -15461,9 +15418,9 @@
       <c r="N165" s="27"/>
       <c r="O165" s="28"/>
       <c r="P165" s="29"/>
-      <c r="V165" s="27"/>
-    </row>
-    <row r="166" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U165" s="27"/>
+    </row>
+    <row r="166" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="B166" s="19"/>
       <c r="C166" s="26"/>
@@ -15479,9 +15436,9 @@
       <c r="N166" s="27"/>
       <c r="O166" s="28"/>
       <c r="P166" s="29"/>
-      <c r="V166" s="27"/>
-    </row>
-    <row r="167" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U166" s="27"/>
+    </row>
+    <row r="167" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="B167" s="19"/>
       <c r="C167" s="26"/>
@@ -15497,9 +15454,9 @@
       <c r="N167" s="27"/>
       <c r="O167" s="28"/>
       <c r="P167" s="29"/>
-      <c r="V167" s="27"/>
-    </row>
-    <row r="168" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U167" s="27"/>
+    </row>
+    <row r="168" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="B168" s="19"/>
       <c r="C168" s="26"/>
@@ -15515,9 +15472,9 @@
       <c r="N168" s="27"/>
       <c r="O168" s="28"/>
       <c r="P168" s="29"/>
-      <c r="V168" s="27"/>
-    </row>
-    <row r="169" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U168" s="27"/>
+    </row>
+    <row r="169" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="B169" s="19"/>
       <c r="C169" s="26"/>
@@ -15533,9 +15490,9 @@
       <c r="N169" s="27"/>
       <c r="O169" s="28"/>
       <c r="P169" s="29"/>
-      <c r="V169" s="27"/>
-    </row>
-    <row r="170" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U169" s="27"/>
+    </row>
+    <row r="170" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="B170" s="19"/>
       <c r="C170" s="26"/>
@@ -15551,9 +15508,9 @@
       <c r="N170" s="27"/>
       <c r="O170" s="28"/>
       <c r="P170" s="29"/>
-      <c r="V170" s="27"/>
-    </row>
-    <row r="171" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U170" s="27"/>
+    </row>
+    <row r="171" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="B171" s="19"/>
       <c r="C171" s="26"/>
@@ -15569,9 +15526,9 @@
       <c r="N171" s="27"/>
       <c r="O171" s="28"/>
       <c r="P171" s="29"/>
-      <c r="V171" s="27"/>
-    </row>
-    <row r="172" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U171" s="27"/>
+    </row>
+    <row r="172" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="B172" s="19"/>
       <c r="C172" s="26"/>
@@ -15587,9 +15544,9 @@
       <c r="N172" s="27"/>
       <c r="O172" s="28"/>
       <c r="P172" s="29"/>
-      <c r="V172" s="27"/>
-    </row>
-    <row r="173" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U172" s="27"/>
+    </row>
+    <row r="173" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="B173" s="19"/>
       <c r="C173" s="26"/>
@@ -15605,9 +15562,9 @@
       <c r="N173" s="27"/>
       <c r="O173" s="28"/>
       <c r="P173" s="29"/>
-      <c r="V173" s="27"/>
-    </row>
-    <row r="174" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U173" s="27"/>
+    </row>
+    <row r="174" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="26"/>
@@ -15623,9 +15580,9 @@
       <c r="N174" s="27"/>
       <c r="O174" s="28"/>
       <c r="P174" s="29"/>
-      <c r="V174" s="27"/>
-    </row>
-    <row r="175" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U174" s="27"/>
+    </row>
+    <row r="175" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="B175" s="19"/>
       <c r="C175" s="26"/>
@@ -15641,9 +15598,9 @@
       <c r="N175" s="27"/>
       <c r="O175" s="28"/>
       <c r="P175" s="29"/>
-      <c r="V175" s="27"/>
-    </row>
-    <row r="176" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U175" s="27"/>
+    </row>
+    <row r="176" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="26"/>
@@ -15659,9 +15616,9 @@
       <c r="N176" s="27"/>
       <c r="O176" s="28"/>
       <c r="P176" s="29"/>
-      <c r="V176" s="27"/>
-    </row>
-    <row r="177" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U176" s="27"/>
+    </row>
+    <row r="177" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="B177" s="19"/>
       <c r="C177" s="26"/>
@@ -15677,9 +15634,9 @@
       <c r="N177" s="27"/>
       <c r="O177" s="28"/>
       <c r="P177" s="29"/>
-      <c r="V177" s="27"/>
-    </row>
-    <row r="178" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U177" s="27"/>
+    </row>
+    <row r="178" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="26"/>
@@ -15695,9 +15652,9 @@
       <c r="N178" s="27"/>
       <c r="O178" s="28"/>
       <c r="P178" s="29"/>
-      <c r="V178" s="27"/>
-    </row>
-    <row r="179" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U178" s="27"/>
+    </row>
+    <row r="179" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="B179" s="19"/>
       <c r="C179" s="26"/>
@@ -15713,9 +15670,9 @@
       <c r="N179" s="27"/>
       <c r="O179" s="28"/>
       <c r="P179" s="29"/>
-      <c r="V179" s="27"/>
-    </row>
-    <row r="180" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U179" s="27"/>
+    </row>
+    <row r="180" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="26"/>
@@ -15731,9 +15688,9 @@
       <c r="N180" s="27"/>
       <c r="O180" s="28"/>
       <c r="P180" s="29"/>
-      <c r="V180" s="27"/>
-    </row>
-    <row r="181" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U180" s="27"/>
+    </row>
+    <row r="181" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="B181" s="19"/>
       <c r="C181" s="26"/>
@@ -15749,9 +15706,9 @@
       <c r="N181" s="27"/>
       <c r="O181" s="28"/>
       <c r="P181" s="29"/>
-      <c r="V181" s="27"/>
-    </row>
-    <row r="182" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U181" s="27"/>
+    </row>
+    <row r="182" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="26"/>
@@ -15767,9 +15724,9 @@
       <c r="N182" s="27"/>
       <c r="O182" s="28"/>
       <c r="P182" s="29"/>
-      <c r="V182" s="27"/>
-    </row>
-    <row r="183" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U182" s="27"/>
+    </row>
+    <row r="183" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="B183" s="19"/>
       <c r="C183" s="26"/>
@@ -15785,9 +15742,9 @@
       <c r="N183" s="27"/>
       <c r="O183" s="28"/>
       <c r="P183" s="29"/>
-      <c r="V183" s="27"/>
-    </row>
-    <row r="184" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U183" s="27"/>
+    </row>
+    <row r="184" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="26"/>
@@ -15803,9 +15760,9 @@
       <c r="N184" s="27"/>
       <c r="O184" s="28"/>
       <c r="P184" s="29"/>
-      <c r="V184" s="27"/>
-    </row>
-    <row r="185" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U184" s="27"/>
+    </row>
+    <row r="185" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="B185" s="19"/>
       <c r="C185" s="26"/>
@@ -15821,27 +15778,27 @@
       <c r="N185" s="27"/>
       <c r="O185" s="28"/>
       <c r="P185" s="29"/>
-      <c r="V185" s="27"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U185" s="27"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B186" s="20"/>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
@@ -16014,26 +15971,26 @@
     </row>
     <row r="249" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X145" xr:uid="{6CF84B41-32F2-49F7-98B0-CEE8EB3B05FF}"/>
+  <autoFilter ref="A1:W145" xr:uid="{6CF84B41-32F2-49F7-98B0-CEE8EB3B05FF}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V25" r:id="rId1" xr:uid="{35EEAAC2-4ABF-47DD-A934-830566D9D1BB}"/>
-    <hyperlink ref="V26:V28" r:id="rId2" display="https://csb.uncw.edu/cen/docs/determining%20language%20proficiency.pdf" xr:uid="{3B234C15-6F47-4947-8C0B-9D5881548B50}"/>
-    <hyperlink ref="V61" r:id="rId3" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5A17C14A-6742-4693-9581-D82093EEBDAE}"/>
-    <hyperlink ref="V62" r:id="rId4" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{8AB19AB8-7C27-451B-BA73-6371041F89BA}"/>
-    <hyperlink ref="V63" r:id="rId5" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{B3F4CC50-23ED-4F15-A65A-765E55CDFB71}"/>
-    <hyperlink ref="V64" r:id="rId6" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{2184AC84-021C-44B7-B6BD-80A620EC5AB4}"/>
-    <hyperlink ref="V65" r:id="rId7" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5787DCAF-82FD-4A16-AD1A-03A6E9D7F078}"/>
-    <hyperlink ref="V66" r:id="rId8" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{7C9C3C61-45AF-4E44-99F3-B16D59CA5BCC}"/>
-    <hyperlink ref="V67" r:id="rId9" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{E10A3F97-BBEE-4AAB-B9A6-9819C18F9209}"/>
-    <hyperlink ref="V126" r:id="rId10" xr:uid="{42181FC6-94FC-4DB9-84FC-7B4CDA539539}"/>
-    <hyperlink ref="AD63" r:id="rId11" tooltip="Go to external page" xr:uid="{F8AD3EA2-3689-4F7E-8733-1AD5F8EFB701}"/>
-    <hyperlink ref="AD65" r:id="rId12" tooltip="Go to external page" xr:uid="{DD50085C-B6AA-4A03-9158-C67FA031778D}"/>
-    <hyperlink ref="AD64" r:id="rId13" tooltip="Go to external page" xr:uid="{C0801063-A12F-413A-B58B-9FB2D9D0CF97}"/>
+    <hyperlink ref="U25" r:id="rId1" xr:uid="{35EEAAC2-4ABF-47DD-A934-830566D9D1BB}"/>
+    <hyperlink ref="U26:U28" r:id="rId2" display="https://csb.uncw.edu/cen/docs/determining%20language%20proficiency.pdf" xr:uid="{3B234C15-6F47-4947-8C0B-9D5881548B50}"/>
+    <hyperlink ref="U61" r:id="rId3" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5A17C14A-6742-4693-9581-D82093EEBDAE}"/>
+    <hyperlink ref="U62" r:id="rId4" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{8AB19AB8-7C27-451B-BA73-6371041F89BA}"/>
+    <hyperlink ref="U63" r:id="rId5" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{B3F4CC50-23ED-4F15-A65A-765E55CDFB71}"/>
+    <hyperlink ref="U64" r:id="rId6" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{2184AC84-021C-44B7-B6BD-80A620EC5AB4}"/>
+    <hyperlink ref="U65" r:id="rId7" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5787DCAF-82FD-4A16-AD1A-03A6E9D7F078}"/>
+    <hyperlink ref="U66" r:id="rId8" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{7C9C3C61-45AF-4E44-99F3-B16D59CA5BCC}"/>
+    <hyperlink ref="U67" r:id="rId9" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{E10A3F97-BBEE-4AAB-B9A6-9819C18F9209}"/>
+    <hyperlink ref="U126" r:id="rId10" xr:uid="{42181FC6-94FC-4DB9-84FC-7B4CDA539539}"/>
+    <hyperlink ref="AB63" r:id="rId11" tooltip="Go to external page" xr:uid="{F8AD3EA2-3689-4F7E-8733-1AD5F8EFB701}"/>
+    <hyperlink ref="AB65" r:id="rId12" tooltip="Go to external page" xr:uid="{DD50085C-B6AA-4A03-9158-C67FA031778D}"/>
+    <hyperlink ref="AB64" r:id="rId13" tooltip="Go to external page" xr:uid="{C0801063-A12F-413A-B58B-9FB2D9D0CF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBF74B-7896-2444-BAFA-5C3C111F030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECE820-A311-0C4A-B5FB-4D8F905AFD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="620" windowWidth="25320" windowHeight="13660" xr2:uid="{401D180D-DEBC-4403-BFFA-F0CF0B3ED978}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="28Jul21" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'28Jul21'!$A$1:$W$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'28Jul21'!$A$1:$X$145</definedName>
     <definedName name="d17006e1890" localSheetId="0">'28Jul21'!#REF!</definedName>
     <definedName name="d17006e1895" localSheetId="0">'28Jul21'!#REF!</definedName>
   </definedNames>
@@ -3105,10 +3105,10 @@
   <dimension ref="A1:CC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="Y148" sqref="Y148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3117,21 +3117,22 @@
     <col min="2" max="2" width="25.5" style="33" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="26" customWidth="1"/>
     <col min="4" max="4" width="45.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="32" customWidth="1"/>
-    <col min="7" max="14" width="9.1640625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="28" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="18" customWidth="1"/>
-    <col min="19" max="19" width="32.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="18" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="32" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" style="30" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="106"/>
-    <col min="24" max="24" width="9.5" style="30" customWidth="1"/>
-    <col min="25" max="27" width="9.1640625" style="30"/>
-    <col min="28" max="28" width="24.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="32" customWidth="1"/>
+    <col min="6" max="13" width="9.1640625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="28" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="35.83203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="32.5" style="18" customWidth="1"/>
+    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="32" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="30"/>
+    <col min="23" max="23" width="24.6640625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="106"/>
+    <col min="25" max="25" width="9.5" style="30" customWidth="1"/>
+    <col min="26" max="27" width="9.1640625" style="30"/>
+    <col min="28" max="28" width="40.6640625" style="45" customWidth="1"/>
     <col min="29" max="81" width="9.1640625" style="30"/>
     <col min="82" max="16384" width="9.1640625" style="18"/>
   </cols>
@@ -3149,77 +3150,77 @@
       <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>628</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="X1" s="70" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y1" s="70" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z1" s="70" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA1" s="70" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB1" s="40" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="70" t="s">
-        <v>625</v>
-      </c>
-      <c r="X1" s="70" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y1" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z1" s="70" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA1" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>629</v>
       </c>
       <c r="AC1" s="30"/>
       <c r="AD1" s="30"/>
@@ -3288,7 +3289,7 @@
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="74"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3297,12 +3298,12 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="AB2" s="74"/>
       <c r="AC2" s="30"/>
       <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
@@ -3370,7 +3371,7 @@
       <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3379,13 +3380,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="U3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="AB3" s="41"/>
       <c r="AC3" s="30"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -3453,14 +3454,14 @@
       <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="6"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="6"/>
+      <c r="AB4" s="41"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
@@ -3528,7 +3529,7 @@
       <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3537,16 +3538,16 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="6"/>
-      <c r="AB5" s="11" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="AB5" s="47"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3614,9 +3615,7 @@
       <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>495</v>
-      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -3625,14 +3624,16 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="V6" s="53" t="s">
+      <c r="U6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="AB6" s="46" t="s">
+        <v>495</v>
       </c>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
@@ -3701,9 +3702,7 @@
       <c r="D7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>504</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3712,12 +3711,14 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="U7" s="12"/>
-      <c r="AB7" s="11" t="s">
+      <c r="T7" s="12"/>
+      <c r="W7" s="11" t="s">
         <v>43</v>
+      </c>
+      <c r="AB7" s="46" t="s">
+        <v>504</v>
       </c>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30"/>
@@ -3786,9 +3787,7 @@
       <c r="D8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>496</v>
-      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3797,15 +3796,17 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="53" t="s">
+      <c r="T8" s="12"/>
+      <c r="U8" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="AB8" s="46" t="s">
+        <v>496</v>
       </c>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30"/>
@@ -3874,9 +3875,7 @@
       <c r="D9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>496</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3885,15 +3884,17 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="53" t="s">
+      <c r="T9" s="12"/>
+      <c r="U9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="AB9" s="46" t="s">
+        <v>496</v>
       </c>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30"/>
@@ -3962,9 +3963,7 @@
       <c r="D10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>496</v>
-      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3973,15 +3972,17 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="53" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="AB10" s="46" t="s">
+        <v>496</v>
       </c>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30"/>
@@ -4050,7 +4051,7 @@
       <c r="D11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -4059,13 +4060,13 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="U11" s="12"/>
-      <c r="AB11" s="3" t="s">
+      <c r="T11" s="12"/>
+      <c r="W11" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AB11" s="42"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
@@ -4133,7 +4134,7 @@
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -4142,16 +4143,16 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="53" t="s">
+      <c r="T12" s="12"/>
+      <c r="U12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="AB12" s="42"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
@@ -4219,7 +4220,7 @@
       <c r="D13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -4228,16 +4229,16 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="53" t="s">
+      <c r="T13" s="12"/>
+      <c r="U13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="AB13" s="42"/>
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
@@ -4305,7 +4306,7 @@
       <c r="D14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -4314,16 +4315,16 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="53" t="s">
+      <c r="T14" s="12"/>
+      <c r="U14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AB14" s="42"/>
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
@@ -4391,7 +4392,7 @@
       <c r="D15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -4400,16 +4401,16 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="53" t="s">
+      <c r="T15" s="12"/>
+      <c r="U15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="AB15" s="42"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30"/>
@@ -4477,7 +4478,7 @@
       <c r="D16" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -4486,16 +4487,16 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="53" t="s">
+      <c r="T16" s="12"/>
+      <c r="U16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AB16" s="42"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
@@ -4563,7 +4564,7 @@
       <c r="D17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -4572,16 +4573,16 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="53" t="s">
+      <c r="T17" s="12"/>
+      <c r="U17" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="AB17" s="42"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30"/>
@@ -4649,7 +4650,7 @@
       <c r="D18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -4658,13 +4659,13 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="53" t="s">
+      <c r="T18" s="12"/>
+      <c r="U18" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB18" s="41"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30"/>
@@ -4732,7 +4733,7 @@
       <c r="D19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -4741,18 +4742,18 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="U19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="53" t="s">
+      <c r="U19" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="AB19" s="47"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30"/>
@@ -4820,24 +4821,24 @@
       <c r="D20" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="U20" s="14" t="s">
+      <c r="T20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="V20" s="53" t="s">
+      <c r="U20" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB20" s="42"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
@@ -4905,26 +4906,26 @@
       <c r="D21" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="R21" s="49"/>
       <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="14" t="s">
+      <c r="T21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="53" t="s">
+      <c r="U21" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB21" s="48"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30"/>
@@ -4992,30 +4993,30 @@
       <c r="D22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>497</v>
-      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="S22" s="23" t="s">
+      <c r="R22" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="T22" s="23"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="53" t="s">
+      <c r="S22" s="23"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="AB22" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>91</v>
+      </c>
+      <c r="AB22" s="46" t="s">
+        <v>497</v>
       </c>
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
@@ -5084,30 +5085,30 @@
       <c r="D23" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>498</v>
-      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="S23" s="22" t="s">
+      <c r="R23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="53" t="s">
+      <c r="S23" s="22"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="AB23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="AB23" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
@@ -5176,26 +5177,26 @@
       <c r="D24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>499</v>
-      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="S24" s="22" t="s">
+      <c r="R24" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="AB24" s="100" t="s">
+      <c r="S24" s="22"/>
+      <c r="W24" s="100" t="s">
         <v>100</v>
+      </c>
+      <c r="AB24" s="46" t="s">
+        <v>499</v>
       </c>
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
@@ -5264,28 +5265,28 @@
       <c r="D25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="S25" s="22" t="s">
+      <c r="R25" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="17" t="s">
+      <c r="S25" s="22"/>
+      <c r="T25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="V25" s="53" t="s">
+      <c r="U25" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB25" s="42"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
@@ -5353,28 +5354,28 @@
       <c r="D26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="S26" s="22" t="s">
+      <c r="R26" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="17" t="s">
+      <c r="S26" s="22"/>
+      <c r="T26" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="V26" s="53" t="s">
+      <c r="U26" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB26" s="42"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
@@ -5442,28 +5443,28 @@
       <c r="D27" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="S27" s="22" t="s">
+      <c r="R27" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="17" t="s">
+      <c r="S27" s="22"/>
+      <c r="T27" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="V27" s="53" t="s">
+      <c r="U27" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB27" s="42"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
@@ -5531,28 +5532,28 @@
       <c r="D28" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="82"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="S28" s="22" t="s">
+      <c r="R28" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="17" t="s">
+      <c r="S28" s="22"/>
+      <c r="T28" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="V28" s="53" t="s">
+      <c r="U28" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB28" s="82"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30"/>
@@ -5620,27 +5621,27 @@
       <c r="D29" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="102"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="11" t="s">
+      <c r="P29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="103" t="s">
+      <c r="Q29" s="30"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="103" t="s">
         <v>115</v>
       </c>
+      <c r="AB29" s="102"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30"/>
@@ -5708,7 +5709,7 @@
       <c r="D30" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="102"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -5717,13 +5718,13 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="53" t="s">
+      <c r="T30" s="14"/>
+      <c r="U30" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB30" s="102"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
@@ -5791,7 +5792,7 @@
       <c r="D31" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -5800,16 +5801,16 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="11" t="s">
+      <c r="P31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="U31" s="14"/>
-      <c r="V31" s="53" t="s">
+      <c r="T31" s="14"/>
+      <c r="U31" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB31" s="83"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30"/>
@@ -5877,7 +5878,7 @@
       <c r="D32" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -5886,21 +5887,21 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="11" t="s">
+      <c r="P32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="R32" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="V32" s="53" t="s">
+      <c r="U32" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB32" s="14" t="s">
+      <c r="W32" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="AB32" s="71"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30"/>
@@ -5968,7 +5969,7 @@
       <c r="D33" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -5977,19 +5978,19 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="S33" s="103" t="s">
+      <c r="R33" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="T33" s="103"/>
-      <c r="V33" s="53" t="s">
+      <c r="S33" s="103"/>
+      <c r="U33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB33" s="103" t="s">
+      <c r="W33" s="103" t="s">
         <v>132</v>
       </c>
+      <c r="AB33" s="48"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30"/>
@@ -6057,7 +6058,7 @@
       <c r="D34" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -6066,18 +6067,18 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="S34" s="11" t="s">
+      <c r="R34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="V34" s="53" t="s">
+      <c r="U34" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB34" s="14" t="s">
+      <c r="W34" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="AB34" s="42"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30"/>
@@ -6145,7 +6146,7 @@
       <c r="D35" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -6154,19 +6155,19 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="S35" s="103" t="s">
+      <c r="R35" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="T35" s="103"/>
-      <c r="V35" s="53" t="s">
+      <c r="S35" s="103"/>
+      <c r="U35" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB35" s="14" t="s">
+      <c r="W35" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="AB35" s="42"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30"/>
@@ -6234,7 +6235,7 @@
       <c r="D36" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -6243,13 +6244,13 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="53" t="s">
+      <c r="T36" s="12"/>
+      <c r="U36" s="53" t="s">
         <v>141</v>
       </c>
+      <c r="AB36" s="42"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30"/>
@@ -6315,7 +6316,7 @@
       <c r="D37" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -6324,16 +6325,16 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="53" t="s">
+      <c r="T37" s="12"/>
+      <c r="U37" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AB37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="AB37" s="42"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
@@ -6401,9 +6402,7 @@
       <c r="D38" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="42" t="s">
-        <v>147</v>
-      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -6412,14 +6411,16 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="53" t="s">
+      <c r="T38" s="12"/>
+      <c r="U38" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AB38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="AB38" s="42" t="s">
+        <v>147</v>
+      </c>
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
@@ -6487,10 +6488,10 @@
       <c r="D39" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="27" t="s">
+      <c r="E39" s="27" t="s">
         <v>151</v>
       </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -6498,16 +6499,16 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="N39" s="13"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="U39" s="12" t="s">
+      <c r="T39" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="V39" s="53" t="s">
+      <c r="U39" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AB39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="AB39" s="42"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30"/>
@@ -6575,25 +6576,25 @@
       <c r="D40" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
       <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="U40" s="12" t="s">
+      <c r="T40" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="V40" s="53"/>
-      <c r="AB40" s="2"/>
+      <c r="U40" s="53"/>
+      <c r="W40" s="2"/>
+      <c r="AB40" s="42"/>
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30"/>
@@ -6661,7 +6662,7 @@
       <c r="D41" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -6670,14 +6671,14 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="U41" s="12" t="s">
+      <c r="T41" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="V41" s="53"/>
-      <c r="AB41" s="2"/>
+      <c r="U41" s="53"/>
+      <c r="W41" s="2"/>
+      <c r="AB41" s="41"/>
       <c r="AC41" s="30"/>
       <c r="AD41" s="30"/>
       <c r="AE41" s="30"/>
@@ -6745,7 +6746,7 @@
       <c r="D42" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -6754,14 +6755,14 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="N42" s="13"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="53" t="s">
+      <c r="T42" s="12"/>
+      <c r="U42" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="AB42" s="42"/>
       <c r="AC42" s="30"/>
       <c r="AD42" s="30"/>
       <c r="AE42" s="30"/>
@@ -6829,7 +6830,7 @@
       <c r="D43" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -6838,14 +6839,14 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="53" t="s">
+      <c r="T43" s="12"/>
+      <c r="U43" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="AB43" s="42"/>
       <c r="AC43" s="30"/>
       <c r="AD43" s="30"/>
       <c r="AE43" s="30"/>
@@ -6913,7 +6914,7 @@
       <c r="D44" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -6922,17 +6923,17 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="S44" s="11" t="s">
+      <c r="R44" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="U44" s="12"/>
-      <c r="V44" s="53" t="s">
+      <c r="T44" s="12"/>
+      <c r="U44" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="AB44" s="42"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="30"/>
       <c r="AE44" s="30"/>
@@ -7000,7 +7001,7 @@
       <c r="D45" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -7009,14 +7010,14 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
+      <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="53" t="s">
+      <c r="T45" s="12"/>
+      <c r="U45" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="AB45" s="48"/>
       <c r="AC45" s="30"/>
       <c r="AD45" s="30"/>
       <c r="AE45" s="30"/>
@@ -7084,7 +7085,7 @@
       <c r="D46" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -7093,14 +7094,14 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="53" t="s">
+      <c r="T46" s="12"/>
+      <c r="U46" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="AB46" s="48"/>
       <c r="AC46" s="30"/>
       <c r="AD46" s="30"/>
       <c r="AE46" s="30"/>
@@ -7168,7 +7169,7 @@
       <c r="D47" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -7177,17 +7178,17 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="S47" s="11" t="s">
+      <c r="R47" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="U47" s="12"/>
-      <c r="V47" s="53" t="s">
+      <c r="T47" s="12"/>
+      <c r="U47" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="AB47" s="48"/>
       <c r="AC47" s="30"/>
       <c r="AD47" s="30"/>
       <c r="AE47" s="30"/>
@@ -7255,7 +7256,7 @@
       <c r="D48" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="42"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -7264,14 +7265,14 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="53" t="s">
+      <c r="T48" s="12"/>
+      <c r="U48" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="AB48" s="42"/>
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="30"/>
@@ -7339,7 +7340,7 @@
       <c r="D49" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -7348,14 +7349,14 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="53" t="s">
+      <c r="T49" s="12"/>
+      <c r="U49" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AB49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="AB49" s="48"/>
       <c r="AC49" s="30"/>
       <c r="AD49" s="30"/>
       <c r="AE49" s="30"/>
@@ -7423,7 +7424,7 @@
       <c r="D50" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -7432,13 +7433,13 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="53" t="s">
+      <c r="T50" s="12"/>
+      <c r="U50" s="53" t="s">
         <v>182</v>
       </c>
+      <c r="AB50" s="48"/>
       <c r="AC50" s="30"/>
       <c r="AD50" s="30"/>
       <c r="AE50" s="30"/>
@@ -7506,9 +7507,7 @@
       <c r="D51" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="E51" s="48" t="s">
-        <v>503</v>
-      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -7517,11 +7516,13 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="53"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="53"/>
+      <c r="AB51" s="48" t="s">
+        <v>503</v>
+      </c>
       <c r="AC51" s="30"/>
       <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
@@ -7589,9 +7590,7 @@
       <c r="D52" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="E52" s="48" t="s">
-        <v>491</v>
-      </c>
+      <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -7600,11 +7599,13 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="53"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="53"/>
+      <c r="AB52" s="48" t="s">
+        <v>491</v>
+      </c>
       <c r="AC52" s="30"/>
       <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
@@ -7672,9 +7673,7 @@
       <c r="D53" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="E53" s="48" t="s">
-        <v>430</v>
-      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -7683,15 +7682,17 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="N53" s="13"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="S53" s="11" t="s">
+      <c r="R53" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="U53" s="12"/>
-      <c r="V53" s="53" t="s">
+      <c r="T53" s="12"/>
+      <c r="U53" s="53" t="s">
         <v>46</v>
+      </c>
+      <c r="AB53" s="48" t="s">
+        <v>430</v>
       </c>
       <c r="AC53" s="30"/>
       <c r="AD53" s="30"/>
@@ -7760,7 +7761,7 @@
       <c r="D54" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -7769,17 +7770,17 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="S54" s="11" t="s">
+      <c r="R54" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="U54" s="12"/>
-      <c r="V54" s="53"/>
-      <c r="AB54" s="34" t="s">
+      <c r="T54" s="12"/>
+      <c r="U54" s="53"/>
+      <c r="W54" s="34" t="s">
         <v>187</v>
       </c>
+      <c r="AB54" s="42"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
@@ -7847,7 +7848,7 @@
       <c r="D55" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="42"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -7856,18 +7857,18 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="13" t="s">
+      <c r="N55" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="P55" s="13"/>
-      <c r="S55" s="11" t="s">
+      <c r="O55" s="13"/>
+      <c r="R55" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="U55" s="12"/>
-      <c r="V55" s="53" t="s">
+      <c r="T55" s="12"/>
+      <c r="U55" s="53" t="s">
         <v>193</v>
       </c>
+      <c r="AB55" s="42"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
@@ -7935,7 +7936,7 @@
       <c r="D56" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E56" s="42"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -7944,18 +7945,18 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="13" t="s">
+      <c r="N56" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="P56" s="13"/>
-      <c r="S56" s="11" t="s">
+      <c r="O56" s="13"/>
+      <c r="R56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="U56" s="12"/>
-      <c r="V56" s="53" t="s">
+      <c r="T56" s="12"/>
+      <c r="U56" s="53" t="s">
         <v>193</v>
       </c>
+      <c r="AB56" s="42"/>
       <c r="AC56" s="30"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="30"/>
@@ -8023,7 +8024,7 @@
       <c r="D57" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="42"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -8032,10 +8033,10 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
+      <c r="N57" s="13"/>
       <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="U57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="AB57" s="42"/>
       <c r="AC57" s="30"/>
       <c r="AD57" s="30"/>
       <c r="AE57" s="30"/>
@@ -8103,9 +8104,7 @@
       <c r="D58" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="48" t="s">
-        <v>492</v>
-      </c>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8114,16 +8113,18 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="24" t="s">
+      <c r="N58" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="P58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="R58" s="50"/>
       <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="53" t="s">
+      <c r="T58" s="12"/>
+      <c r="U58" s="53" t="s">
         <v>193</v>
+      </c>
+      <c r="AB58" s="48" t="s">
+        <v>492</v>
       </c>
       <c r="AC58" s="30"/>
       <c r="AD58" s="30"/>
@@ -8192,7 +8193,7 @@
       <c r="D59" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="48"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -8201,21 +8202,21 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
+      <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="11" t="s">
+      <c r="P59" s="11" t="s">
         <v>418</v>
       </c>
+      <c r="R59" s="22"/>
       <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="53" t="s">
+      <c r="T59" s="14"/>
+      <c r="U59" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="AB59" s="48"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
@@ -8283,9 +8284,7 @@
       <c r="D60" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E60" s="48" t="s">
-        <v>415</v>
-      </c>
+      <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -8294,16 +8293,18 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+      <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="S60" s="22" t="s">
+      <c r="R60" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="T60" s="22"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="53"/>
-      <c r="AB60" s="3"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="53"/>
+      <c r="W60" s="3"/>
+      <c r="AB60" s="48" t="s">
+        <v>415</v>
+      </c>
       <c r="AC60" s="30"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
@@ -8371,7 +8372,7 @@
       <c r="D61" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E61" s="48"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -8380,19 +8381,19 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
+      <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="22" t="s">
+      <c r="P61" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="T61" s="22"/>
-      <c r="U61" s="17" t="s">
+      <c r="S61" s="22"/>
+      <c r="T61" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V61" s="53" t="s">
+      <c r="U61" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB61" s="48"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
@@ -8460,7 +8461,7 @@
       <c r="D62" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E62" s="48"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -8469,22 +8470,22 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="22" t="s">
+      <c r="P62" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="T62" s="22"/>
-      <c r="U62" s="17" t="s">
+      <c r="S62" s="22"/>
+      <c r="T62" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V62" s="53" t="s">
+      <c r="U62" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB62" s="61" t="s">
+      <c r="W62" s="61" t="s">
         <v>214</v>
       </c>
+      <c r="AB62" s="48"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
@@ -8552,7 +8553,7 @@
       <c r="D63" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -8561,22 +8562,22 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
+      <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="22" t="s">
+      <c r="P63" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="T63" s="22"/>
-      <c r="U63" s="17" t="s">
+      <c r="S63" s="22"/>
+      <c r="T63" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V63" s="53" t="s">
+      <c r="U63" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB63" s="60" t="s">
+      <c r="W63" s="60" t="s">
         <v>218</v>
       </c>
+      <c r="AB63" s="48"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
@@ -8644,7 +8645,7 @@
       <c r="D64" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="42"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -8653,23 +8654,23 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
+      <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="22" t="s">
+      <c r="P64" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="R64" s="104"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="17" t="s">
+      <c r="Q64" s="104"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V64" s="53" t="s">
+      <c r="U64" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB64" s="60" t="s">
+      <c r="W64" s="60" t="s">
         <v>222</v>
       </c>
+      <c r="AB64" s="42"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
@@ -8737,7 +8738,7 @@
       <c r="D65" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E65" s="48"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -8746,22 +8747,22 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
+      <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="22" t="s">
+      <c r="P65" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="T65" s="22"/>
-      <c r="U65" s="17" t="s">
+      <c r="S65" s="22"/>
+      <c r="T65" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V65" s="53" t="s">
+      <c r="U65" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB65" s="60" t="s">
+      <c r="W65" s="60" t="s">
         <v>226</v>
       </c>
+      <c r="AB65" s="48"/>
       <c r="AC65" s="30"/>
       <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
@@ -8829,7 +8830,7 @@
       <c r="D66" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="48"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -8838,19 +8839,19 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="22" t="s">
+      <c r="P66" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="T66" s="22"/>
-      <c r="U66" s="17" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V66" s="53" t="s">
+      <c r="U66" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB66" s="48"/>
       <c r="AC66" s="30"/>
       <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
@@ -8918,7 +8919,7 @@
       <c r="D67" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E67" s="48"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -8927,19 +8928,19 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
+      <c r="N67" s="13"/>
       <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="22" t="s">
+      <c r="P67" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="T67" s="22"/>
-      <c r="U67" s="17" t="s">
+      <c r="S67" s="22"/>
+      <c r="T67" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="V67" s="53" t="s">
+      <c r="U67" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB67" s="48"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
@@ -9007,7 +9008,7 @@
       <c r="D68" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="E68" s="42"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -9016,10 +9017,10 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
+      <c r="N68" s="13"/>
       <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="U68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="AB68" s="42"/>
       <c r="AC68" s="30"/>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
@@ -9087,7 +9088,7 @@
       <c r="D69" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="42"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -9096,13 +9097,13 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
+      <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="11" t="s">
+      <c r="T69" s="12"/>
+      <c r="U69" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="AB69" s="42"/>
       <c r="AC69" s="30"/>
       <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
@@ -9170,7 +9171,7 @@
       <c r="D70" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="42"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -9179,16 +9180,16 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="53" t="s">
+      <c r="T70" s="12"/>
+      <c r="U70" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB70" s="3" t="s">
+      <c r="W70" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="AB70" s="42"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="30"/>
       <c r="AE70" s="30"/>
@@ -9256,7 +9257,7 @@
       <c r="D71" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="42"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -9265,18 +9266,18 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
+      <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="R71" s="58"/>
-      <c r="T71" s="58"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="53" t="s">
+      <c r="Q71" s="58"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="64"/>
+      <c r="U71" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB71" s="3" t="s">
+      <c r="W71" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="AB71" s="42"/>
       <c r="AC71" s="30"/>
       <c r="AD71" s="30"/>
       <c r="AE71" s="30"/>
@@ -9344,7 +9345,7 @@
       <c r="D72" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -9353,18 +9354,18 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
+      <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="R72" s="58"/>
-      <c r="T72" s="58"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="53" t="s">
+      <c r="Q72" s="58"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="64"/>
+      <c r="U72" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="AB72" s="42"/>
       <c r="AC72" s="30"/>
       <c r="AD72" s="30"/>
       <c r="AE72" s="30"/>
@@ -9432,7 +9433,7 @@
       <c r="D73" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="42"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -9441,15 +9442,15 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
+      <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="R73" s="58"/>
-      <c r="T73" s="58"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="53" t="s">
+      <c r="Q73" s="58"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB73" s="42"/>
       <c r="AC73" s="30"/>
       <c r="AD73" s="30"/>
       <c r="AE73" s="30"/>
@@ -9517,7 +9518,7 @@
       <c r="D74" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -9526,15 +9527,15 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
+      <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="R74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="64"/>
-      <c r="V74" s="53" t="s">
+      <c r="Q74" s="58"/>
+      <c r="S74" s="58"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB74" s="42"/>
       <c r="AC74" s="30"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="30"/>
@@ -9602,7 +9603,7 @@
       <c r="D75" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="42"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -9611,15 +9612,15 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
+      <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="R75" s="58"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="64"/>
-      <c r="V75" s="53" t="s">
+      <c r="Q75" s="58"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="64"/>
+      <c r="U75" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB75" s="42"/>
       <c r="AC75" s="30"/>
       <c r="AD75" s="30"/>
       <c r="AE75" s="30"/>
@@ -9687,7 +9688,7 @@
       <c r="D76" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="48"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -9696,22 +9697,22 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
+      <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="11" t="s">
+      <c r="P76" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="R76" s="58"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="80"/>
-      <c r="U76" s="64"/>
-      <c r="V76" s="53" t="s">
+      <c r="Q76" s="58"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="80"/>
+      <c r="T76" s="64"/>
+      <c r="U76" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB76" s="3" t="s">
+      <c r="W76" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="AB76" s="48"/>
       <c r="AC76" s="30"/>
       <c r="AD76" s="30"/>
       <c r="AE76" s="30"/>
@@ -9779,7 +9780,7 @@
       <c r="D77" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E77" s="42"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -9788,18 +9789,18 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
+      <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="R77" s="58"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="81"/>
-      <c r="U77" s="65" t="s">
+      <c r="Q77" s="58"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="81"/>
+      <c r="T77" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="V77" s="53" t="s">
+      <c r="U77" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB77" s="42"/>
       <c r="AC77" s="30"/>
       <c r="AD77" s="30"/>
       <c r="AE77" s="30"/>
@@ -9867,7 +9868,7 @@
       <c r="D78" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="E78" s="48"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -9876,18 +9877,18 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
+      <c r="N78" s="13"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="22" t="s">
+      <c r="P78" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="R78" s="58"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="64"/>
-      <c r="V78" s="53" t="s">
+      <c r="Q78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="64"/>
+      <c r="U78" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB78" s="48"/>
       <c r="AC78" s="30"/>
       <c r="AD78" s="30"/>
       <c r="AE78" s="30"/>
@@ -9955,7 +9956,7 @@
       <c r="D79" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="E79" s="48"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -9964,18 +9965,18 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
+      <c r="N79" s="13"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="R79" s="58"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="53" t="s">
+      <c r="Q79" s="58"/>
+      <c r="S79" s="58"/>
+      <c r="T79" s="64"/>
+      <c r="U79" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB79" s="2" t="s">
+      <c r="W79" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="AB79" s="48"/>
       <c r="AC79" s="30"/>
       <c r="AD79" s="30"/>
       <c r="AE79" s="30"/>
@@ -10043,7 +10044,7 @@
       <c r="D80" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="E80" s="48"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -10052,15 +10053,15 @@
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
+      <c r="N80" s="13"/>
       <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="R80" s="58"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="64"/>
-      <c r="V80" s="53" t="s">
+      <c r="Q80" s="58"/>
+      <c r="S80" s="58"/>
+      <c r="T80" s="64"/>
+      <c r="U80" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB80" s="48"/>
       <c r="AC80" s="30"/>
       <c r="AD80" s="30"/>
       <c r="AE80" s="30"/>
@@ -10128,7 +10129,7 @@
       <c r="D81" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="E81" s="48"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -10137,16 +10138,16 @@
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
+      <c r="N81" s="13"/>
       <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="R81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="S81" s="58"/>
       <c r="T81" s="58"/>
-      <c r="U81" s="58"/>
-      <c r="V81" s="53" t="s">
+      <c r="U81" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="AB81" s="48"/>
       <c r="AC81" s="30"/>
       <c r="AD81" s="30"/>
       <c r="AE81" s="30"/>
@@ -10214,7 +10215,7 @@
       <c r="D82" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="E82" s="48"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -10223,19 +10224,19 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
+      <c r="N82" s="13"/>
       <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="78"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="64"/>
-      <c r="V82" s="53" t="s">
+      <c r="P82" s="22"/>
+      <c r="Q82" s="78"/>
+      <c r="S82" s="58"/>
+      <c r="T82" s="64"/>
+      <c r="U82" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB82" s="3" t="s">
+      <c r="W82" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="AB82" s="48"/>
       <c r="AC82" s="30"/>
       <c r="AD82" s="30"/>
       <c r="AE82" s="30"/>
@@ -10303,7 +10304,7 @@
       <c r="D83" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="E83" s="48"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -10312,16 +10313,16 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
+      <c r="N83" s="13"/>
       <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="R83" s="58"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="53" t="s">
+      <c r="Q83" s="58"/>
+      <c r="S83" s="58"/>
+      <c r="T83" s="64"/>
+      <c r="U83" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="AB83" s="48"/>
       <c r="AC83" s="30"/>
       <c r="AD83" s="30"/>
       <c r="AE83" s="30"/>
@@ -10389,7 +10390,7 @@
       <c r="D84" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="E84" s="48"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -10398,18 +10399,18 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
+      <c r="N84" s="13"/>
       <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="R84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="S84" s="58"/>
       <c r="T84" s="58"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="53" t="s">
+      <c r="U84" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB84" s="3" t="s">
+      <c r="W84" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="AB84" s="48"/>
       <c r="AC84" s="30"/>
       <c r="AD84" s="30"/>
       <c r="AE84" s="30"/>
@@ -10477,7 +10478,7 @@
       <c r="D85" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="E85" s="48"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -10486,18 +10487,18 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="N85" s="13"/>
       <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="R85" s="58"/>
-      <c r="T85" s="58"/>
-      <c r="U85" s="65" t="s">
+      <c r="Q85" s="58"/>
+      <c r="S85" s="58"/>
+      <c r="T85" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="V85" s="53" t="s">
+      <c r="U85" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="AB85" s="48"/>
       <c r="AC85" s="30"/>
       <c r="AD85" s="30"/>
       <c r="AE85" s="30"/>
@@ -10565,7 +10566,7 @@
       <c r="D86" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="E86" s="48"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -10574,17 +10575,17 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="N86" s="13"/>
       <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="R86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="65" t="s">
+      <c r="Q86" s="58"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="V86" s="53" t="s">
+      <c r="U86" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB86" s="48"/>
       <c r="AC86" s="30"/>
       <c r="AD86" s="30"/>
       <c r="AE86" s="30"/>
@@ -10652,7 +10653,7 @@
       <c r="D87" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="42"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -10661,13 +10662,13 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
+      <c r="N87" s="13"/>
       <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="R87" s="58"/>
-      <c r="T87" s="58"/>
-      <c r="U87" s="64"/>
-      <c r="V87" s="54"/>
+      <c r="Q87" s="58"/>
+      <c r="S87" s="58"/>
+      <c r="T87" s="64"/>
+      <c r="U87" s="54"/>
+      <c r="AB87" s="42"/>
       <c r="AC87" s="30"/>
       <c r="AD87" s="30"/>
       <c r="AE87" s="30"/>
@@ -10735,7 +10736,7 @@
       <c r="D88" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="48"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -10744,22 +10745,22 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="24" t="s">
+      <c r="N88" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="P88" s="13"/>
-      <c r="R88" s="58"/>
-      <c r="S88" s="11" t="s">
+      <c r="O88" s="13"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="T88" s="58"/>
-      <c r="U88" s="66" t="s">
+      <c r="S88" s="58"/>
+      <c r="T88" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="V88" s="55" t="s">
+      <c r="U88" s="55" t="s">
         <v>60</v>
       </c>
+      <c r="AB88" s="48"/>
       <c r="AC88" s="30"/>
       <c r="AD88" s="30"/>
       <c r="AE88" s="30"/>
@@ -10827,7 +10828,7 @@
       <c r="D89" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="48"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -10835,22 +10836,22 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="24" t="s">
+      <c r="N89" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="12" t="s">
+      <c r="O89" s="13"/>
+      <c r="P89" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="R89" s="58"/>
-      <c r="T89" s="58"/>
-      <c r="U89" s="65" t="s">
+      <c r="Q89" s="58"/>
+      <c r="S89" s="58"/>
+      <c r="T89" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="V89" s="55" t="s">
+      <c r="U89" s="55" t="s">
         <v>285</v>
       </c>
+      <c r="AB89" s="48"/>
       <c r="AC89" s="30"/>
       <c r="AD89" s="30"/>
       <c r="AE89" s="30"/>
@@ -10918,7 +10919,7 @@
       <c r="D90" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -10927,18 +10928,18 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
+      <c r="N90" s="13"/>
       <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="R90" s="58"/>
-      <c r="T90" s="58"/>
-      <c r="U90" s="64"/>
-      <c r="V90" s="53" t="s">
+      <c r="Q90" s="58"/>
+      <c r="S90" s="58"/>
+      <c r="T90" s="64"/>
+      <c r="U90" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="AB90" s="3" t="s">
+      <c r="W90" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="AB90" s="42"/>
       <c r="AC90" s="30"/>
       <c r="AD90" s="30"/>
       <c r="AE90" s="30"/>
@@ -11006,7 +11007,7 @@
       <c r="D91" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="42"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -11015,15 +11016,15 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
+      <c r="N91" s="13"/>
       <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="R91" s="58"/>
-      <c r="T91" s="58"/>
-      <c r="U91" s="64"/>
-      <c r="V91" s="53" t="s">
+      <c r="Q91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="64"/>
+      <c r="U91" s="53" t="s">
         <v>293</v>
       </c>
+      <c r="AB91" s="42"/>
       <c r="AC91" s="30"/>
       <c r="AD91" s="30"/>
       <c r="AE91" s="30"/>
@@ -11091,7 +11092,7 @@
       <c r="D92" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -11100,15 +11101,15 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
+      <c r="N92" s="13"/>
       <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="R92" s="58"/>
-      <c r="T92" s="58"/>
-      <c r="U92" s="64"/>
-      <c r="V92" s="53" t="s">
+      <c r="Q92" s="58"/>
+      <c r="S92" s="58"/>
+      <c r="T92" s="64"/>
+      <c r="U92" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB92" s="42"/>
       <c r="AC92" s="30"/>
       <c r="AD92" s="30"/>
       <c r="AE92" s="30"/>
@@ -11176,7 +11177,7 @@
       <c r="D93" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -11185,15 +11186,15 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
+      <c r="N93" s="13"/>
       <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="R93" s="58"/>
-      <c r="T93" s="58"/>
-      <c r="U93" s="64"/>
-      <c r="V93" s="53" t="s">
+      <c r="Q93" s="58"/>
+      <c r="S93" s="58"/>
+      <c r="T93" s="64"/>
+      <c r="U93" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB93" s="42"/>
       <c r="AC93" s="30"/>
       <c r="AD93" s="30"/>
       <c r="AE93" s="30"/>
@@ -11261,7 +11262,7 @@
       <c r="D94" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -11270,15 +11271,15 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
+      <c r="N94" s="13"/>
       <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="R94" s="58"/>
-      <c r="T94" s="58"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="53" t="s">
+      <c r="Q94" s="58"/>
+      <c r="S94" s="58"/>
+      <c r="T94" s="64"/>
+      <c r="U94" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB94" s="42"/>
       <c r="AC94" s="30"/>
       <c r="AD94" s="30"/>
       <c r="AE94" s="30"/>
@@ -11346,7 +11347,7 @@
       <c r="D95" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -11355,15 +11356,15 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
+      <c r="N95" s="13"/>
       <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="R95" s="58"/>
-      <c r="T95" s="58"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="53" t="s">
+      <c r="Q95" s="58"/>
+      <c r="S95" s="58"/>
+      <c r="T95" s="64"/>
+      <c r="U95" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB95" s="42"/>
       <c r="AC95" s="30"/>
       <c r="AD95" s="30"/>
       <c r="AE95" s="30"/>
@@ -11431,7 +11432,7 @@
       <c r="D96" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E96" s="42"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -11440,15 +11441,15 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
+      <c r="N96" s="13"/>
       <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="R96" s="58"/>
-      <c r="T96" s="58"/>
-      <c r="U96" s="64"/>
-      <c r="V96" s="53" t="s">
+      <c r="Q96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="64"/>
+      <c r="U96" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB96" s="42"/>
       <c r="AC96" s="30"/>
       <c r="AD96" s="30"/>
       <c r="AE96" s="30"/>
@@ -11516,7 +11517,7 @@
       <c r="D97" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="43"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -11525,12 +11526,12 @@
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
+      <c r="N97" s="13"/>
       <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="R97" s="58"/>
-      <c r="T97" s="58"/>
-      <c r="U97" s="64"/>
+      <c r="Q97" s="58"/>
+      <c r="S97" s="58"/>
+      <c r="T97" s="64"/>
+      <c r="AB97" s="43"/>
       <c r="AC97" s="30"/>
       <c r="AD97" s="30"/>
       <c r="AE97" s="30"/>
@@ -11598,7 +11599,7 @@
       <c r="D98" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="43"/>
+      <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -11607,15 +11608,15 @@
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
+      <c r="N98" s="13"/>
       <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="R98" s="58"/>
-      <c r="T98" s="58"/>
-      <c r="U98" s="64"/>
-      <c r="V98" s="53" t="s">
+      <c r="Q98" s="58"/>
+      <c r="S98" s="58"/>
+      <c r="T98" s="64"/>
+      <c r="U98" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB98" s="43"/>
       <c r="AC98" s="30"/>
       <c r="AD98" s="30"/>
       <c r="AE98" s="30"/>
@@ -11683,7 +11684,7 @@
       <c r="D99" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E99" s="43"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -11692,15 +11693,15 @@
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
+      <c r="N99" s="13"/>
       <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="R99" s="58"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="64"/>
-      <c r="V99" s="53" t="s">
+      <c r="Q99" s="58"/>
+      <c r="S99" s="58"/>
+      <c r="T99" s="64"/>
+      <c r="U99" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB99" s="43"/>
       <c r="AC99" s="30"/>
       <c r="AD99" s="30"/>
       <c r="AE99" s="30"/>
@@ -11768,7 +11769,7 @@
       <c r="D100" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="43"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -11777,15 +11778,15 @@
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
+      <c r="N100" s="13"/>
       <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="R100" s="58"/>
-      <c r="T100" s="58"/>
-      <c r="U100" s="64"/>
-      <c r="V100" s="53" t="s">
+      <c r="Q100" s="58"/>
+      <c r="S100" s="58"/>
+      <c r="T100" s="64"/>
+      <c r="U100" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB100" s="43"/>
       <c r="AC100" s="30"/>
       <c r="AD100" s="30"/>
       <c r="AE100" s="30"/>
@@ -11853,7 +11854,7 @@
       <c r="D101" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E101" s="43"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -11862,15 +11863,15 @@
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
+      <c r="N101" s="13"/>
       <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="R101" s="58"/>
-      <c r="T101" s="58"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="53" t="s">
+      <c r="Q101" s="58"/>
+      <c r="S101" s="58"/>
+      <c r="T101" s="64"/>
+      <c r="U101" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB101" s="43"/>
       <c r="AC101" s="30"/>
       <c r="AD101" s="30"/>
       <c r="AE101" s="30"/>
@@ -11938,7 +11939,7 @@
       <c r="D102" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E102" s="43"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -11947,15 +11948,15 @@
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
+      <c r="N102" s="13"/>
       <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="R102" s="58"/>
-      <c r="T102" s="58"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="53" t="s">
+      <c r="Q102" s="58"/>
+      <c r="S102" s="58"/>
+      <c r="T102" s="64"/>
+      <c r="U102" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB102" s="43"/>
       <c r="AC102" s="30"/>
       <c r="AD102" s="30"/>
       <c r="AE102" s="30"/>
@@ -12023,7 +12024,7 @@
       <c r="D103" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="E103" s="43"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -12032,15 +12033,15 @@
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
+      <c r="N103" s="13"/>
       <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="R103" s="58"/>
-      <c r="T103" s="58"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="53" t="s">
+      <c r="Q103" s="58"/>
+      <c r="S103" s="58"/>
+      <c r="T103" s="64"/>
+      <c r="U103" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB103" s="43"/>
       <c r="AC103" s="30"/>
       <c r="AD103" s="30"/>
       <c r="AE103" s="30"/>
@@ -12108,7 +12109,7 @@
       <c r="D104" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E104" s="43"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -12117,15 +12118,15 @@
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
+      <c r="N104" s="13"/>
       <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="R104" s="58"/>
-      <c r="T104" s="58"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="53" t="s">
+      <c r="Q104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="64"/>
+      <c r="U104" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB104" s="43"/>
       <c r="AC104" s="30"/>
       <c r="AD104" s="30"/>
       <c r="AE104" s="30"/>
@@ -12193,7 +12194,7 @@
       <c r="D105" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E105" s="43"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -12202,15 +12203,15 @@
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
+      <c r="N105" s="13"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="R105" s="58"/>
-      <c r="T105" s="58"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="53" t="s">
+      <c r="Q105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="64"/>
+      <c r="U105" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB105" s="43"/>
       <c r="AC105" s="30"/>
       <c r="AD105" s="30"/>
       <c r="AE105" s="30"/>
@@ -12278,7 +12279,7 @@
       <c r="D106" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="E106" s="43"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -12287,15 +12288,15 @@
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
+      <c r="N106" s="13"/>
       <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="R106" s="58"/>
-      <c r="T106" s="58"/>
-      <c r="U106" s="64"/>
-      <c r="V106" s="53" t="s">
+      <c r="Q106" s="58"/>
+      <c r="S106" s="58"/>
+      <c r="T106" s="64"/>
+      <c r="U106" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB106" s="43"/>
       <c r="AC106" s="30"/>
       <c r="AD106" s="30"/>
       <c r="AE106" s="30"/>
@@ -12363,7 +12364,7 @@
       <c r="D107" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E107" s="43"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -12372,15 +12373,15 @@
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
+      <c r="N107" s="13"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="R107" s="58"/>
-      <c r="T107" s="58"/>
-      <c r="U107" s="64"/>
-      <c r="V107" s="53" t="s">
+      <c r="Q107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="64"/>
+      <c r="U107" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB107" s="43"/>
       <c r="AC107" s="30"/>
       <c r="AD107" s="30"/>
       <c r="AE107" s="30"/>
@@ -12448,7 +12449,7 @@
       <c r="D108" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E108" s="48"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -12457,17 +12458,17 @@
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
+      <c r="N108" s="13"/>
       <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="R108" s="58"/>
-      <c r="T108" s="58"/>
-      <c r="U108" s="65" t="s">
+      <c r="Q108" s="58"/>
+      <c r="S108" s="58"/>
+      <c r="T108" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="V108" s="53" t="s">
+      <c r="U108" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB108" s="48"/>
       <c r="AC108" s="30"/>
       <c r="AD108" s="30"/>
       <c r="AE108" s="30"/>
@@ -12535,7 +12536,7 @@
       <c r="D109" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -12544,18 +12545,18 @@
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
+      <c r="N109" s="13"/>
       <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="R109" s="58"/>
-      <c r="T109" s="58"/>
-      <c r="U109" s="64"/>
-      <c r="V109" s="53" t="s">
+      <c r="Q109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="64"/>
+      <c r="U109" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="AB109" s="3" t="s">
+      <c r="W109" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="AB109" s="48"/>
       <c r="AC109" s="30"/>
       <c r="AD109" s="30"/>
       <c r="AE109" s="30"/>
@@ -12623,7 +12624,7 @@
       <c r="D110" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="E110" s="42"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -12632,15 +12633,15 @@
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
+      <c r="N110" s="13"/>
       <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="R110" s="58"/>
-      <c r="T110" s="58"/>
-      <c r="U110" s="64"/>
-      <c r="V110" s="53" t="s">
+      <c r="Q110" s="58"/>
+      <c r="S110" s="58"/>
+      <c r="T110" s="64"/>
+      <c r="U110" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB110" s="42"/>
       <c r="AC110" s="30"/>
       <c r="AD110" s="30"/>
       <c r="AE110" s="30"/>
@@ -12708,7 +12709,7 @@
       <c r="D111" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="E111" s="42"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -12717,15 +12718,15 @@
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
+      <c r="N111" s="13"/>
       <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="R111" s="58"/>
-      <c r="T111" s="58"/>
-      <c r="U111" s="64"/>
-      <c r="V111" s="53" t="s">
+      <c r="Q111" s="58"/>
+      <c r="S111" s="58"/>
+      <c r="T111" s="64"/>
+      <c r="U111" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB111" s="42"/>
       <c r="AC111" s="30"/>
       <c r="AD111" s="30"/>
       <c r="AE111" s="30"/>
@@ -12793,7 +12794,7 @@
       <c r="D112" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="E112" s="42"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -12802,15 +12803,15 @@
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
+      <c r="N112" s="13"/>
       <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="R112" s="58"/>
-      <c r="T112" s="58"/>
-      <c r="U112" s="64"/>
-      <c r="V112" s="53" t="s">
+      <c r="Q112" s="58"/>
+      <c r="S112" s="58"/>
+      <c r="T112" s="64"/>
+      <c r="U112" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB112" s="42"/>
       <c r="AC112" s="30"/>
       <c r="AD112" s="30"/>
       <c r="AE112" s="30"/>
@@ -12878,7 +12879,7 @@
       <c r="D113" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="E113" s="42"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -12886,18 +12887,18 @@
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
+      <c r="N113" s="13"/>
       <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="R113" s="58"/>
-      <c r="T113" s="58"/>
-      <c r="U113" s="64"/>
-      <c r="V113" s="53" t="s">
+      <c r="Q113" s="58"/>
+      <c r="S113" s="58"/>
+      <c r="T113" s="64"/>
+      <c r="U113" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="AB113" s="11" t="s">
+      <c r="W113" s="11" t="s">
         <v>338</v>
       </c>
+      <c r="AB113" s="42"/>
       <c r="AC113" s="30"/>
       <c r="AD113" s="30"/>
       <c r="AE113" s="30"/>
@@ -12965,9 +12966,7 @@
       <c r="D114" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="E114" s="46" t="s">
-        <v>494</v>
-      </c>
+      <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -12976,17 +12975,19 @@
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
+      <c r="N114" s="13"/>
       <c r="O114" s="13"/>
-      <c r="P114" s="13"/>
-      <c r="R114" s="58"/>
-      <c r="T114" s="58"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="53" t="s">
+      <c r="Q114" s="58"/>
+      <c r="S114" s="58"/>
+      <c r="T114" s="64"/>
+      <c r="U114" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB114" s="105" t="s">
+      <c r="W114" s="105" t="s">
         <v>341</v>
+      </c>
+      <c r="AB114" s="46" t="s">
+        <v>494</v>
       </c>
       <c r="AC114" s="30"/>
       <c r="AD114" s="30"/>
@@ -13055,7 +13056,7 @@
       <c r="D115" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E115" s="48"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -13064,18 +13065,18 @@
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
+      <c r="N115" s="13"/>
       <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="R115" s="58"/>
-      <c r="T115" s="58"/>
-      <c r="U115" s="64"/>
-      <c r="V115" s="53" t="s">
+      <c r="Q115" s="58"/>
+      <c r="S115" s="58"/>
+      <c r="T115" s="64"/>
+      <c r="U115" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB115" s="105" t="s">
+      <c r="W115" s="105" t="s">
         <v>345</v>
       </c>
+      <c r="AB115" s="48"/>
       <c r="AC115" s="30"/>
       <c r="AD115" s="30"/>
       <c r="AE115" s="30"/>
@@ -13143,7 +13144,7 @@
       <c r="D116" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E116" s="48"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -13152,18 +13153,18 @@
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
+      <c r="N116" s="13"/>
       <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="R116" s="58"/>
-      <c r="T116" s="58"/>
-      <c r="U116" s="64"/>
-      <c r="V116" s="53" t="s">
+      <c r="Q116" s="58"/>
+      <c r="S116" s="58"/>
+      <c r="T116" s="64"/>
+      <c r="U116" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB116" s="11" t="s">
+      <c r="W116" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB116" s="48"/>
       <c r="AC116" s="30"/>
       <c r="AD116" s="30"/>
       <c r="AE116" s="30"/>
@@ -13231,7 +13232,7 @@
       <c r="D117" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="E117" s="48"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -13240,18 +13241,18 @@
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
+      <c r="N117" s="13"/>
       <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="R117" s="58"/>
-      <c r="T117" s="58"/>
-      <c r="U117" s="64"/>
-      <c r="V117" s="53" t="s">
+      <c r="Q117" s="58"/>
+      <c r="S117" s="58"/>
+      <c r="T117" s="64"/>
+      <c r="U117" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB117" s="11" t="s">
+      <c r="W117" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB117" s="48"/>
       <c r="AC117" s="30"/>
       <c r="AD117" s="30"/>
       <c r="AE117" s="30"/>
@@ -13319,7 +13320,7 @@
       <c r="D118" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="E118" s="48"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -13328,18 +13329,18 @@
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
+      <c r="N118" s="13"/>
       <c r="O118" s="13"/>
-      <c r="P118" s="13"/>
-      <c r="R118" s="58"/>
-      <c r="T118" s="58"/>
-      <c r="U118" s="64"/>
-      <c r="V118" s="53" t="s">
+      <c r="Q118" s="58"/>
+      <c r="S118" s="58"/>
+      <c r="T118" s="64"/>
+      <c r="U118" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB118" s="11" t="s">
+      <c r="W118" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB118" s="48"/>
       <c r="AC118" s="30"/>
       <c r="AD118" s="30"/>
       <c r="AE118" s="30"/>
@@ -13407,7 +13408,7 @@
       <c r="D119" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="E119" s="48"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -13416,18 +13417,18 @@
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
+      <c r="N119" s="13"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="13"/>
-      <c r="R119" s="58"/>
-      <c r="T119" s="58"/>
-      <c r="U119" s="64"/>
-      <c r="V119" s="53" t="s">
+      <c r="Q119" s="58"/>
+      <c r="S119" s="58"/>
+      <c r="T119" s="64"/>
+      <c r="U119" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB119" s="11" t="s">
+      <c r="W119" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB119" s="48"/>
       <c r="AC119" s="30"/>
       <c r="AD119" s="30"/>
       <c r="AE119" s="30"/>
@@ -13495,7 +13496,7 @@
       <c r="D120" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="E120" s="48"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -13504,18 +13505,18 @@
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
+      <c r="N120" s="13"/>
       <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="R120" s="58"/>
-      <c r="T120" s="58"/>
-      <c r="U120" s="64"/>
-      <c r="V120" s="53" t="s">
+      <c r="Q120" s="58"/>
+      <c r="S120" s="58"/>
+      <c r="T120" s="64"/>
+      <c r="U120" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB120" s="11" t="s">
+      <c r="W120" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB120" s="48"/>
       <c r="AC120" s="30"/>
       <c r="AD120" s="30"/>
       <c r="AE120" s="30"/>
@@ -13583,7 +13584,7 @@
       <c r="D121" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="E121" s="48"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -13592,18 +13593,18 @@
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
+      <c r="N121" s="13"/>
       <c r="O121" s="13"/>
-      <c r="P121" s="13"/>
-      <c r="R121" s="58"/>
-      <c r="T121" s="58"/>
-      <c r="U121" s="64"/>
-      <c r="V121" s="53" t="s">
+      <c r="Q121" s="58"/>
+      <c r="S121" s="58"/>
+      <c r="T121" s="64"/>
+      <c r="U121" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB121" s="11" t="s">
+      <c r="W121" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB121" s="48"/>
       <c r="AC121" s="30"/>
       <c r="AD121" s="30"/>
       <c r="AE121" s="30"/>
@@ -13671,7 +13672,7 @@
       <c r="D122" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E122" s="48"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -13680,18 +13681,18 @@
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
+      <c r="N122" s="13"/>
       <c r="O122" s="13"/>
-      <c r="P122" s="13"/>
-      <c r="R122" s="58"/>
-      <c r="T122" s="58"/>
-      <c r="U122" s="64"/>
-      <c r="V122" s="53" t="s">
+      <c r="Q122" s="58"/>
+      <c r="S122" s="58"/>
+      <c r="T122" s="64"/>
+      <c r="U122" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB122" s="11" t="s">
+      <c r="W122" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB122" s="48"/>
       <c r="AC122" s="30"/>
       <c r="AD122" s="30"/>
       <c r="AE122" s="30"/>
@@ -13759,7 +13760,7 @@
       <c r="D123" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="E123" s="48"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
@@ -13768,18 +13769,18 @@
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
+      <c r="N123" s="13"/>
       <c r="O123" s="13"/>
-      <c r="P123" s="13"/>
-      <c r="R123" s="58"/>
-      <c r="T123" s="58"/>
-      <c r="U123" s="64"/>
-      <c r="V123" s="53" t="s">
+      <c r="Q123" s="58"/>
+      <c r="S123" s="58"/>
+      <c r="T123" s="64"/>
+      <c r="U123" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB123" s="11" t="s">
+      <c r="W123" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AB123" s="48"/>
       <c r="AC123" s="30"/>
       <c r="AD123" s="30"/>
       <c r="AE123" s="30"/>
@@ -13847,7 +13848,7 @@
       <c r="D124" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="E124" s="48"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -13856,13 +13857,13 @@
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="24"/>
-      <c r="R124" s="58"/>
-      <c r="T124" s="58"/>
-      <c r="U124" s="64"/>
-      <c r="V124" s="53"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="24"/>
+      <c r="Q124" s="58"/>
+      <c r="S124" s="58"/>
+      <c r="T124" s="64"/>
+      <c r="U124" s="53"/>
+      <c r="AB124" s="48"/>
       <c r="AC124" s="30"/>
       <c r="AD124" s="30"/>
       <c r="AE124" s="30"/>
@@ -13930,9 +13931,7 @@
       <c r="D125" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="E125" s="46" t="s">
-        <v>500</v>
-      </c>
+      <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -13941,21 +13940,23 @@
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="13"/>
-      <c r="P125" s="24"/>
-      <c r="Q125" s="11" t="s">
+      <c r="N125" s="13"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="R125" s="58"/>
-      <c r="S125" s="11" t="s">
+      <c r="Q125" s="58"/>
+      <c r="R125" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="T125" s="58"/>
-      <c r="U125" s="64"/>
-      <c r="V125" s="53"/>
-      <c r="AB125" s="11" t="s">
+      <c r="S125" s="58"/>
+      <c r="T125" s="64"/>
+      <c r="U125" s="53"/>
+      <c r="W125" s="11" t="s">
         <v>411</v>
+      </c>
+      <c r="AB125" s="46" t="s">
+        <v>500</v>
       </c>
       <c r="AC125" s="30"/>
       <c r="AD125" s="30"/>
@@ -14024,7 +14025,7 @@
       <c r="D126" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="E126" s="42"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -14033,17 +14034,17 @@
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
+      <c r="N126" s="13"/>
       <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="R126" s="58"/>
-      <c r="T126" s="58"/>
-      <c r="U126" s="66" t="s">
+      <c r="Q126" s="58"/>
+      <c r="S126" s="58"/>
+      <c r="T126" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="V126" s="53" t="s">
+      <c r="U126" s="53" t="s">
         <v>60</v>
       </c>
+      <c r="AB126" s="42"/>
       <c r="AC126" s="30"/>
       <c r="AD126" s="30"/>
       <c r="AE126" s="30"/>
@@ -14111,9 +14112,7 @@
       <c r="D127" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E127" s="46" t="s">
-        <v>502</v>
-      </c>
+      <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -14122,20 +14121,22 @@
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
+      <c r="N127" s="13"/>
       <c r="O127" s="13"/>
-      <c r="P127" s="13"/>
-      <c r="R127" s="58"/>
-      <c r="S127" s="11" t="s">
+      <c r="Q127" s="58"/>
+      <c r="R127" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="T127" s="58"/>
-      <c r="U127" s="64"/>
-      <c r="V127" s="53" t="s">
+      <c r="S127" s="58"/>
+      <c r="T127" s="64"/>
+      <c r="U127" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="AB127" s="3" t="s">
+      <c r="W127" s="3" t="s">
         <v>375</v>
+      </c>
+      <c r="AB127" s="46" t="s">
+        <v>502</v>
       </c>
       <c r="AC127" s="30"/>
       <c r="AD127" s="30"/>
@@ -14204,7 +14205,7 @@
       <c r="D128" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="E128" s="42"/>
+      <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -14213,21 +14214,21 @@
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
+      <c r="N128" s="13"/>
       <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="11" t="s">
+      <c r="P128" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="R128" s="58"/>
-      <c r="S128" s="11" t="s">
+      <c r="Q128" s="58"/>
+      <c r="R128" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="T128" s="58"/>
-      <c r="U128" s="64"/>
-      <c r="V128" s="53" t="s">
+      <c r="S128" s="58"/>
+      <c r="T128" s="64"/>
+      <c r="U128" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="AB128" s="42"/>
       <c r="AC128" s="30"/>
       <c r="AD128" s="30"/>
       <c r="AE128" s="30"/>
@@ -14295,7 +14296,7 @@
       <c r="D129" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E129" s="42"/>
+      <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -14304,18 +14305,18 @@
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
+      <c r="N129" s="13"/>
       <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="R129" s="58"/>
-      <c r="S129" s="11" t="s">
+      <c r="Q129" s="58"/>
+      <c r="R129" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="T129" s="58"/>
-      <c r="U129" s="64" t="s">
+      <c r="S129" s="58"/>
+      <c r="T129" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="V129" s="53"/>
+      <c r="U129" s="53"/>
+      <c r="AB129" s="42"/>
       <c r="AC129" s="30"/>
       <c r="AD129" s="30"/>
       <c r="AE129" s="30"/>
@@ -14383,9 +14384,7 @@
       <c r="D130" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="E130" s="75" t="s">
-        <v>493</v>
-      </c>
+      <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -14394,17 +14393,19 @@
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="13"/>
-      <c r="P130" s="13" t="s">
+      <c r="N130" s="13"/>
+      <c r="O130" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R130" s="58"/>
-      <c r="S130" s="11" t="s">
+      <c r="Q130" s="58"/>
+      <c r="R130" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="T130" s="58"/>
-      <c r="U130" s="64"/>
+      <c r="S130" s="58"/>
+      <c r="T130" s="64"/>
+      <c r="AB130" s="75" t="s">
+        <v>493</v>
+      </c>
       <c r="AC130" s="30"/>
       <c r="AD130" s="30"/>
       <c r="AE130" s="30"/>
@@ -14472,8 +14473,8 @@
       <c r="D131" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E131" s="42"/>
-      <c r="F131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -14481,25 +14482,25 @@
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
+      <c r="N131" s="13"/>
       <c r="O131" s="13"/>
-      <c r="P131" s="13"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="1" t="s">
+      <c r="P131" s="11"/>
+      <c r="Q131" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="S131" s="11"/>
-      <c r="T131" s="58"/>
-      <c r="U131" s="64" t="s">
+      <c r="R131" s="11"/>
+      <c r="S131" s="58"/>
+      <c r="T131" s="64" t="s">
         <v>389</v>
       </c>
+      <c r="U131" s="11"/>
       <c r="V131" s="11"/>
       <c r="W131" s="11"/>
       <c r="X131" s="11"/>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
-      <c r="AB131" s="11"/>
+      <c r="AB131" s="42"/>
     </row>
     <row r="132" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="95" t="s">
@@ -14514,8 +14515,8 @@
       <c r="D132" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="E132" s="42"/>
-      <c r="F132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -14523,21 +14524,21 @@
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
-      <c r="N132" s="12"/>
+      <c r="N132" s="13"/>
       <c r="O132" s="13"/>
-      <c r="P132" s="13"/>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="58"/>
-      <c r="U132" s="64"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="58"/>
+      <c r="T132" s="64"/>
+      <c r="U132" s="11"/>
       <c r="V132" s="11"/>
       <c r="W132" s="11"/>
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
-      <c r="AB132" s="11"/>
+      <c r="AB132" s="42"/>
     </row>
     <row r="133" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="95" t="s">
@@ -14552,8 +14553,8 @@
       <c r="D133" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="E133" s="42"/>
-      <c r="F133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -14561,25 +14562,25 @@
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
+      <c r="N133" s="13"/>
       <c r="O133" s="13"/>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="1" t="s">
+      <c r="P133" s="11"/>
+      <c r="Q133" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="S133" s="11"/>
-      <c r="T133" s="58"/>
-      <c r="U133" s="64" t="s">
+      <c r="R133" s="11"/>
+      <c r="S133" s="58"/>
+      <c r="T133" s="64" t="s">
         <v>391</v>
       </c>
+      <c r="U133" s="11"/>
       <c r="V133" s="11"/>
       <c r="W133" s="11"/>
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
-      <c r="AB133" s="11"/>
+      <c r="AB133" s="42"/>
     </row>
     <row r="134" spans="1:81" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="90" t="s">
@@ -14594,10 +14595,8 @@
       <c r="D134" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="E134" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="F134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -14605,23 +14604,25 @@
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
-      <c r="N134" s="12"/>
+      <c r="N134" s="13"/>
       <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="58"/>
-      <c r="S134" s="11"/>
-      <c r="T134" s="58"/>
-      <c r="U134" s="64" t="s">
+      <c r="P134" s="11"/>
+      <c r="Q134" s="58"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="58"/>
+      <c r="T134" s="64" t="s">
         <v>392</v>
       </c>
+      <c r="U134" s="11"/>
       <c r="V134" s="11"/>
       <c r="W134" s="11"/>
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
-      <c r="AB134" s="11"/>
+      <c r="AB134" s="42" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="135" spans="1:81" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="96" t="s">
@@ -14636,10 +14637,8 @@
       <c r="D135" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="E135" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="F135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -14647,23 +14646,25 @@
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
-      <c r="N135" s="12"/>
+      <c r="N135" s="13"/>
       <c r="O135" s="13"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="11"/>
-      <c r="R135" s="58"/>
-      <c r="S135" s="11"/>
-      <c r="T135" s="58"/>
-      <c r="U135" s="64" t="s">
+      <c r="P135" s="11"/>
+      <c r="Q135" s="58"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="58"/>
+      <c r="T135" s="64" t="s">
         <v>394</v>
       </c>
+      <c r="U135" s="11"/>
       <c r="V135" s="11"/>
       <c r="W135" s="11"/>
       <c r="X135" s="11"/>
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
-      <c r="AB135" s="11"/>
+      <c r="AB135" s="42" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="136" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="91" t="s">
@@ -14678,8 +14679,8 @@
       <c r="D136" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="E136" s="42"/>
-      <c r="F136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -14687,21 +14688,21 @@
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
+      <c r="N136" s="13"/>
       <c r="O136" s="13"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="58"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="58"/>
-      <c r="U136" s="64"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="58"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="58"/>
+      <c r="T136" s="64"/>
+      <c r="U136" s="11"/>
       <c r="V136" s="11"/>
       <c r="W136" s="11"/>
       <c r="X136" s="11"/>
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
-      <c r="AB136" s="11"/>
+      <c r="AB136" s="42"/>
     </row>
     <row r="137" spans="1:81" s="30" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A137" s="91" t="s">
@@ -14716,10 +14717,8 @@
       <c r="D137" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="E137" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="F137" s="56"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -14727,21 +14726,23 @@
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
+      <c r="N137" s="13"/>
       <c r="O137" s="13"/>
-      <c r="P137" s="13"/>
-      <c r="Q137" s="11"/>
-      <c r="R137" s="58"/>
-      <c r="S137" s="11"/>
-      <c r="T137" s="58"/>
-      <c r="U137" s="64"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="58"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="58"/>
+      <c r="T137" s="64"/>
+      <c r="U137" s="11"/>
       <c r="V137" s="11"/>
       <c r="W137" s="11"/>
       <c r="X137" s="11"/>
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
-      <c r="AB137" s="11"/>
+      <c r="AB137" s="42" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="138" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="90" t="s">
@@ -14756,8 +14757,8 @@
       <c r="D138" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="E138" s="42"/>
-      <c r="F138" s="56"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -14765,21 +14766,21 @@
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
+      <c r="N138" s="13"/>
       <c r="O138" s="13"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="11"/>
-      <c r="R138" s="58"/>
-      <c r="S138" s="11"/>
-      <c r="T138" s="58"/>
-      <c r="U138" s="64"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="58"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="58"/>
+      <c r="T138" s="64"/>
+      <c r="U138" s="11"/>
       <c r="V138" s="11"/>
       <c r="W138" s="11"/>
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
-      <c r="AB138" s="11"/>
+      <c r="AB138" s="42"/>
     </row>
     <row r="139" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="91" t="s">
@@ -14794,10 +14795,8 @@
       <c r="D139" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="E139" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="F139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -14805,21 +14804,23 @@
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
+      <c r="N139" s="13"/>
       <c r="O139" s="13"/>
-      <c r="P139" s="13"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="58"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="58"/>
-      <c r="U139" s="64"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="58"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="58"/>
+      <c r="T139" s="64"/>
+      <c r="U139" s="11"/>
       <c r="V139" s="11"/>
       <c r="W139" s="11"/>
       <c r="X139" s="11"/>
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
-      <c r="AB139" s="11"/>
+      <c r="AB139" s="42" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="140" spans="1:81" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="97" t="s">
@@ -14834,8 +14835,8 @@
       <c r="D140" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="E140" s="59"/>
-      <c r="F140" s="56"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -14843,23 +14844,23 @@
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
+      <c r="N140" s="13"/>
       <c r="O140" s="13"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="76"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="76"/>
-      <c r="U140" s="67" t="s">
+      <c r="P140" s="11"/>
+      <c r="Q140" s="76"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="76"/>
+      <c r="T140" s="67" t="s">
         <v>397</v>
       </c>
+      <c r="U140" s="11"/>
       <c r="V140" s="11"/>
       <c r="W140" s="11"/>
       <c r="X140" s="11"/>
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
-      <c r="AB140" s="11"/>
+      <c r="AB140" s="59"/>
     </row>
     <row r="141" spans="1:81" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="98" t="s">
@@ -14874,10 +14875,8 @@
       <c r="D141" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="E141" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="F141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -14885,21 +14884,23 @@
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
+      <c r="N141" s="13"/>
       <c r="O141" s="13"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="11"/>
-      <c r="S141" s="58"/>
-      <c r="U141" s="68" t="s">
+      <c r="P141" s="11"/>
+      <c r="R141" s="58"/>
+      <c r="T141" s="68" t="s">
         <v>398</v>
       </c>
+      <c r="U141" s="11"/>
       <c r="V141" s="11"/>
       <c r="W141" s="11"/>
       <c r="X141" s="11"/>
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
-      <c r="AB141" s="11"/>
+      <c r="AB141" s="42" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="142" spans="1:81" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A142" s="98" t="s">
@@ -14914,8 +14915,8 @@
       <c r="D142" s="85" t="s">
         <v>451</v>
       </c>
-      <c r="E142" s="42"/>
-      <c r="F142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -14923,21 +14924,21 @@
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
+      <c r="N142" s="13"/>
       <c r="O142" s="13"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="11"/>
-      <c r="S142" s="58"/>
-      <c r="U142" s="68" t="s">
+      <c r="P142" s="11"/>
+      <c r="R142" s="58"/>
+      <c r="T142" s="68" t="s">
         <v>400</v>
       </c>
+      <c r="U142" s="11"/>
       <c r="V142" s="11"/>
       <c r="W142" s="11"/>
       <c r="X142" s="11"/>
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
-      <c r="AB142" s="11"/>
+      <c r="AB142" s="42"/>
     </row>
     <row r="143" spans="1:81" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="99" t="s">
@@ -14952,10 +14953,8 @@
       <c r="D143" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="E143" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="F143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -14963,23 +14962,25 @@
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
+      <c r="N143" s="13"/>
       <c r="O143" s="13"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="77"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="77"/>
-      <c r="U143" s="69" t="s">
+      <c r="P143" s="11"/>
+      <c r="Q143" s="77"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="77"/>
+      <c r="T143" s="69" t="s">
         <v>402</v>
       </c>
+      <c r="U143" s="11"/>
       <c r="V143" s="11"/>
       <c r="W143" s="11"/>
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
-      <c r="AB143" s="11"/>
+      <c r="AB143" s="42" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="144" spans="1:81" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="91" t="s">
@@ -14994,10 +14995,8 @@
       <c r="D144" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="E144" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="F144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -15005,21 +15004,23 @@
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
+      <c r="N144" s="13"/>
       <c r="O144" s="13"/>
-      <c r="P144" s="13"/>
-      <c r="Q144" s="11"/>
-      <c r="R144" s="58"/>
-      <c r="S144" s="11"/>
-      <c r="T144" s="58"/>
-      <c r="U144" s="64"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="58"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="58"/>
+      <c r="T144" s="64"/>
+      <c r="U144" s="11"/>
       <c r="V144" s="11"/>
       <c r="W144" s="11"/>
       <c r="X144" s="11"/>
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
-      <c r="AB144" s="11"/>
+      <c r="AB144" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="145" spans="1:28" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="91" t="s">
@@ -15034,9 +15035,7 @@
       <c r="D145" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="E145" s="41" t="s">
-        <v>406</v>
-      </c>
+      <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -15045,26 +15044,28 @@
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
+      <c r="N145" s="13"/>
       <c r="O145" s="13"/>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="58"/>
-      <c r="S145" s="11"/>
-      <c r="T145" s="58"/>
-      <c r="U145" s="64"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="58"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="58"/>
+      <c r="T145" s="64"/>
+      <c r="U145" s="11"/>
       <c r="V145" s="11"/>
       <c r="W145" s="11"/>
       <c r="X145" s="11"/>
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
-      <c r="AB145" s="11"/>
+      <c r="AB145" s="41" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="146" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="C146" s="26"/>
-      <c r="E146" s="44"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="27"/>
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
@@ -15073,16 +15074,16 @@
       <c r="K146" s="27"/>
       <c r="L146" s="27"/>
       <c r="M146" s="27"/>
-      <c r="N146" s="27"/>
-      <c r="O146" s="28"/>
-      <c r="P146" s="29"/>
-      <c r="U146" s="27"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="29"/>
+      <c r="T146" s="27"/>
+      <c r="AB146" s="44"/>
     </row>
     <row r="147" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="B147" s="19"/>
       <c r="C147" s="26"/>
-      <c r="E147" s="44"/>
+      <c r="E147" s="27"/>
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
@@ -15091,16 +15092,16 @@
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="28"/>
-      <c r="P147" s="29"/>
-      <c r="U147" s="27"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="29"/>
+      <c r="T147" s="27"/>
+      <c r="AB147" s="44"/>
     </row>
     <row r="148" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="B148" s="19"/>
       <c r="C148" s="26"/>
-      <c r="E148" s="44"/>
+      <c r="E148" s="27"/>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
@@ -15109,16 +15110,16 @@
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="27"/>
-      <c r="N148" s="27"/>
-      <c r="O148" s="28"/>
-      <c r="P148" s="29"/>
-      <c r="U148" s="27"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="29"/>
+      <c r="T148" s="27"/>
+      <c r="AB148" s="44"/>
     </row>
     <row r="149" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="B149" s="19"/>
       <c r="C149" s="26"/>
-      <c r="E149" s="44"/>
+      <c r="E149" s="27"/>
       <c r="F149" s="27"/>
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
@@ -15127,16 +15128,16 @@
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="27"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="28"/>
-      <c r="P149" s="29"/>
-      <c r="U149" s="27"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="29"/>
+      <c r="T149" s="27"/>
+      <c r="AB149" s="44"/>
     </row>
     <row r="150" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="B150" s="19"/>
       <c r="C150" s="26"/>
-      <c r="E150" s="44"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
@@ -15145,16 +15146,16 @@
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="27"/>
-      <c r="N150" s="27"/>
-      <c r="O150" s="28"/>
-      <c r="P150" s="29"/>
-      <c r="U150" s="27"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="29"/>
+      <c r="T150" s="27"/>
+      <c r="AB150" s="44"/>
     </row>
     <row r="151" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="B151" s="19"/>
       <c r="C151" s="26"/>
-      <c r="E151" s="44"/>
+      <c r="E151" s="27"/>
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
@@ -15163,16 +15164,16 @@
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="27"/>
-      <c r="N151" s="27"/>
-      <c r="O151" s="28"/>
-      <c r="P151" s="29"/>
-      <c r="U151" s="27"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="29"/>
+      <c r="T151" s="27"/>
+      <c r="AB151" s="44"/>
     </row>
     <row r="152" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="B152" s="19"/>
       <c r="C152" s="26"/>
-      <c r="E152" s="44"/>
+      <c r="E152" s="27"/>
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
@@ -15181,16 +15182,16 @@
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
-      <c r="O152" s="28"/>
-      <c r="P152" s="29"/>
-      <c r="U152" s="27"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="29"/>
+      <c r="T152" s="27"/>
+      <c r="AB152" s="44"/>
     </row>
     <row r="153" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="B153" s="19"/>
       <c r="C153" s="26"/>
-      <c r="E153" s="44"/>
+      <c r="E153" s="27"/>
       <c r="F153" s="27"/>
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
@@ -15199,16 +15200,16 @@
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="27"/>
-      <c r="N153" s="27"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="29"/>
-      <c r="U153" s="27"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="29"/>
+      <c r="T153" s="27"/>
+      <c r="AB153" s="44"/>
     </row>
     <row r="154" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="B154" s="19"/>
       <c r="C154" s="26"/>
-      <c r="E154" s="44"/>
+      <c r="E154" s="27"/>
       <c r="F154" s="27"/>
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
@@ -15217,16 +15218,16 @@
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="27"/>
-      <c r="N154" s="27"/>
-      <c r="O154" s="28"/>
-      <c r="P154" s="29"/>
-      <c r="U154" s="27"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="29"/>
+      <c r="T154" s="27"/>
+      <c r="AB154" s="44"/>
     </row>
     <row r="155" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="B155" s="19"/>
       <c r="C155" s="26"/>
-      <c r="E155" s="44"/>
+      <c r="E155" s="27"/>
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
@@ -15235,16 +15236,16 @@
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="27"/>
-      <c r="N155" s="27"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="29"/>
-      <c r="U155" s="27"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="29"/>
+      <c r="T155" s="27"/>
+      <c r="AB155" s="44"/>
     </row>
     <row r="156" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="B156" s="19"/>
       <c r="C156" s="26"/>
-      <c r="E156" s="44"/>
+      <c r="E156" s="27"/>
       <c r="F156" s="27"/>
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
@@ -15253,16 +15254,16 @@
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="27"/>
-      <c r="N156" s="27"/>
-      <c r="O156" s="28"/>
-      <c r="P156" s="29"/>
-      <c r="U156" s="27"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="29"/>
+      <c r="T156" s="27"/>
+      <c r="AB156" s="44"/>
     </row>
     <row r="157" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="B157" s="19"/>
       <c r="C157" s="26"/>
-      <c r="E157" s="44"/>
+      <c r="E157" s="27"/>
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
@@ -15271,16 +15272,16 @@
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="27"/>
-      <c r="N157" s="27"/>
-      <c r="O157" s="28"/>
-      <c r="P157" s="29"/>
-      <c r="U157" s="27"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="29"/>
+      <c r="T157" s="27"/>
+      <c r="AB157" s="44"/>
     </row>
     <row r="158" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="B158" s="19"/>
       <c r="C158" s="26"/>
-      <c r="E158" s="44"/>
+      <c r="E158" s="27"/>
       <c r="F158" s="27"/>
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
@@ -15289,16 +15290,16 @@
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="28"/>
-      <c r="P158" s="29"/>
-      <c r="U158" s="27"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="29"/>
+      <c r="T158" s="27"/>
+      <c r="AB158" s="44"/>
     </row>
     <row r="159" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="B159" s="19"/>
       <c r="C159" s="26"/>
-      <c r="E159" s="44"/>
+      <c r="E159" s="27"/>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
@@ -15307,16 +15308,16 @@
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="28"/>
-      <c r="P159" s="29"/>
-      <c r="U159" s="27"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="29"/>
+      <c r="T159" s="27"/>
+      <c r="AB159" s="44"/>
     </row>
     <row r="160" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="B160" s="19"/>
       <c r="C160" s="26"/>
-      <c r="E160" s="44"/>
+      <c r="E160" s="27"/>
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
@@ -15325,16 +15326,16 @@
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="28"/>
-      <c r="P160" s="29"/>
-      <c r="U160" s="27"/>
-    </row>
-    <row r="161" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N160" s="28"/>
+      <c r="O160" s="29"/>
+      <c r="T160" s="27"/>
+      <c r="AB160" s="44"/>
+    </row>
+    <row r="161" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="B161" s="19"/>
       <c r="C161" s="26"/>
-      <c r="E161" s="44"/>
+      <c r="E161" s="27"/>
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
@@ -15343,16 +15344,16 @@
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="29"/>
-      <c r="U161" s="27"/>
-    </row>
-    <row r="162" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N161" s="28"/>
+      <c r="O161" s="29"/>
+      <c r="T161" s="27"/>
+      <c r="AB161" s="44"/>
+    </row>
+    <row r="162" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="B162" s="19"/>
       <c r="C162" s="26"/>
-      <c r="E162" s="44"/>
+      <c r="E162" s="27"/>
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
@@ -15361,16 +15362,16 @@
       <c r="K162" s="27"/>
       <c r="L162" s="27"/>
       <c r="M162" s="27"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="29"/>
-      <c r="U162" s="27"/>
-    </row>
-    <row r="163" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N162" s="28"/>
+      <c r="O162" s="29"/>
+      <c r="T162" s="27"/>
+      <c r="AB162" s="44"/>
+    </row>
+    <row r="163" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="B163" s="19"/>
       <c r="C163" s="26"/>
-      <c r="E163" s="44"/>
+      <c r="E163" s="27"/>
       <c r="F163" s="27"/>
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
@@ -15379,16 +15380,16 @@
       <c r="K163" s="27"/>
       <c r="L163" s="27"/>
       <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="28"/>
-      <c r="P163" s="29"/>
-      <c r="U163" s="27"/>
-    </row>
-    <row r="164" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N163" s="28"/>
+      <c r="O163" s="29"/>
+      <c r="T163" s="27"/>
+      <c r="AB163" s="44"/>
+    </row>
+    <row r="164" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="B164" s="19"/>
       <c r="C164" s="26"/>
-      <c r="E164" s="44"/>
+      <c r="E164" s="27"/>
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
@@ -15397,16 +15398,16 @@
       <c r="K164" s="27"/>
       <c r="L164" s="27"/>
       <c r="M164" s="27"/>
-      <c r="N164" s="27"/>
-      <c r="O164" s="28"/>
-      <c r="P164" s="29"/>
-      <c r="U164" s="27"/>
-    </row>
-    <row r="165" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N164" s="28"/>
+      <c r="O164" s="29"/>
+      <c r="T164" s="27"/>
+      <c r="AB164" s="44"/>
+    </row>
+    <row r="165" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="B165" s="19"/>
       <c r="C165" s="26"/>
-      <c r="E165" s="44"/>
+      <c r="E165" s="27"/>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
@@ -15415,16 +15416,16 @@
       <c r="K165" s="27"/>
       <c r="L165" s="27"/>
       <c r="M165" s="27"/>
-      <c r="N165" s="27"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="29"/>
-      <c r="U165" s="27"/>
-    </row>
-    <row r="166" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N165" s="28"/>
+      <c r="O165" s="29"/>
+      <c r="T165" s="27"/>
+      <c r="AB165" s="44"/>
+    </row>
+    <row r="166" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="B166" s="19"/>
       <c r="C166" s="26"/>
-      <c r="E166" s="44"/>
+      <c r="E166" s="27"/>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
@@ -15433,16 +15434,16 @@
       <c r="K166" s="27"/>
       <c r="L166" s="27"/>
       <c r="M166" s="27"/>
-      <c r="N166" s="27"/>
-      <c r="O166" s="28"/>
-      <c r="P166" s="29"/>
-      <c r="U166" s="27"/>
-    </row>
-    <row r="167" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N166" s="28"/>
+      <c r="O166" s="29"/>
+      <c r="T166" s="27"/>
+      <c r="AB166" s="44"/>
+    </row>
+    <row r="167" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="B167" s="19"/>
       <c r="C167" s="26"/>
-      <c r="E167" s="44"/>
+      <c r="E167" s="27"/>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
@@ -15451,16 +15452,16 @@
       <c r="K167" s="27"/>
       <c r="L167" s="27"/>
       <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="29"/>
-      <c r="U167" s="27"/>
-    </row>
-    <row r="168" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N167" s="28"/>
+      <c r="O167" s="29"/>
+      <c r="T167" s="27"/>
+      <c r="AB167" s="44"/>
+    </row>
+    <row r="168" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="B168" s="19"/>
       <c r="C168" s="26"/>
-      <c r="E168" s="44"/>
+      <c r="E168" s="27"/>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
@@ -15469,16 +15470,16 @@
       <c r="K168" s="27"/>
       <c r="L168" s="27"/>
       <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="28"/>
-      <c r="P168" s="29"/>
-      <c r="U168" s="27"/>
-    </row>
-    <row r="169" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N168" s="28"/>
+      <c r="O168" s="29"/>
+      <c r="T168" s="27"/>
+      <c r="AB168" s="44"/>
+    </row>
+    <row r="169" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="B169" s="19"/>
       <c r="C169" s="26"/>
-      <c r="E169" s="44"/>
+      <c r="E169" s="27"/>
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
@@ -15487,16 +15488,16 @@
       <c r="K169" s="27"/>
       <c r="L169" s="27"/>
       <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="29"/>
-      <c r="U169" s="27"/>
-    </row>
-    <row r="170" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N169" s="28"/>
+      <c r="O169" s="29"/>
+      <c r="T169" s="27"/>
+      <c r="AB169" s="44"/>
+    </row>
+    <row r="170" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="B170" s="19"/>
       <c r="C170" s="26"/>
-      <c r="E170" s="44"/>
+      <c r="E170" s="27"/>
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
@@ -15505,16 +15506,16 @@
       <c r="K170" s="27"/>
       <c r="L170" s="27"/>
       <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="28"/>
-      <c r="P170" s="29"/>
-      <c r="U170" s="27"/>
-    </row>
-    <row r="171" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N170" s="28"/>
+      <c r="O170" s="29"/>
+      <c r="T170" s="27"/>
+      <c r="AB170" s="44"/>
+    </row>
+    <row r="171" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="B171" s="19"/>
       <c r="C171" s="26"/>
-      <c r="E171" s="44"/>
+      <c r="E171" s="27"/>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
@@ -15523,16 +15524,16 @@
       <c r="K171" s="27"/>
       <c r="L171" s="27"/>
       <c r="M171" s="27"/>
-      <c r="N171" s="27"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="29"/>
-      <c r="U171" s="27"/>
-    </row>
-    <row r="172" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N171" s="28"/>
+      <c r="O171" s="29"/>
+      <c r="T171" s="27"/>
+      <c r="AB171" s="44"/>
+    </row>
+    <row r="172" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="B172" s="19"/>
       <c r="C172" s="26"/>
-      <c r="E172" s="44"/>
+      <c r="E172" s="27"/>
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
@@ -15541,16 +15542,16 @@
       <c r="K172" s="27"/>
       <c r="L172" s="27"/>
       <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="28"/>
-      <c r="P172" s="29"/>
-      <c r="U172" s="27"/>
-    </row>
-    <row r="173" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N172" s="28"/>
+      <c r="O172" s="29"/>
+      <c r="T172" s="27"/>
+      <c r="AB172" s="44"/>
+    </row>
+    <row r="173" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="B173" s="19"/>
       <c r="C173" s="26"/>
-      <c r="E173" s="44"/>
+      <c r="E173" s="27"/>
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
@@ -15559,16 +15560,16 @@
       <c r="K173" s="27"/>
       <c r="L173" s="27"/>
       <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="28"/>
-      <c r="P173" s="29"/>
-      <c r="U173" s="27"/>
-    </row>
-    <row r="174" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N173" s="28"/>
+      <c r="O173" s="29"/>
+      <c r="T173" s="27"/>
+      <c r="AB173" s="44"/>
+    </row>
+    <row r="174" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="26"/>
-      <c r="E174" s="44"/>
+      <c r="E174" s="27"/>
       <c r="F174" s="27"/>
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
@@ -15577,16 +15578,16 @@
       <c r="K174" s="27"/>
       <c r="L174" s="27"/>
       <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="28"/>
-      <c r="P174" s="29"/>
-      <c r="U174" s="27"/>
-    </row>
-    <row r="175" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N174" s="28"/>
+      <c r="O174" s="29"/>
+      <c r="T174" s="27"/>
+      <c r="AB174" s="44"/>
+    </row>
+    <row r="175" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="B175" s="19"/>
       <c r="C175" s="26"/>
-      <c r="E175" s="44"/>
+      <c r="E175" s="27"/>
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
@@ -15595,16 +15596,16 @@
       <c r="K175" s="27"/>
       <c r="L175" s="27"/>
       <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="29"/>
-      <c r="U175" s="27"/>
-    </row>
-    <row r="176" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N175" s="28"/>
+      <c r="O175" s="29"/>
+      <c r="T175" s="27"/>
+      <c r="AB175" s="44"/>
+    </row>
+    <row r="176" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="26"/>
-      <c r="E176" s="44"/>
+      <c r="E176" s="27"/>
       <c r="F176" s="27"/>
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
@@ -15613,16 +15614,16 @@
       <c r="K176" s="27"/>
       <c r="L176" s="27"/>
       <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="28"/>
-      <c r="P176" s="29"/>
-      <c r="U176" s="27"/>
-    </row>
-    <row r="177" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N176" s="28"/>
+      <c r="O176" s="29"/>
+      <c r="T176" s="27"/>
+      <c r="AB176" s="44"/>
+    </row>
+    <row r="177" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="B177" s="19"/>
       <c r="C177" s="26"/>
-      <c r="E177" s="44"/>
+      <c r="E177" s="27"/>
       <c r="F177" s="27"/>
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
@@ -15631,16 +15632,16 @@
       <c r="K177" s="27"/>
       <c r="L177" s="27"/>
       <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="28"/>
-      <c r="P177" s="29"/>
-      <c r="U177" s="27"/>
-    </row>
-    <row r="178" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N177" s="28"/>
+      <c r="O177" s="29"/>
+      <c r="T177" s="27"/>
+      <c r="AB177" s="44"/>
+    </row>
+    <row r="178" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="26"/>
-      <c r="E178" s="44"/>
+      <c r="E178" s="27"/>
       <c r="F178" s="27"/>
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
@@ -15649,16 +15650,16 @@
       <c r="K178" s="27"/>
       <c r="L178" s="27"/>
       <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="28"/>
-      <c r="P178" s="29"/>
-      <c r="U178" s="27"/>
-    </row>
-    <row r="179" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N178" s="28"/>
+      <c r="O178" s="29"/>
+      <c r="T178" s="27"/>
+      <c r="AB178" s="44"/>
+    </row>
+    <row r="179" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="B179" s="19"/>
       <c r="C179" s="26"/>
-      <c r="E179" s="44"/>
+      <c r="E179" s="27"/>
       <c r="F179" s="27"/>
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
@@ -15667,16 +15668,16 @@
       <c r="K179" s="27"/>
       <c r="L179" s="27"/>
       <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="28"/>
-      <c r="P179" s="29"/>
-      <c r="U179" s="27"/>
-    </row>
-    <row r="180" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N179" s="28"/>
+      <c r="O179" s="29"/>
+      <c r="T179" s="27"/>
+      <c r="AB179" s="44"/>
+    </row>
+    <row r="180" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="26"/>
-      <c r="E180" s="44"/>
+      <c r="E180" s="27"/>
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
@@ -15685,16 +15686,16 @@
       <c r="K180" s="27"/>
       <c r="L180" s="27"/>
       <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="28"/>
-      <c r="P180" s="29"/>
-      <c r="U180" s="27"/>
-    </row>
-    <row r="181" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N180" s="28"/>
+      <c r="O180" s="29"/>
+      <c r="T180" s="27"/>
+      <c r="AB180" s="44"/>
+    </row>
+    <row r="181" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="B181" s="19"/>
       <c r="C181" s="26"/>
-      <c r="E181" s="44"/>
+      <c r="E181" s="27"/>
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
@@ -15703,16 +15704,16 @@
       <c r="K181" s="27"/>
       <c r="L181" s="27"/>
       <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="28"/>
-      <c r="P181" s="29"/>
-      <c r="U181" s="27"/>
-    </row>
-    <row r="182" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N181" s="28"/>
+      <c r="O181" s="29"/>
+      <c r="T181" s="27"/>
+      <c r="AB181" s="44"/>
+    </row>
+    <row r="182" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="26"/>
-      <c r="E182" s="44"/>
+      <c r="E182" s="27"/>
       <c r="F182" s="27"/>
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
@@ -15721,16 +15722,16 @@
       <c r="K182" s="27"/>
       <c r="L182" s="27"/>
       <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="28"/>
-      <c r="P182" s="29"/>
-      <c r="U182" s="27"/>
-    </row>
-    <row r="183" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N182" s="28"/>
+      <c r="O182" s="29"/>
+      <c r="T182" s="27"/>
+      <c r="AB182" s="44"/>
+    </row>
+    <row r="183" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="B183" s="19"/>
       <c r="C183" s="26"/>
-      <c r="E183" s="44"/>
+      <c r="E183" s="27"/>
       <c r="F183" s="27"/>
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
@@ -15739,16 +15740,16 @@
       <c r="K183" s="27"/>
       <c r="L183" s="27"/>
       <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="28"/>
-      <c r="P183" s="29"/>
-      <c r="U183" s="27"/>
-    </row>
-    <row r="184" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N183" s="28"/>
+      <c r="O183" s="29"/>
+      <c r="T183" s="27"/>
+      <c r="AB183" s="44"/>
+    </row>
+    <row r="184" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="26"/>
-      <c r="E184" s="44"/>
+      <c r="E184" s="27"/>
       <c r="F184" s="27"/>
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
@@ -15757,16 +15758,16 @@
       <c r="K184" s="27"/>
       <c r="L184" s="27"/>
       <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="28"/>
-      <c r="P184" s="29"/>
-      <c r="U184" s="27"/>
-    </row>
-    <row r="185" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N184" s="28"/>
+      <c r="O184" s="29"/>
+      <c r="T184" s="27"/>
+      <c r="AB184" s="44"/>
+    </row>
+    <row r="185" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="B185" s="19"/>
       <c r="C185" s="26"/>
-      <c r="E185" s="44"/>
+      <c r="E185" s="27"/>
       <c r="F185" s="27"/>
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
@@ -15775,30 +15776,30 @@
       <c r="K185" s="27"/>
       <c r="L185" s="27"/>
       <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="28"/>
-      <c r="P185" s="29"/>
-      <c r="U185" s="27"/>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N185" s="28"/>
+      <c r="O185" s="29"/>
+      <c r="T185" s="27"/>
+      <c r="AB185" s="44"/>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B186" s="20"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
@@ -15975,22 +15976,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W145" xr:uid="{6CF84B41-32F2-49F7-98B0-CEE8EB3B05FF}"/>
+  <autoFilter ref="A1:X145" xr:uid="{6CF84B41-32F2-49F7-98B0-CEE8EB3B05FF}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U25" r:id="rId1" xr:uid="{35EEAAC2-4ABF-47DD-A934-830566D9D1BB}"/>
-    <hyperlink ref="U26:U28" r:id="rId2" display="https://csb.uncw.edu/cen/docs/determining%20language%20proficiency.pdf" xr:uid="{3B234C15-6F47-4947-8C0B-9D5881548B50}"/>
-    <hyperlink ref="U61" r:id="rId3" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5A17C14A-6742-4693-9581-D82093EEBDAE}"/>
-    <hyperlink ref="U62" r:id="rId4" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{8AB19AB8-7C27-451B-BA73-6371041F89BA}"/>
-    <hyperlink ref="U63" r:id="rId5" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{B3F4CC50-23ED-4F15-A65A-765E55CDFB71}"/>
-    <hyperlink ref="U64" r:id="rId6" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{2184AC84-021C-44B7-B6BD-80A620EC5AB4}"/>
-    <hyperlink ref="U65" r:id="rId7" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5787DCAF-82FD-4A16-AD1A-03A6E9D7F078}"/>
-    <hyperlink ref="U66" r:id="rId8" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{7C9C3C61-45AF-4E44-99F3-B16D59CA5BCC}"/>
-    <hyperlink ref="U67" r:id="rId9" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{E10A3F97-BBEE-4AAB-B9A6-9819C18F9209}"/>
-    <hyperlink ref="U126" r:id="rId10" xr:uid="{42181FC6-94FC-4DB9-84FC-7B4CDA539539}"/>
-    <hyperlink ref="AB63" r:id="rId11" tooltip="Go to external page" xr:uid="{F8AD3EA2-3689-4F7E-8733-1AD5F8EFB701}"/>
-    <hyperlink ref="AB65" r:id="rId12" tooltip="Go to external page" xr:uid="{DD50085C-B6AA-4A03-9158-C67FA031778D}"/>
-    <hyperlink ref="AB64" r:id="rId13" tooltip="Go to external page" xr:uid="{C0801063-A12F-413A-B58B-9FB2D9D0CF97}"/>
+    <hyperlink ref="T25" r:id="rId1" xr:uid="{35EEAAC2-4ABF-47DD-A934-830566D9D1BB}"/>
+    <hyperlink ref="T26:T28" r:id="rId2" display="https://csb.uncw.edu/cen/docs/determining%20language%20proficiency.pdf" xr:uid="{3B234C15-6F47-4947-8C0B-9D5881548B50}"/>
+    <hyperlink ref="T61" r:id="rId3" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5A17C14A-6742-4693-9581-D82093EEBDAE}"/>
+    <hyperlink ref="T62" r:id="rId4" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{8AB19AB8-7C27-451B-BA73-6371041F89BA}"/>
+    <hyperlink ref="T63" r:id="rId5" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{B3F4CC50-23ED-4F15-A65A-765E55CDFB71}"/>
+    <hyperlink ref="T64" r:id="rId6" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{2184AC84-021C-44B7-B6BD-80A620EC5AB4}"/>
+    <hyperlink ref="T65" r:id="rId7" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{5787DCAF-82FD-4A16-AD1A-03A6E9D7F078}"/>
+    <hyperlink ref="T66" r:id="rId8" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{7C9C3C61-45AF-4E44-99F3-B16D59CA5BCC}"/>
+    <hyperlink ref="T67" r:id="rId9" display="https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383&amp;id=id&amp;accname=guest&amp;checksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf" xr:uid="{E10A3F97-BBEE-4AAB-B9A6-9819C18F9209}"/>
+    <hyperlink ref="T126" r:id="rId10" xr:uid="{42181FC6-94FC-4DB9-84FC-7B4CDA539539}"/>
+    <hyperlink ref="W63" r:id="rId11" tooltip="Go to external page" xr:uid="{F8AD3EA2-3689-4F7E-8733-1AD5F8EFB701}"/>
+    <hyperlink ref="W65" r:id="rId12" tooltip="Go to external page" xr:uid="{DD50085C-B6AA-4A03-9158-C67FA031778D}"/>
+    <hyperlink ref="W64" r:id="rId13" tooltip="Go to external page" xr:uid="{C0801063-A12F-413A-B58B-9FB2D9D0CF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -2559,22 +2559,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EFO:0001799</t>
+          <t>ERO:0002033</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ethnic group membership</t>
+          <t>Family member relationship</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2590,24 +2590,12 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>BCIO:010114 ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
@@ -2616,31 +2604,27 @@
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ERO:0002033</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Family member relationship</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2659,38 +2643,46 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>class to be added to addicto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Former cigarette smoker</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>former tobacco user who smoked cigarettes</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2709,46 +2701,38 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Former cigarette smoker</t>
+          <t>Former tobacco user</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>former psychoactive substance user</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>former tobacco user who smoked cigarettes</t>
+          <t>former substance user whose substance was a tobacco-containing produce</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2766,7 +2750,11 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000777</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -2778,27 +2766,31 @@
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Former tobacco user</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>former psychoactive substance user</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>former substance user whose substance was a tobacco-containing produce</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2816,47 +2808,43 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000777</t>
-        </is>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>BCIO:010110 gender of person source</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2875,42 +2863,42 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2935,26 +2923,26 @@
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2964,7 +2952,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3003,12 +2991,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3018,7 +3006,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3057,12 +3045,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3072,7 +3060,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3111,22 +3099,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Health status attribute</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>An attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3142,45 +3130,53 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Having chicken pox, asthma, a heart attack</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion (for specific health conditions)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Health status attribute</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>An attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3196,53 +3192,45 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Proportion (for specific health conditions)</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+          <t>NCIT_C84362</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
-        </is>
-      </c>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Higher education student role</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3269,7 +3257,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>NCIT_C84362</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3281,22 +3269,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Higher education student role</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3310,20 +3298,24 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">NCIT_C17953 </t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3335,22 +3327,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3364,24 +3356,20 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3393,22 +3381,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3435,7 +3423,7 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3447,22 +3435,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3483,30 +3471,34 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3516,7 +3508,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3530,51 +3522,47 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015160</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Household income</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>In a legal marriage or union</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>relationship status</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>an aggregate of the individual incomes received by all the members of a household</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3595,15 +3583,11 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EFO_0009695 </t>
-        </is>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -3613,22 +3597,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3649,44 +3633,36 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3704,11 +3680,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3725,22 +3697,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3775,22 +3747,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3825,22 +3797,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3861,7 +3833,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -3875,22 +3847,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3908,7 +3880,11 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U62" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3925,22 +3901,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3961,7 +3937,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -3975,22 +3951,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4011,11 +3987,15 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
@@ -4025,22 +4005,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4058,14 +4038,10 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4079,22 +4055,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Interpersonal role</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4115,11 +4091,15 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion with a particular interpersonal role</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -4129,22 +4109,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4165,40 +4145,44 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4219,11 +4203,15 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
@@ -4233,22 +4221,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Interpersonal role</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4262,22 +4250,26 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Proportion with a particular interpersonal role</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>NCIT_C92454</t>
-        </is>
-      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -4287,22 +4279,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015100</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Language proficiency</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>linguistic capability (MF_0000050)</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4318,49 +4310,45 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4381,44 +4369,40 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4443,11 +4427,7 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -4457,22 +4437,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4486,22 +4466,14 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -4515,22 +4487,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>ADDICTO000690</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>Number of cigarettes smoked per day</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
+          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4544,51 +4516,51 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
-        </is>
-      </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>ADDICTO0000690</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Member of a multi-person household all related</t>
+          <t>Number of times formerly tobacco used</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4604,49 +4576,45 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Member of a multi-person household not related</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4658,53 +4626,53 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Member of a multi-person household some related</t>
+          <t>Occupational role</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
+          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4720,22 +4688,18 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion with a specific occupational role</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>occupational role of source BCIO:010004</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4747,22 +4711,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Member of a multi-person multi-generational household</t>
+          <t>Organisational role</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
+          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4776,28 +4740,20 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific organisational role</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>OBI_0000245.  (organization)</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -4809,22 +4765,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Member of a one person household</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living alone in a household</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4845,40 +4801,44 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4897,42 +4857,38 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4953,40 +4909,36 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5014,29 +4966,33 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>OBI:0000093</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Patient role</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5057,36 +5013,40 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ADDICTO000690</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Number of cigarettes smoked per day</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5104,47 +5064,43 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>ADDICTO0000690</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
-        </is>
-      </c>
+      <c r="AB84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Number of times formerly tobacco used</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5156,49 +5112,53 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
-        </is>
-      </c>
+      <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5210,11 +5170,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -5223,40 +5179,40 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>NCIT_C155691</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Occupational role</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5277,13 +5233,13 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>proportion with a specific occupational role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr">
         <is>
-          <t>occupational role of source BCIO:010004</t>
+          <t>NCIT_C155692</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
@@ -5295,22 +5251,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Organisational role</t>
+          <t>Relationship status</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
+          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5331,15 +5287,11 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Proportion with a specific organisational role</t>
+          <t>Proportion with a particular relationship status</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>OBI_0000245.  (organization)</t>
-        </is>
-      </c>
+      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
@@ -5349,22 +5301,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5380,49 +5332,45 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5440,7 +5388,11 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U90" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -5457,22 +5409,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5493,11 +5445,15 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -5507,22 +5463,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5536,7 +5492,11 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -5547,36 +5507,36 @@
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
+        </is>
+      </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>OBI:0000093</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Patient role</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5597,7 +5557,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
@@ -5615,22 +5575,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5655,11 +5615,7 @@
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
@@ -5669,22 +5625,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5696,53 +5652,45 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5754,24 +5702,32 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U96" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
@@ -5781,22 +5737,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -5808,24 +5764,32 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -5835,22 +5799,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Relationship status</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -5871,11 +5835,16 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Proportion with a particular relationship status</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
@@ -5883,26 +5852,14 @@
       <c r="AB98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>BCIO:015095</t>
-        </is>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Religious group membership</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
-        </is>
-      </c>
+          <t>Student or trainee</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -5916,53 +5873,37 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>Student or trainee role</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -5978,45 +5919,49 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6036,41 +5981,45 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>ADDICTO:0000849</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t xml:space="preserve">Tobacco-containing product user </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6085,46 +6034,50 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Current tobacco user</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6138,11 +6091,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
@@ -6155,7 +6104,7 @@
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -6167,22 +6116,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:015040</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sexual orientation</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6201,38 +6150,46 @@
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr">
         <is>
-          <t>NCIT_C84361</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6260,33 +6217,29 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6302,16 +6255,20 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
+        </is>
+      </c>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
@@ -6321,22 +6278,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6348,45 +6305,53 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6398,32 +6363,24 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
@@ -6433,22 +6390,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6460,28 +6417,20 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>data item because it is a score</t>
+          <t>may include unpaid internships</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V109" t="inlineStr"/>
@@ -6495,22 +6444,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6535,12 +6484,7 @@
         </is>
       </c>
       <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
@@ -6548,14 +6492,26 @@
       <c r="AB110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Student or trainee</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+          <t>age of smoking cessation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>age at which a person reports quitting smoking tobacco</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -6571,35 +6527,43 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Student or trainee role</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6615,49 +6579,45 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+        </is>
+      </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
+      <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
+          <t>newly added</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>EFO:0001799</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6673,18 +6633,30 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
+        </is>
+      </c>
       <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>BCIO:010114 ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
           <t>External</t>
@@ -6693,29 +6665,29 @@
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ADDICTO:0000849</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -6730,50 +6702,38 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>Current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000849</t>
-        </is>
-      </c>
+      <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -6789,45 +6749,49 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+        </is>
+      </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6848,44 +6812,36 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
+      <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -6899,43 +6855,51 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+        </is>
+      </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015160</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
+          <t>household income</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>an aggregate of the individual incomes received by all the members of a household</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -6951,22 +6915,26 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr">
         <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
+          <t xml:space="preserve">EFO_0009695 </t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
@@ -6974,22 +6942,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7001,26 +6969,22 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr">
         <is>
-          <t>$400, 3000 euros</t>
+          <t>walks for 15 mins/day, never eats meat, attends school</t>
         </is>
       </c>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
@@ -7032,22 +6996,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>role in human social processes</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -7066,42 +7030,42 @@
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015100</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>linguistic capability (MF_0000050)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -7115,47 +7079,55 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
+        </is>
+      </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
+        </is>
+      </c>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -7169,7 +7141,11 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
+        </is>
+      </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
@@ -7182,7 +7158,11 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
@@ -7190,22 +7170,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>member of a multi-person household all related</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>age at which a person reports quitting smoking tobacco</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -7221,45 +7201,53 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
       <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+        </is>
+      </c>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>member of a multi-person household not related</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -7277,43 +7265,51 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
         </is>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr">
-        <is>
-          <t>newly added</t>
-        </is>
-      </c>
+      <c r="AB124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -7329,14 +7325,30 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
+        </is>
+      </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
@@ -7344,22 +7356,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>member of a multi-person multi-generational household</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>Member of a multi-person household</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -7373,51 +7385,59 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
+        </is>
+      </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr">
         <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
         </is>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
-        </is>
-      </c>
+      <c r="AB126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
+          <t>A sociodemographic attribute of a person living alone in a household</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -7438,13 +7458,17 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
@@ -7452,22 +7476,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>ADDICTO:0000779</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>never smoker</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>non-psychoactive substance user</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>a person who has never smoked tobacco</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -7483,15 +7507,11 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school</t>
-        </is>
-      </c>
+      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>BCIO</t>
+          <t>ADDICTO:000079</t>
         </is>
       </c>
       <c r="U128" t="inlineStr"/>
@@ -7499,29 +7519,37 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>OMRSE:00000092</t>
+          <t>ADDICTO:0000386</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>non-daily tobacco smoker</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>role in human social processes</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -7536,10 +7564,18 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Occasional current tobacco user</t>
+        </is>
+      </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000386</t>
+        </is>
+      </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
@@ -7551,31 +7587,27 @@
         </is>
       </c>
       <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
-        </is>
-      </c>
+      <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADDICTO:0000779</t>
+          <t>BCIO:015200</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>never smoker</t>
+          <t>occupier of employer-provided housing</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>non-psychoactive substance user</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>a person who has never smoked tobacco</t>
+          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7593,50 +7625,46 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>ADDICTO:000079</t>
-        </is>
-      </c>
-      <c r="U130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z130" t="inlineStr"/>
       <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
-        </is>
-      </c>
+      <c r="AB130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
+          <t>SDGIO:00010028</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>non-daily tobacco smoker</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -7648,19 +7676,19 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>Occasional current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
-        </is>
-      </c>
-      <c r="U131" t="inlineStr"/>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
@@ -7676,22 +7704,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>SDGIO:00010018</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing</t>
+          <t>owner role</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
+          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -7701,7 +7729,11 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>ownership process</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -7709,46 +7741,46 @@
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SDGIO:00010028</t>
+          <t>BCIO:015170</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>owner-occupier</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
-        </is>
-      </c>
+          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -7763,47 +7795,39 @@
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
+      <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SDGIO:00010018</t>
+          <t>SDGIO:00010027</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>owner role</t>
+          <t>ownership process</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
+          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7813,14 +7837,14 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>ownership process</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
@@ -7834,7 +7858,11 @@
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z134" t="inlineStr">
         <is>
           <t>External</t>
@@ -7846,22 +7874,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>owner-occupier</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
+          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -7879,39 +7907,43 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>MFO</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SDGIO:00010027</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ownership process</t>
+          <t>personal psychological attribute</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -7924,48 +7956,56 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>BCI participant</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+        </is>
+      </c>
       <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
+      <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>OMRSE:00000094</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
+          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -7983,11 +8023,7 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>MFO</t>
-        </is>
-      </c>
+      <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
@@ -7999,27 +8035,31 @@
         </is>
       </c>
       <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -8032,23 +8072,27 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>BCI participant</t>
-        </is>
-      </c>
+      <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr">
         <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
         </is>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
+        </is>
+      </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
@@ -8059,29 +8103,29 @@
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>OMRSE:00000094</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
+          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -8100,32 +8144,28 @@
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
-        </is>
-      </c>
+      <c r="AB139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8135,7 +8175,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -8170,22 +8210,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>renter of housing from a social provider</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>renter</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -8201,7 +8241,11 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
+        </is>
+      </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
@@ -8220,22 +8264,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
+          <t>an owner of a residential facility</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -8251,16 +8295,12 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
-        </is>
-      </c>
+      <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V142" t="inlineStr"/>
@@ -8269,27 +8309,31 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>an owner of a residential facility</t>
+          <t>a socio demographic of an individual who has at least one parent who is an immigrant</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -8307,10 +8351,14 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V143" t="inlineStr"/>
@@ -8319,21 +8367,17 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
-        </is>
-      </c>
+      <c r="AB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015040</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8343,7 +8387,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>a socio demographic of an individual who has at least one parent who is an immigrant</t>
+          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8361,20 +8405,20 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -6912,7 +6912,11 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
@@ -7840,11 +7844,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
+      <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -2023,22 +2023,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Discipline of current programme of study or training</t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2052,55 +2052,43 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>psychology, counselling, public health</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
-        </is>
-      </c>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2125,7 +2113,11 @@
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2135,22 +2127,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2169,42 +2161,38 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2223,38 +2211,42 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2281,7 +2273,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>NCIT_C25172</t>
+          <t>OPMI:0000123</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2293,22 +2285,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2326,18 +2318,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>OPMI:0000123</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -2347,22 +2339,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2380,18 +2372,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2401,22 +2393,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2435,42 +2427,38 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2489,7 +2477,11 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2505,22 +2497,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2545,36 +2537,40 @@
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ERO:0002033</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Family member relationship</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2595,36 +2591,40 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>BCIO:010110 gender of person source</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2645,44 +2645,40 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Former cigarette smoker</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>former tobacco user who smoked cigarettes</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2701,7 +2697,11 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -2717,22 +2717,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Former tobacco user</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>former psychoactive substance user</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>former substance user whose substance was a tobacco-containing produce</t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2750,12 +2750,12 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000777</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -2766,31 +2766,27 @@
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
-        </is>
-      </c>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2809,42 +2805,42 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>BCIO:010110 gender of person source</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2869,36 +2865,36 @@
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2923,36 +2919,36 @@
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2966,47 +2962,51 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C17953 </t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3031,36 +3031,40 @@
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NCIT_C75560</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3085,36 +3089,36 @@
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NCIT_C84363</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Health status attribute</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>An attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3130,22 +3134,18 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Proportion (for specific health conditions)</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3154,29 +3154,29 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3194,18 +3194,18 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NCIT_C84362</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -3215,22 +3215,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Higher education student role</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3255,11 +3255,7 @@
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -3269,22 +3265,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3298,26 +3294,18 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -3327,22 +3315,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3367,11 +3355,7 @@
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>NCIT_C75560</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
@@ -3381,22 +3365,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3421,11 +3405,7 @@
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>NCIT_C84363</t>
-        </is>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
@@ -3435,22 +3415,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3471,44 +3451,36 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3526,14 +3498,10 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3547,22 +3515,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3580,7 +3548,11 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3589,7 +3561,11 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -3597,22 +3573,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3633,7 +3609,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3647,22 +3623,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3687,7 +3663,11 @@
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3697,22 +3677,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3733,7 +3713,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -3747,22 +3727,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3783,36 +3763,44 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3833,11 +3821,15 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -3847,22 +3839,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3876,18 +3868,22 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -3901,22 +3897,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3935,38 +3931,42 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3991,36 +3991,36 @@
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4041,13 +4041,17 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -4055,22 +4059,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Interpersonal role</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4091,17 +4095,17 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Proportion with a particular interpersonal role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>NCIT_C92454</t>
-        </is>
-      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
@@ -4109,22 +4113,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4136,7 +4140,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4145,44 +4153,40 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4203,40 +4207,44 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4250,22 +4258,14 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4279,22 +4279,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4313,32 +4313,28 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4348,7 +4344,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4387,22 +4383,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4427,7 +4423,11 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -4437,22 +4437,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4464,16 +4464,24 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -4487,22 +4495,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ADDICTO000690</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Number of cigarettes smoked per day</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4520,47 +4528,43 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>ADDICTO0000690</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>NCIT_C155691</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
-        </is>
-      </c>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Number of times formerly tobacco used</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4579,42 +4583,42 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
-        </is>
-      </c>
+      <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4626,20 +4630,20 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
@@ -4648,31 +4652,27 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Occupational role</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4690,20 +4690,24 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>proportion with a specific occupational role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>occupational role of source BCIO:010004</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -4711,22 +4715,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Organisational role</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4747,13 +4751,13 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Proportion with a specific organisational role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr">
         <is>
-          <t>OBI_0000245.  (organization)</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -4765,22 +4769,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4794,51 +4798,51 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr">
         <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4866,29 +4870,33 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4909,7 +4917,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -4923,22 +4931,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4957,11 +4965,7 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
@@ -4977,22 +4981,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OBI:0000093</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Patient role</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5004,49 +5008,57 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5058,24 +5070,32 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
@@ -5085,22 +5105,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5112,55 +5132,44 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>BCIO:015070</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Queer</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>sexual orientation</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
-        </is>
-      </c>
+          <t>Student or trainee</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -5177,17 +5186,9 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
@@ -5197,22 +5198,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5230,43 +5231,47 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Relationship status</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5287,11 +5292,15 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Proportion with a particular relationship status</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
@@ -5301,22 +5310,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5332,45 +5341,53 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO_00010026 </t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5388,11 +5405,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -5401,7 +5414,11 @@
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
@@ -5409,22 +5426,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5440,18 +5457,18 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
@@ -5463,22 +5480,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5490,28 +5507,28 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
@@ -5521,22 +5538,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5561,36 +5578,36 @@
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5604,7 +5621,11 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -5625,22 +5646,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5659,38 +5680,38 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t>age at which a person reports quitting smoking tobacco</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5702,57 +5723,49 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -5764,57 +5777,61 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>data item because it is a score</t>
+          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>psychology, counselling, public health</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>Mean; Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
+        </is>
+      </c>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -5830,36 +5847,47 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+        </is>
+      </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>newly added</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EFO:0001799</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Student or trainee</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -5873,37 +5901,61 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
+        </is>
+      </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>BCIO:010114 ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Student or trainee role</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -5922,46 +5974,34 @@
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
+      <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
-        </is>
-      </c>
+      <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>ERO:0002033</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -5979,47 +6019,43 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z101" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ADDICTO:0000849</t>
+          <t>class to be added to addicto</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t>former cigarette smoker</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
+          <t>former tobacco user who smoked cigarettes</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6034,23 +6070,19 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>Current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000849</t>
-        </is>
-      </c>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
           <t>External</t>
@@ -6062,22 +6094,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>former psychoactive substance user</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t>former substance user whose substance was a tobacco-containing produce</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6095,43 +6127,51 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000777</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6147,49 +6187,49 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+        </is>
+      </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
+      <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>An attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6205,41 +6245,57 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Having chicken pox, asthma, a heart attack</t>
+        </is>
+      </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion (for specific health conditions)</t>
         </is>
       </c>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+        </is>
+      </c>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6255,22 +6311,26 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr">
         <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
@@ -6278,22 +6338,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6305,24 +6365,16 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V107" t="inlineStr"/>
@@ -6336,22 +6388,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6365,47 +6417,51 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+        </is>
+      </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015160</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>sociodemographic attribute</t>
-        </is>
-      </c>
+          <t>household income</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>an aggregate of the individual incomes received by all the members of a household</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6418,25 +6474,33 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFO_0009695 </t>
+        </is>
+      </c>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
@@ -6444,22 +6508,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6475,14 +6539,18 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>walks for 15 mins/day, never eats meat, attends school</t>
+        </is>
+      </c>
       <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
@@ -6494,22 +6562,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>role in human social processes</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>age at which a person reports quitting smoking tobacco</t>
+          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6527,11 +6595,7 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
+      <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
@@ -6543,27 +6607,31 @@
         </is>
       </c>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
+          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6579,45 +6647,49 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
-        </is>
-      </c>
+      <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Proportion with a particular interpersonal role</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
+        </is>
+      </c>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>newly added</t>
-        </is>
-      </c>
+      <c r="AB112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EFO:0001799</t>
+          <t>BCIO:015100</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>linguistic capability (MF_0000050)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6635,20 +6707,16 @@
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
         </is>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr">
         <is>
-          <t>BCIO:010114 ethnic group membership of person source</t>
+          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -6657,37 +6725,33 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
+          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -6701,16 +6765,28 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
+        </is>
+      </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
@@ -6718,22 +6794,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>member of a multi-person household all related</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -6751,47 +6827,51 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
         </is>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+        </is>
+      </c>
       <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
-        </is>
-      </c>
+      <c r="AB115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>member of a multi-person household not related</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6807,18 +6887,30 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
+        </is>
+      </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
@@ -6826,22 +6918,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>household</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -6855,51 +6947,55 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
-        </is>
-      </c>
+      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
+        </is>
+      </c>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>OMRSE:00000076</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015160</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>household income</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>member of a multi-person multi-generational household</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Member of a multi-person household</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>an aggregate of the individual incomes received by all the members of a household</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -6912,25 +7008,29 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
+        </is>
+      </c>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
+        </is>
+      </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EFO_0009695 </t>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -6946,22 +7046,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A sociodemographic attribute of a person living alone in a household</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -6977,22 +7077,22 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school</t>
-        </is>
-      </c>
+      <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>BCIO</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
@@ -7000,22 +7100,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OMRSE:00000092</t>
+          <t>ADDICTO:0000779</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>never smoker</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>role in human social processes</t>
+          <t>non-psychoactive substance user</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+          <t>a person who has never smoked tobacco</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -7033,7 +7133,11 @@
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>ADDICTO:000079</t>
+        </is>
+      </c>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
@@ -7047,29 +7151,29 @@
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:015100</t>
+          <t>ADDICTO:0000386</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>non-daily tobacco smoker</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>linguistic capability (MF_0000050)</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
+          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -7084,54 +7188,50 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Occasional current tobacco user</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000386</t>
+        </is>
+      </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
-        </is>
-      </c>
+      <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>ADDICTO000690</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>number of cigarettes smoked per day</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
+          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -7145,20 +7245,16 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
-        </is>
-      </c>
+      <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>ADDICTO0000690</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
@@ -7167,29 +7263,37 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>member of a multi-person household all related</t>
+          <t>number of times formerly tobacco used</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -7205,53 +7309,49 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
-        </is>
-      </c>
+      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
-        </is>
-      </c>
+      <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>member of a multi-person household not related</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
+          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -7267,22 +7367,18 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
-        </is>
-      </c>
+      <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion with a specific occupational role</t>
         </is>
       </c>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>occupational role of source BCIO:010004</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
@@ -7298,22 +7394,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015200</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>member of a multi-person household some related</t>
+          <t>occupier of employer-provided housing</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
+          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -7329,30 +7425,18 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
-        </is>
-      </c>
+      <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
-        </is>
-      </c>
+      <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
@@ -7360,22 +7444,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>member of a multi-person multi-generational household</t>
+          <t>organisational role</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
+          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -7389,28 +7473,20 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
+      <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
-        </is>
-      </c>
+      <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific organisational role</t>
         </is>
       </c>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>OBI_0000245.  (organization)</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
@@ -7426,25 +7502,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>SDGIO:00010028</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>member of a one person household</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living alone in a household</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -7459,43 +7539,47 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ADDICTO:0000779</t>
+          <t>SDGIO:00010018</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>never smoker</t>
+          <t>owner role</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>non-psychoactive substance user</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>a person who has never smoked tobacco</t>
+          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -7505,7 +7589,11 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>ownership process</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -7515,7 +7603,7 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>ADDICTO:000079</t>
+          <t>SDGIO</t>
         </is>
       </c>
       <c r="U128" t="inlineStr"/>
@@ -7529,31 +7617,27 @@
         </is>
       </c>
       <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
-        </is>
-      </c>
+      <c r="AB128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
+          <t>BCIO:015170</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>non-daily tobacco smoker</t>
+          <t>owner-occupier</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
+          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -7568,50 +7652,42 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>Occasional current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000386</t>
-        </is>
-      </c>
-      <c r="U129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>SDGIO:00010027</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing</t>
+          <t>ownership process</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
+          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7629,46 +7705,50 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SDGIO:00010028</t>
+          <t>OBI:0000093</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
-        </is>
-      </c>
+          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -7683,11 +7763,7 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
+      <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
           <t>proportion</t>
@@ -7696,7 +7772,11 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
           <t>External</t>
@@ -7708,22 +7788,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SDGIO:00010018</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>owner role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
+          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -7733,11 +7813,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>ownership process</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -7747,7 +7823,7 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
-          <t>SDGIO</t>
+          <t>MFO</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
@@ -7766,22 +7842,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>owner-occupier</t>
+          <t>personal psychological attribute</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -7794,44 +7870,56 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>BCI participant</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+        </is>
+      </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SDGIO:00010027</t>
+          <t>OMRSE:00000094</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ownership process</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
+          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7849,47 +7937,43 @@
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
+      <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
+          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -7907,43 +7991,43 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>MFO</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>Proportion with a particular relationship status</t>
+        </is>
+      </c>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z135" t="inlineStr"/>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -7956,23 +8040,27 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>BCI participant</t>
-        </is>
-      </c>
+      <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr">
         <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
         </is>
       </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
+        </is>
+      </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
@@ -7983,29 +8071,29 @@
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>OMRSE:00000094</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
+          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -8024,42 +8112,38 @@
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
-        </is>
-      </c>
+      <c r="AB137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -8075,57 +8159,41 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Proportion belonging to a specified group</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr">
-        <is>
-          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>renter of housing from a social provider</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -8141,7 +8209,11 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
+        </is>
+      </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
@@ -8160,22 +8232,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t>an owner of a residential facility</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -8196,7 +8268,7 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V140" t="inlineStr"/>
@@ -8205,27 +8277,31 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
+          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -8241,22 +8317,26 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
-        </is>
-      </c>
+      <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
@@ -8264,22 +8344,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015040</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>an owner of a residential facility</t>
+          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -8298,42 +8378,42 @@
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
-        </is>
-      </c>
+      <c r="AB142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015010</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>a socio demographic of an individual who has at least one parent who is an immigrant</t>
+          <t>an attribute of a person that describes their social or economic situation</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -8346,25 +8426,29 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>BCIO:010108 socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
@@ -8372,22 +8456,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:015040</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8406,11 +8490,15 @@
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr">
         <is>
-          <t>NCIT_C84361</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -8421,27 +8509,31 @@
       </c>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:015010</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t xml:space="preserve">Tobacco-containing product user </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>an attribute of a person that describes their social or economic situation</t>
+          <t>A psychoactive substance user who participates in tobacco smoking.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -8454,11 +8546,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
@@ -8466,40 +8554,36 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr">
-        <is>
-          <t>BCIO:010108 socio demographic attribute of person source</t>
-        </is>
-      </c>
+      <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ADDICTO:0000405</t>
+          <t>ADDICTO:0000849</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t xml:space="preserve">tobacco-containing product user </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t>human being</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>A psychoactive substance user who participates in tobacco smoking.</t>
+          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -8514,15 +8598,27 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Current tobacco user</t>
+        </is>
+      </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z146" t="inlineStr">
         <is>
           <t>External</t>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -569,26 +569,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Addiction</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -604,43 +588,35 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:015120</t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ability to comprehend spoken intervention language</t>
+          <t xml:space="preserve"> Addiction</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An individual's ability to follow and understand speech in the intervention language</t>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -656,39 +632,35 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Comprehend the German language</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>BCIO:015120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ability to read in intervention language</t>
+          <t>Ability to comprehend spoken intervention language</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -698,7 +670,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An individual's ability to read and understand texts in the intervention language</t>
+          <t>An individual's ability to follow and understand speech in the intervention language</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -716,7 +688,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>The exclusion criteria were an inability to read English</t>
+          <t>Comprehend the German language</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -741,12 +713,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:015115</t>
+          <t>BCIO:015105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ability to speak in intervention language</t>
+          <t>Ability to read in intervention language</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -756,7 +728,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
+          <t>An individual's ability to read and understand texts in the intervention language</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -774,7 +746,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
+          <t>The exclusion criteria were an inability to read English</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -799,12 +771,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:015110</t>
+          <t>BCIO:015115</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ability to write in intervention language</t>
+          <t>Ability to speak in intervention language</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -814,7 +786,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An individual's ability to formulate written text in the intervention language.</t>
+          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -832,7 +804,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Fluency in written English.</t>
+          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -857,22 +829,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>BCIO:015110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Achieved bachelor's or equivalent level (ISCED Level 6)</t>
+          <t>Ability to write in intervention language</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
+          <t>An individual's ability to formulate written text in the intervention language.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -886,30 +858,26 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Fluency in written English.</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -919,12 +887,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Achieved doctoral or equivalent level (ISCED Level 8)</t>
+          <t>Achieved bachelor's or equivalent level (ISCED Level 6)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -934,7 +902,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -950,7 +918,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
+          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -967,7 +935,11 @@
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -977,12 +949,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:015250</t>
+          <t>BCIO:015280</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Achieved early childhood education (ISCED 0)</t>
+          <t>Achieved doctoral or equivalent level (ISCED Level 8)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -992,7 +964,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
+          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1008,7 +980,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
+          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1035,12 +1007,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:015260</t>
+          <t>BCIO:015250</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Achieved lower secondary education (ISCED Level 2)</t>
+          <t>Achieved early childhood education (ISCED 0)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1050,7 +1022,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
+          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1066,7 +1038,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1083,11 +1055,7 @@
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1097,12 +1065,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Achieved master's or equivalent level (ISCED Level 7)</t>
+          <t>Achieved lower secondary education (ISCED Level 2)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1112,7 +1080,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1128,7 +1096,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
+          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1145,7 +1113,11 @@
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1155,12 +1127,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:015255</t>
+          <t>BCIO:015275</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Achieved primary education (ISCED Level 1)</t>
+          <t>Achieved master's or equivalent level (ISCED Level 7)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1170,7 +1142,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
+          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1186,7 +1158,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
+          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1203,11 +1175,7 @@
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1217,12 +1185,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>BCIO:015255</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Achieved upper secondary education (ISCED Level 3)</t>
+          <t>Achieved primary education (ISCED Level 1)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1232,7 +1200,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
+          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1248,7 +1216,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
+          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1267,7 +1235,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
+          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1279,22 +1247,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ADDICTO:0000926</t>
+          <t>BCIO:015265</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Age of substance use initiation</t>
+          <t>Achieved upper secondary education (ISCED Level 3)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>age at which a person initiated substance use</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1308,33 +1276,45 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>ADDICTO:0000926</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Age of tobacco use initiation</t>
+          <t>Age of substance use initiation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1344,7 +1324,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>age at which a person initiated tobacco use</t>
+          <t>age at which a person initiated substance use</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1374,31 +1354,27 @@
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
-        </is>
-      </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>class to be added to addicto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Agreed rent-free occupier</t>
+          <t>Age of tobacco use initiation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
+          <t>age at which a person initiated tobacco use</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1417,38 +1393,42 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015045</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Asexual</t>
+          <t>Agreed rent-free occupier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
+          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1469,15 +1449,11 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>NCIT_C155696</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1487,22 +1463,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ERO:0002055</t>
+          <t>BCIO:015045</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aunt or uncle relationship</t>
+          <t>Asexual</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
+          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1527,36 +1503,36 @@
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>NCIT_C155696</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015005</t>
+          <t>ERO:0002055</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BCI participant</t>
+          <t>Aunt or uncle relationship</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>a person who is exposed to a BCI</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1570,43 +1546,47 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:015005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Behaviour Change Intervention population</t>
+          <t>BCI participant</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Human population/ object aggregate</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>an aggregate of people who are exposed to a BCI</t>
+          <t>a person who is exposed to a BCI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1620,15 +1600,15 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>BCIO</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
@@ -1641,22 +1621,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:015050</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bisexual</t>
+          <t>Behaviour Change Intervention population</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>Human population/ object aggregate</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
+          <t>an aggregate of people who are exposed to a BCI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1674,18 +1654,14 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>NCIT_C84364</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1695,22 +1671,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:015410</t>
+          <t>BCIO:015050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Caregiving role</t>
+          <t>Bisexual</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1728,18 +1704,18 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>NCIT_C84364</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1749,22 +1725,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015410</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Caste membership</t>
+          <t>Caregiving role</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
+          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1784,7 +1760,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>https://sociologydictionary.org/c/caste/</t>
+          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -1803,22 +1779,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO_0002047 </t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Child relationship</t>
+          <t>Caste membership</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
+          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1836,7 +1812,11 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>https://sociologydictionary.org/c/caste/</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -1846,33 +1826,29 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t xml:space="preserve">ERO_0002047 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cigarette dependence</t>
+          <t>Child relationship</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1891,7 +1867,11 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1902,31 +1882,27 @@
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t>Cigarette dependence</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1944,47 +1920,43 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>Country of birth</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2002,43 +1974,47 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t xml:space="preserve">ERO:0002052 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t xml:space="preserve">Cousin relationship </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2066,29 +2042,33 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2113,11 +2093,7 @@
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2127,22 +2103,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2161,38 +2137,42 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2211,42 +2191,38 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>NCIT_C25172</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2273,7 +2249,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>OPMI:0000123</t>
+          <t>NCIT_C25172</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2285,22 +2261,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2318,18 +2294,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>OPMI:0000123</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -2339,22 +2315,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2372,18 +2348,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2393,22 +2369,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2427,38 +2403,42 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2477,11 +2457,7 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2497,22 +2473,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2537,40 +2513,36 @@
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Female gender</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2589,11 +2561,15 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2602,29 +2578,29 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2643,42 +2619,42 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>BCIO:010110 gender of person source</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2703,26 +2679,26 @@
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2732,7 +2708,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2771,12 +2747,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2786,7 +2762,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2825,12 +2801,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2840,7 +2816,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2879,22 +2855,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2919,36 +2895,36 @@
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>NCIT_C84362</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2962,24 +2938,20 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C84362</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2991,12 +2963,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3006,7 +2978,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3020,28 +2992,28 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t xml:space="preserve">NCIT_C17953 </t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3049,22 +3021,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3091,11 +3063,15 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -3103,22 +3079,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3139,34 +3115,30 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3176,7 +3148,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3194,43 +3166,47 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3248,7 +3224,11 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3265,12 +3245,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3280,7 +3260,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3315,22 +3295,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3365,12 +3345,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3380,7 +3360,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3415,12 +3395,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3430,7 +3410,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3465,22 +3445,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3501,7 +3481,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3515,22 +3495,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3548,24 +3528,16 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -3573,12 +3545,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3588,7 +3560,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3606,16 +3578,24 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -3623,22 +3603,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3659,15 +3639,11 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3677,22 +3653,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3713,11 +3689,15 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3727,22 +3707,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3767,40 +3747,32 @@
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
-        </is>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3821,40 +3793,44 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3868,26 +3844,22 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -3897,22 +3869,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3926,47 +3898,51 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3985,11 +3961,7 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -4000,27 +3972,31 @@
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4047,24 +4023,24 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4074,7 +4050,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4113,22 +4089,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4140,11 +4116,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4153,40 +4125,40 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4198,7 +4170,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4207,44 +4183,40 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4265,36 +4237,44 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4315,7 +4295,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4329,22 +4309,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4365,40 +4345,36 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4423,36 +4399,36 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4464,28 +4440,24 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -4495,22 +4467,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4522,24 +4494,28 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
@@ -4549,12 +4525,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4564,7 +4540,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4591,7 +4567,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>NCIT_C155692</t>
+          <t>NCIT_C155691</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -4603,22 +4579,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4634,20 +4610,20 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
@@ -4657,22 +4633,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4688,26 +4664,22 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -4715,22 +4687,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4748,20 +4720,24 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U78" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
@@ -4769,22 +4745,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4798,11 +4774,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -4815,7 +4787,7 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -4827,22 +4799,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4856,7 +4828,11 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -4867,36 +4843,36 @@
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4924,29 +4900,33 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4965,38 +4945,38 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5008,47 +4988,35 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5058,7 +5026,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5076,13 +5044,13 @@
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
@@ -5091,7 +5059,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -5105,22 +5073,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5132,44 +5100,59 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BCIO:015340</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Student or trainee</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+          <t>Stay at home parent or guardian status</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -5186,11 +5169,24 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -1779,22 +1779,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t xml:space="preserve">ERO_0002047 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Caste membership</t>
+          <t>Child relationship</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
+          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1812,11 +1812,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>https://sociologydictionary.org/c/caste/</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -1826,29 +1822,33 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO_0002047 </t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Child relationship</t>
+          <t>Cigarette dependence</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1867,11 +1867,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1882,27 +1878,31 @@
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cigarette dependence</t>
+          <t>Country of birth</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1920,43 +1920,47 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t xml:space="preserve">ERO:0002052 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t xml:space="preserve">Cousin relationship </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1974,47 +1978,43 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2042,33 +2042,29 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2093,7 +2089,11 @@
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2103,22 +2103,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2137,42 +2137,38 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2191,38 +2187,42 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2249,7 +2249,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>NCIT_C25172</t>
+          <t>OPMI:0000123</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2261,22 +2261,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2294,18 +2294,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>OPMI:0000123</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -2315,22 +2315,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2348,18 +2348,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2369,22 +2369,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2403,42 +2403,38 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2457,7 +2453,11 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2473,22 +2473,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2513,36 +2513,40 @@
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2561,15 +2565,11 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+          <t>BCIO:010110 gender of person source</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2578,29 +2578,29 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2619,42 +2619,42 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2679,26 +2679,26 @@
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2747,12 +2747,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2801,12 +2801,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2855,22 +2855,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2895,36 +2895,36 @@
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2938,20 +2938,24 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>NCIT_C84362</t>
+          <t xml:space="preserve">NCIT_C17953 </t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2963,12 +2967,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2978,7 +2982,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2992,28 +2996,28 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3021,22 +3025,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3063,15 +3067,11 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -3079,22 +3079,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3115,30 +3115,34 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3148,7 +3152,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3166,47 +3170,43 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3224,11 +3224,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3245,12 +3241,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3260,7 +3256,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3295,22 +3291,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3345,12 +3341,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3360,7 +3356,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3395,12 +3391,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3410,7 +3406,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3445,22 +3441,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3481,7 +3477,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3495,22 +3491,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3528,16 +3524,24 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -3545,12 +3549,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3560,7 +3564,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3578,24 +3582,16 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -3603,22 +3599,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3639,11 +3635,15 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3653,22 +3653,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3689,15 +3689,11 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3707,22 +3703,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3747,32 +3743,40 @@
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3793,44 +3797,40 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3844,22 +3844,26 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -3869,22 +3873,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3898,51 +3902,47 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3961,7 +3961,11 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -3972,31 +3976,27 @@
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4023,24 +4023,24 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4089,22 +4089,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4116,7 +4116,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4125,40 +4129,40 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4170,11 +4174,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4183,40 +4183,44 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4237,44 +4241,36 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4295,7 +4291,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4309,22 +4305,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4345,36 +4341,40 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4399,36 +4399,36 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4440,24 +4440,28 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -4467,22 +4471,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4494,28 +4498,24 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>NCIT_C155691</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
@@ -4525,12 +4525,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4567,7 +4567,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>NCIT_C155691</t>
+          <t>NCIT_C155692</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -4579,22 +4579,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4610,20 +4610,20 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
@@ -4633,22 +4633,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4664,22 +4664,26 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -4687,22 +4691,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4720,24 +4724,20 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
@@ -4745,22 +4745,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4774,7 +4774,11 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -4787,7 +4791,7 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -4799,22 +4803,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4828,11 +4832,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -4843,36 +4843,36 @@
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4900,33 +4900,29 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4945,38 +4941,38 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -4988,35 +4984,47 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5026,7 +5034,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5044,13 +5052,13 @@
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
@@ -5059,7 +5067,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -5073,22 +5081,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5100,34 +5108,31 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -5135,22 +5140,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5168,48 +5173,47 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5227,47 +5231,43 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5294,24 +5294,32 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5321,7 +5329,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5346,44 +5354,36 @@
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5399,22 +5399,22 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
@@ -5422,22 +5422,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5449,24 +5449,28 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>farmland, jewellery, livestock</t>
+          <t>$400, 3000 euros</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
-        </is>
-      </c>
+      <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -5476,22 +5480,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5503,28 +5507,24 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
@@ -5534,22 +5534,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5563,7 +5563,11 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -5574,11 +5578,7 @@
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
@@ -5588,22 +5588,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5617,11 +5617,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -5642,22 +5638,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>age at which a person reports quitting smoking tobacco</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5675,39 +5671,43 @@
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>caste membership</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>age at which a person reports quitting smoking tobacco</t>
+          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5727,19 +5727,23 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr"/>
+          <t>https://sociologydictionary.org/c/caste/</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
     </row>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,10 +569,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Addiction</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -588,35 +604,43 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
+          <t>BCIO:015120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Addiction</t>
+          <t>Ability to comprehend spoken intervention language</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>An individual's ability to follow and understand speech in the intervention language</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -632,35 +656,39 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Comprehend the German language</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:015120</t>
+          <t>BCIO:015105</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ability to comprehend spoken intervention language</t>
+          <t>Ability to read in intervention language</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -670,7 +698,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An individual's ability to follow and understand speech in the intervention language</t>
+          <t>An individual's ability to read and understand texts in the intervention language</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -688,7 +716,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Comprehend the German language</t>
+          <t>The exclusion criteria were an inability to read English</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -713,12 +741,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>BCIO:015115</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ability to read in intervention language</t>
+          <t>Ability to speak in intervention language</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -728,7 +756,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An individual's ability to read and understand texts in the intervention language</t>
+          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -746,7 +774,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>The exclusion criteria were an inability to read English</t>
+          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -771,12 +799,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:015115</t>
+          <t>BCIO:015110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ability to speak in intervention language</t>
+          <t>Ability to write in intervention language</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -786,7 +814,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
+          <t>An individual's ability to formulate written text in the intervention language.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -804,7 +832,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
+          <t>Fluency in written English.</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -829,22 +857,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:015110</t>
+          <t>BCIO:015270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ability to write in intervention language</t>
+          <t>Achieved bachelor's or equivalent level (ISCED Level 6)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>An individual's ability to formulate written text in the intervention language.</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -858,26 +886,30 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Fluency in written English.</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -887,12 +919,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>BCIO:015280</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Achieved bachelor's or equivalent level (ISCED Level 6)</t>
+          <t>Achieved doctoral or equivalent level (ISCED Level 8)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -902,7 +934,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
+          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -918,7 +950,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
+          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -935,11 +967,7 @@
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -949,12 +977,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015250</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Achieved doctoral or equivalent level (ISCED Level 8)</t>
+          <t>Achieved early childhood education (ISCED 0)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -964,7 +992,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
+          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -980,7 +1008,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1007,12 +1035,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:015250</t>
+          <t>BCIO:015260</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Achieved early childhood education (ISCED 0)</t>
+          <t>Achieved lower secondary education (ISCED Level 2)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1022,7 +1050,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1038,7 +1066,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
+          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1055,7 +1083,11 @@
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1065,12 +1097,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:015260</t>
+          <t>BCIO:015275</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Achieved lower secondary education (ISCED Level 2)</t>
+          <t>Achieved master's or equivalent level (ISCED Level 7)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1080,7 +1112,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
+          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1096,7 +1128,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
+          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1113,11 +1145,7 @@
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1127,12 +1155,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015255</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Achieved master's or equivalent level (ISCED Level 7)</t>
+          <t>Achieved primary education (ISCED Level 1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1142,7 +1170,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
+          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1158,7 +1186,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
+          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1175,7 +1203,11 @@
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1185,12 +1217,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:015255</t>
+          <t>BCIO:015265</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Achieved primary education (ISCED Level 1)</t>
+          <t>Achieved upper secondary education (ISCED Level 3)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1200,7 +1232,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1216,7 +1248,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
+          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1235,7 +1267,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1247,22 +1279,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>ADDICTO:0000926</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Achieved upper secondary education (ISCED Level 3)</t>
+          <t>Age of substance use initiation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
+          <t>age at which a person initiated substance use</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1276,45 +1308,33 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ADDICTO:0000926</t>
+          <t>BCIO:050205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Age of substance use initiation</t>
+          <t>Age of tobacco use initiation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1324,7 +1344,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>age at which a person initiated substance use</t>
+          <t>age at which a person initiated tobacco use</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1346,7 +1366,11 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
@@ -1354,27 +1378,31 @@
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age of tobacco use initiation</t>
+          <t>Agreed rent-free occupier</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>age at which a person initiated tobacco use</t>
+          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1393,42 +1421,38 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
-        </is>
-      </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>BCIO:015045</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Agreed rent-free occupier</t>
+          <t>Asexual</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1449,11 +1473,15 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>NCIT_C155696</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1463,22 +1491,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:015045</t>
+          <t>ERO:0002055</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Asexual</t>
+          <t>Aunt or uncle relationship</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1503,36 +1531,36 @@
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>NCIT_C155696</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ERO:0002055</t>
+          <t>BCIO:015005</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aunt or uncle relationship</t>
+          <t>BCI participant</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
+          <t>a person who is exposed to a BCI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1546,47 +1574,43 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015005</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BCI participant</t>
+          <t>Behaviour Change Intervention population</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>Human population/ object aggregate</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>a person who is exposed to a BCI</t>
+          <t>an aggregate of people who are exposed to a BCI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1600,15 +1624,15 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
@@ -1621,22 +1645,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:015050</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Behaviour Change Intervention population</t>
+          <t>Bisexual</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Human population/ object aggregate</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>an aggregate of people who are exposed to a BCI</t>
+          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1654,14 +1678,18 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>BCIO</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>NCIT_C84364</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1671,22 +1699,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:015050</t>
+          <t>BCIO:015410</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bisexual</t>
+          <t>Caregiving role</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
+          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1704,18 +1732,18 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>NCIT_C84364</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1725,22 +1753,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:015410</t>
+          <t xml:space="preserve">ERO_0002047 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Caregiving role</t>
+          <t>Child relationship</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
+          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1758,11 +1786,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -1772,31 +1796,27 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ERO_0002047 </t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Child relationship</t>
+          <t>Cigarette dependence</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>family member relationship</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1813,14 +1833,14 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
@@ -1828,27 +1848,31 @@
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cigarette dependence</t>
+          <t>Country of birth</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1866,43 +1890,47 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t xml:space="preserve">ERO:0002052 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t xml:space="preserve">Cousin relationship </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1920,47 +1948,43 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1988,33 +2012,29 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2039,7 +2059,11 @@
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -2049,22 +2073,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2083,42 +2107,38 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2137,38 +2157,42 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2195,7 +2219,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>NCIT_C25172</t>
+          <t>OPMI:0000123</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2207,22 +2231,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2240,18 +2264,18 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>OPMI:0000123</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -2261,22 +2285,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2294,18 +2318,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -2315,22 +2339,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2349,42 +2373,38 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2403,7 +2423,11 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2419,22 +2443,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2459,36 +2483,40 @@
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2507,15 +2535,11 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+          <t>BCIO:010110 gender of person source</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2524,29 +2548,29 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2565,42 +2589,42 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2625,26 +2649,26 @@
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2654,7 +2678,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2693,12 +2717,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2708,7 +2732,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2747,12 +2771,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2762,7 +2786,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2801,22 +2825,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2841,36 +2865,36 @@
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2884,20 +2908,24 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>NCIT_C84362</t>
+          <t xml:space="preserve">NCIT_C17953 </t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2909,12 +2937,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2924,7 +2952,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2938,28 +2966,28 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -2967,22 +2995,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3009,15 +3037,11 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3025,22 +3049,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3061,30 +3085,34 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3094,7 +3122,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3112,47 +3140,43 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3170,11 +3194,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3191,12 +3211,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3206,7 +3226,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3241,22 +3261,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3291,12 +3311,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3306,7 +3326,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3341,12 +3361,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3356,7 +3376,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3391,22 +3411,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3427,7 +3447,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3441,22 +3461,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3474,16 +3494,24 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
@@ -3491,12 +3519,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3506,7 +3534,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3524,24 +3552,16 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -3549,22 +3569,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3585,11 +3605,15 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
@@ -3599,22 +3623,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3635,15 +3659,11 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3653,22 +3673,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3693,32 +3713,40 @@
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3739,44 +3767,40 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3790,22 +3814,26 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -3813,26 +3841,18 @@
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>BCIO:015490</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>health status attribute</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -3844,51 +3864,51 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3907,7 +3927,11 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
@@ -3918,31 +3942,27 @@
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3969,24 +3989,24 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3996,7 +4016,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4035,22 +4055,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4062,7 +4082,11 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4071,40 +4095,40 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4116,11 +4140,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4129,40 +4149,44 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4183,44 +4207,36 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4241,7 +4257,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4255,22 +4271,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4291,36 +4307,40 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4345,36 +4365,36 @@
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4386,24 +4406,28 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -4413,22 +4437,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4440,28 +4464,24 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>NCIT_C155691</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -4471,12 +4491,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4486,7 +4506,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4513,7 +4533,7 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr">
         <is>
-          <t>NCIT_C155691</t>
+          <t>NCIT_C155692</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -4525,22 +4545,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4556,20 +4576,20 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
@@ -4579,22 +4599,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4610,22 +4630,26 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -4633,22 +4657,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4666,24 +4690,20 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -4691,22 +4711,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4720,7 +4740,11 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -4733,7 +4757,7 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -4745,22 +4769,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4774,11 +4798,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -4789,36 +4809,36 @@
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4846,33 +4866,29 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4891,38 +4907,38 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4934,35 +4950,47 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4972,7 +5000,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -4990,13 +5018,13 @@
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
@@ -5005,7 +5033,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -5019,22 +5047,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5046,34 +5074,31 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -5081,22 +5106,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5114,48 +5139,47 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5173,47 +5197,43 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5240,24 +5260,32 @@
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5267,7 +5295,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5292,44 +5320,36 @@
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
+      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5345,22 +5365,22 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
@@ -5368,22 +5388,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5395,24 +5415,28 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>farmland, jewellery, livestock</t>
+          <t>$400, 3000 euros</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
-        </is>
-      </c>
+      <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
@@ -5422,22 +5446,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5449,28 +5473,24 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -5480,22 +5500,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5509,7 +5529,11 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -5520,11 +5544,7 @@
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
@@ -5534,22 +5554,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5563,11 +5583,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -5588,22 +5604,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>age at which a person reports quitting smoking tobacco</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5621,39 +5637,43 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>caste membership</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>age at which a person reports quitting smoking tobacco</t>
+          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5673,41 +5693,45 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr"/>
+          <t>https://sociologydictionary.org/c/caste/</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>caste membership</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
+          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5721,22 +5745,26 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
+        </is>
+      </c>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>psychology, counselling, public health</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>https://sociologydictionary.org/c/caste/</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
+        </is>
+      </c>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr">
         <is>
@@ -5745,17 +5773,21 @@
       </c>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5765,7 +5797,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
+          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -5779,59 +5811,47 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
-        </is>
-      </c>
+      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>psychology, counselling, public health</t>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+          <t>newly added</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>EFO:0001799</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
+          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -5849,43 +5869,59 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>BCIO:010114 ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>newly added</t>
+          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EFO:0001799</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -5901,61 +5937,37 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>BCIO:010114 ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>ERO:0002033</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -5978,30 +5990,38 @@
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ERO:0002033</t>
+          <t>BCIO:050206</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>former cigarette smoker</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
+          <t>former tobacco user who smoked cigarettes</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6023,7 +6043,11 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr">
         <is>
           <t>AW</t>
@@ -6040,22 +6064,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>former cigarette smoker</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>former psychoactive substance user</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>former tobacco user who smoked cigarettes</t>
+          <t>former substance user whose substance was a tobacco-containing produce</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6073,7 +6097,11 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000777</t>
+        </is>
+      </c>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
@@ -6089,27 +6117,31 @@
         </is>
       </c>
       <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>former psychoactive substance user</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>former substance user whose substance was a tobacco-containing produce</t>
+          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6125,53 +6157,49 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+        </is>
+      </c>
       <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000777</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
+          <t>An attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6189,47 +6217,55 @@
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+          <t>Having chicken pox, asthma, a heart attack</t>
         </is>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion (for specific health conditions)</t>
         </is>
       </c>
       <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+        </is>
+      </c>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
+          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>An attribute that is the state of an individual's mental or physical condition.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6245,22 +6281,18 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
+      <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Proportion (for specific health conditions)</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr">
         <is>
-          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -6271,31 +6303,27 @@
       </c>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
-        </is>
-      </c>
+      <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6316,21 +6344,13 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
@@ -6338,22 +6358,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6367,43 +6387,51 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+        </is>
+      </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>BCIO:015160</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>household</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
+          <t>household income</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t>an aggregate of the individual incomes received by all the members of a household</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6416,52 +6444,56 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
-        </is>
-      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>OMRSE:00000076</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFO_0009695 </t>
+        </is>
+      </c>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:015160</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>household income</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>an aggregate of the individual incomes received by all the members of a household</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6474,33 +6506,25 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
+      <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>walks for 15 mins/day, never eats meat, attends school</t>
+        </is>
+      </c>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
-        </is>
-      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EFO_0009695 </t>
-        </is>
-      </c>
+      <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
@@ -6508,22 +6532,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>role in human social processes</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6539,45 +6563,45 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school</t>
-        </is>
-      </c>
+      <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>BCIO</t>
-        </is>
-      </c>
+      <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>OMRSE:00000092</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>role in human social processes</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6596,42 +6620,46 @@
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Proportion with a particular interpersonal role</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
+        </is>
+      </c>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
-        </is>
-      </c>
+      <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015100</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>linguistic capability (MF_0000050)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6647,18 +6675,18 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
+        </is>
+      </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>Proportion with a particular interpersonal role</t>
-        </is>
-      </c>
+      <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr">
         <is>
-          <t>NCIT_C92454</t>
+          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -6669,27 +6697,31 @@
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015100</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>linguistic capability (MF_0000050)</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
+          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6703,22 +6735,22 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
+        </is>
+      </c>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
-        </is>
-      </c>
+      <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr">
         <is>
@@ -6727,31 +6759,27 @@
       </c>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>member of a multi-person household all related</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -6765,13 +6793,13 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
-        </is>
-      </c>
+      <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
@@ -6780,7 +6808,11 @@
         </is>
       </c>
       <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+        </is>
+      </c>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr">
         <is>
@@ -6794,12 +6826,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>member of a multi-person household all related</t>
+          <t>member of a multi-person household not related</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6809,7 +6841,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -6827,7 +6859,7 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
         </is>
       </c>
       <c r="S115" t="inlineStr"/>
@@ -6840,7 +6872,7 @@
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -6856,12 +6888,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>member of a multi-person household not related</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6871,7 +6903,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
+          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6889,7 +6921,7 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
         </is>
       </c>
       <c r="S116" t="inlineStr"/>
@@ -6918,22 +6950,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>member of a multi-person household some related</t>
+          <t>member of a multi-person multi-generational household</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>Member of a multi-person household</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -6947,11 +6979,15 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
+        </is>
+      </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
         <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
         </is>
       </c>
       <c r="S117" t="inlineStr"/>
@@ -6980,22 +7016,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>member of a multi-person multi-generational household</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
+          <t>A sociodemographic attribute of a person living alone in a household</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -7009,17 +7045,9 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
+      <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
-        </is>
-      </c>
+      <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
@@ -7028,11 +7056,7 @@
         </is>
       </c>
       <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
-        </is>
-      </c>
+      <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
@@ -7046,22 +7070,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>ADDICTO:0000779</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>member of a one person household</t>
+          <t>never smoker</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>non-psychoactive substance user</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living alone in a household</t>
+          <t>a person who has never smoked tobacco</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7079,43 +7103,47 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>ADDICTO:000079</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ADDICTO:0000779</t>
+          <t>ADDICTO:0000386</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>never smoker</t>
+          <t>non-daily tobacco smoker</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>non-psychoactive substance user</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>a person who has never smoked tobacco</t>
+          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -7130,12 +7158,16 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Occasional current tobacco user</t>
+        </is>
+      </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
-          <t>ADDICTO:000079</t>
+          <t>ADDICTO:0000386</t>
         </is>
       </c>
       <c r="U120" t="inlineStr"/>
@@ -7149,31 +7181,27 @@
         </is>
       </c>
       <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr">
-        <is>
-          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
-        </is>
-      </c>
+      <c r="AB120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
+          <t>ADDICTO:0000690</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>non-daily tobacco smoker</t>
+          <t>number of cigarettes smoked per day</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
+          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -7188,52 +7216,48 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>Occasional current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
+          <t>ADDICTO0000690</t>
         </is>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
       <c r="Z121" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>ADDICTO000690</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>number of cigarettes smoked per day</t>
+          <t>number of times formerly tobacco used</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
-        </is>
-      </c>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -7249,15 +7273,15 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>ADDICTO0000690</t>
-        </is>
-      </c>
+      <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y122" t="inlineStr">
         <is>
           <t>AW</t>
@@ -7271,29 +7295,29 @@
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
+          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>class not yet defined in addicto</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>number of times formerly tobacco used</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -7312,46 +7336,46 @@
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>proportion with a specific occupational role</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>occupational role of source BCIO:010004</t>
+        </is>
+      </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr">
-        <is>
-          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
-        </is>
-      </c>
+      <c r="AB123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015200</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>occupier of employer-provided housing</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -7372,21 +7396,13 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>proportion with a specific occupational role</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>occupational role of source BCIO:010004</t>
-        </is>
-      </c>
+      <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
@@ -7394,22 +7410,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing</t>
+          <t>organisational role</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
+          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -7430,13 +7446,21 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion with a specific organisational role</t>
         </is>
       </c>
       <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>OBI_0000245.  (organization)</t>
+        </is>
+      </c>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
@@ -7444,25 +7468,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>SDGIO:00010028</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>organisational role</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -7477,61 +7505,61 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Proportion with a specific organisational role</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>OBI_0000245.  (organization)</t>
-        </is>
-      </c>
+      <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SDGIO:00010028</t>
+          <t>SDGIO:00010018</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>owner role</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
-        </is>
-      </c>
+          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>ownership process</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -7544,11 +7572,7 @@
           <t>SDGIO</t>
         </is>
       </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
@@ -7564,22 +7588,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SDGIO:00010018</t>
+          <t>BCIO:015170</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>owner role</t>
+          <t>owner-occupier</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
+          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -7589,11 +7613,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>ownership process</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -7601,43 +7621,39 @@
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>SDGIO:00010027</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>owner-occupier</t>
+          <t>ownership process</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
+          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -7655,39 +7671,47 @@
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SDGIO:00010027</t>
+          <t>OBI:0000093</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ownership process</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
+          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7705,12 +7729,12 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
-      <c r="U130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
@@ -7730,22 +7754,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>OBI:0000093</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
+          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -7763,20 +7787,16 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>MFO</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
           <t>External</t>
@@ -7788,22 +7808,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>personal psychological attribute</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -7816,48 +7836,56 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>BCI participant</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+        </is>
+      </c>
       <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>MFO</t>
-        </is>
-      </c>
+      <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>OMRSE:00000094</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -7870,56 +7898,48 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>BCI participant</t>
-        </is>
-      </c>
+      <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
-        </is>
-      </c>
+      <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
+          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>OMRSE:00000094</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
+          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7938,42 +7958,42 @@
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>Proportion with a particular relationship status</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr">
-        <is>
-          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
-        </is>
-      </c>
+      <c r="AB134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
+          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -7989,16 +8009,24 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
+        </is>
+      </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>Proportion with a particular relationship status</t>
+          <t>Proportion belonging to a specified group</t>
         </is>
       </c>
       <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
+        </is>
+      </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
@@ -8007,27 +8035,31 @@
       </c>
       <c r="Z135" t="inlineStr"/>
       <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
+          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -8043,47 +8075,31 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>Proportion belonging to a specified group</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8093,7 +8109,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -8128,22 +8144,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>renter of housing from a social provider</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>renter</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -8159,7 +8175,11 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
+        </is>
+      </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
@@ -8178,22 +8198,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
+          <t>an owner of a residential facility</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -8209,16 +8229,12 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
-        </is>
-      </c>
+      <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V139" t="inlineStr"/>
@@ -8227,27 +8243,31 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>an owner of a residential facility</t>
+          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -8265,33 +8285,37 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
-        </is>
-      </c>
+      <c r="AB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015040</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8301,7 +8325,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
+          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -8319,18 +8343,14 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
@@ -8344,22 +8364,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015040</t>
+          <t>BCIO:015010</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+          <t>an attribute of a person that describes their social or economic situation</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -8372,7 +8392,11 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
@@ -8382,7 +8406,7 @@
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr">
         <is>
-          <t>NCIT_C84361</t>
+          <t>BCIO:010108 socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
@@ -8398,22 +8422,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015010</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>an attribute of a person that describes their social or economic situation</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -8426,21 +8450,21 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr">
         <is>
-          <t>BCIO:010108 socio demographic attribute of person source</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
@@ -8451,27 +8475,31 @@
       </c>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">Tobacco-containing product user </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A psychoactive substance user who participates in tobacco smoking.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8490,50 +8518,38 @@
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>BCIO:010084</t>
-        </is>
-      </c>
+      <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
-        </is>
-      </c>
+      <c r="AB144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ADDICTO:0000405</t>
+          <t>ADDICTO:0000849</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t xml:space="preserve">tobacco-containing product user </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t>human being</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A psychoactive substance user who participates in tobacco smoking.</t>
+          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -8548,15 +8564,27 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Current tobacco user</t>
+        </is>
+      </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z145" t="inlineStr">
         <is>
           <t>External</t>
@@ -8564,68 +8592,6 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000849</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">tobacco-containing product user </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>human being</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>Current tobacco user</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000849</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -7317,7 +7317,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A role that is realised by doing a specified type of work or working in a specified way.</t>
+          <t>A role that is realised by a person doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -1279,22 +1279,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ADDICTO:0000926</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Age of substance use initiation</t>
+          <t>Agreed rent-free occupier</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>age at which a person initiated substance use</t>
+          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1313,38 +1313,38 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050205</t>
+          <t>BCIO:015045</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Age of tobacco use initiation</t>
+          <t>Asexual</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>age at which a person initiated tobacco use</t>
+          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1363,46 +1363,42 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>class to be added to addicto</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>NCIT_C155696</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
-        </is>
-      </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>ERO:0002055</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Agreed rent-free occupier</t>
+          <t>Aunt or uncle relationship</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1423,36 +1419,40 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015045</t>
+          <t>BCIO:015005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Asexual</t>
+          <t>BCI participant</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
+          <t>a person who is exposed to a BCI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1466,22 +1466,18 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>NCIT_C155696</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1491,22 +1487,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ERO:0002055</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aunt or uncle relationship</t>
+          <t>Behaviour Change Intervention population</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>Human population/ object aggregate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
+          <t>an aggregate of people who are exposed to a BCI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1524,43 +1520,39 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015005</t>
+          <t>BCIO:015050</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BCI participant</t>
+          <t>Bisexual</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>a person who is exposed to a BCI</t>
+          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1574,18 +1566,22 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>NCIT_C84364</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1595,22 +1591,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:015410</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Behaviour Change Intervention population</t>
+          <t>Caregiving role</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Human population/ object aggregate</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>an aggregate of people who are exposed to a BCI</t>
+          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1630,10 +1626,14 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>BCIO</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
+          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
@@ -1645,22 +1645,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:015050</t>
+          <t xml:space="preserve">ERO_0002047 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bisexual</t>
+          <t>Child relationship</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
+          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1685,38 +1685,30 @@
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>NCIT_C84364</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BCIO:015410</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Caregiving role</t>
+          <t>Cigarette dependence</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1732,43 +1724,47 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO_0002047 </t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Child relationship</t>
+          <t>Country of birth</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1786,37 +1782,49 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ERO:0002052 </t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cigarette dependence</t>
+          <t xml:space="preserve">Cousin relationship </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>family member relationship</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1833,14 +1841,14 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
@@ -1848,31 +1856,27 @@
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1890,22 +1894,14 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1915,22 +1911,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1955,36 +1951,36 @@
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2003,38 +1999,38 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2061,7 +2057,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>NCIT_C25172</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2073,22 +2069,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2107,28 +2103,32 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>OPMI:0000123</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2156,18 +2156,18 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U30" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>NCIT_C25172</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -2177,12 +2177,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2219,7 +2219,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>OPMI:0000123</t>
+          <t>NCIT_C75562</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2231,22 +2231,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2264,43 +2264,39 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2321,40 +2317,40 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2373,38 +2369,46 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2423,42 +2427,42 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>BCIO:010110 gender of person source</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2479,44 +2483,40 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2535,42 +2535,42 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>BCIO:010110 gender of person source</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2595,26 +2595,26 @@
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2663,12 +2663,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2717,22 +2717,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2757,36 +2757,36 @@
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2800,47 +2800,51 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C17953 </t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2867,11 +2871,15 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>NCIT_C84362</t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -2879,22 +2887,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2908,24 +2916,20 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2937,12 +2941,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2952,7 +2956,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2973,44 +2977,44 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3028,18 +3032,18 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>NCIT_C84363</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -3049,22 +3053,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3085,44 +3089,36 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3140,11 +3136,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3161,22 +3153,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3211,22 +3203,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3261,12 +3253,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3276,7 +3268,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3311,22 +3303,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3347,7 +3339,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3361,22 +3353,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3394,7 +3386,11 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U53" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3403,7 +3399,11 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
@@ -3411,22 +3411,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3461,22 +3461,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3494,24 +3494,20 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
@@ -3519,22 +3515,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3555,7 +3551,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3569,22 +3565,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3605,40 +3601,44 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3659,11 +3659,15 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3673,22 +3677,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3702,9 +3706,17 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
@@ -3713,42 +3725,26 @@
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BCIO:015475</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Nicotine dependence</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>higher education student role</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -3765,42 +3761,46 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3814,45 +3814,49 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BCIO:015330</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -3869,46 +3873,42 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3935,34 +3935,34 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3974,7 +3974,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3983,40 +3987,40 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4037,40 +4041,44 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4082,11 +4090,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4095,7 +4099,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4104,31 +4108,27 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4153,40 +4153,32 @@
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4214,29 +4206,33 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4257,11 +4253,15 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -4271,22 +4271,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4298,49 +4298,53 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4367,7 +4371,7 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>NCIT_C155691</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4379,22 +4383,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4406,28 +4410,24 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -4437,22 +4437,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4468,20 +4468,20 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -4491,22 +4491,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4524,20 +4524,24 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U74" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
@@ -4545,22 +4549,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4576,20 +4580,20 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
@@ -4599,22 +4603,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4628,28 +4632,28 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -4657,22 +4661,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4697,36 +4701,36 @@
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4740,11 +4744,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -4755,11 +4755,7 @@
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
@@ -4769,22 +4765,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4803,11 +4799,7 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -4823,22 +4815,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4850,13 +4842,25 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U80" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -4873,22 +4877,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4900,45 +4904,57 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Mean; Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4950,34 +4966,31 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -4985,22 +4998,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5012,57 +5025,53 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Mean; Minimum;Maximum;Median</t>
-        </is>
-      </c>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5089,16 +5098,11 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -5106,22 +5110,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5139,47 +5143,51 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO_00010026 </t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5204,13 +5212,13 @@
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -5218,22 +5226,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO:00010026 </t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5249,53 +5257,45 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5307,26 +5307,30 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -5334,22 +5338,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5365,18 +5369,18 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr">
         <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X89" t="inlineStr"/>
@@ -5388,22 +5392,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5415,24 +5419,20 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
@@ -5446,22 +5446,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5486,11 +5486,7 @@
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -5500,22 +5496,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>The age at which a person reports quitting smoking tobacco.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5529,47 +5525,51 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>ADDICTO:0000926</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>age of substance use initiation</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>The age at which a person initiated substance use.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5588,28 +5588,32 @@
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>ADDICTO:0001221</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>age of tobacco use initiation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5619,7 +5623,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>age at which a person reports quitting smoking tobacco</t>
+          <t xml:space="preserve">An age of substance use initiation in which the substance is tobacco. </t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5637,23 +5641,31 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
+      <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z94" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -1697,18 +1697,26 @@
       <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BCIO:015080</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cigarette dependence</t>
+          <t>Country of birth</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1724,47 +1732,47 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t xml:space="preserve">ERO:0002052 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t xml:space="preserve">Cousin relationship </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1782,47 +1790,43 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>Divorced or separated</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1850,33 +1854,29 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>Doctoral student role</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1901,7 +1901,11 @@
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1911,22 +1915,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>Education process</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1945,42 +1949,38 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>Employed</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1999,38 +1999,42 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Employed full time</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2057,7 +2061,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NCIT_C25172</t>
+          <t>OPMI:0000123</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2069,22 +2073,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Employed in shift work</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2102,18 +2106,18 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>OPMI:0000123</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2123,22 +2127,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>Employed part time</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2156,18 +2160,18 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -2177,22 +2181,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Employment process</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2211,42 +2215,38 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>NCIT_C75562</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>Employment status</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2265,7 +2265,11 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -2281,22 +2285,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2321,36 +2325,40 @@
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2369,15 +2377,11 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+          <t>BCIO:010110 gender of person source</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2386,29 +2390,29 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Graduate student role</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2427,42 +2431,42 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>Grandchild relationship</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2487,26 +2491,26 @@
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>Grandparent relationship</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2516,7 +2520,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2555,12 +2559,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>Great grandchild relationship</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2570,7 +2574,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2609,12 +2613,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>Great grandparent relationship</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2624,7 +2628,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2663,22 +2667,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>Heterosexual</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2703,36 +2707,36 @@
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2746,20 +2750,24 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>NCIT_C84362</t>
+          <t xml:space="preserve">NCIT_C17953 </t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2771,12 +2779,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Homemaker status</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2786,7 +2794,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2800,28 +2808,28 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Proportion with a specific highest educational qualification</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -2829,22 +2837,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>Homosexual</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2871,15 +2879,11 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>NCIT_C75560</t>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -2887,22 +2891,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>Human age</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2923,30 +2927,34 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2956,7 +2964,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2974,47 +2982,43 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>In a legal marriage or union</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3032,11 +3036,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3053,12 +3053,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>In a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3103,22 +3103,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3153,12 +3153,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>In short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3203,12 +3203,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>In uncertain employment</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3253,22 +3253,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>Income-related welfare benefit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3303,22 +3303,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>Independently wealthy status</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3336,16 +3336,24 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
@@ -3353,12 +3361,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>Individual income</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3368,7 +3376,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3386,24 +3394,16 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
@@ -3411,22 +3411,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>Informal education student role</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3447,11 +3447,15 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>BCIO:010085</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -3461,22 +3465,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>Inpatient role</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3497,15 +3501,11 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -3515,22 +3515,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3555,32 +3555,40 @@
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3601,44 +3609,40 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3652,22 +3656,26 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3677,22 +3685,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3706,45 +3714,49 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BCIO:015330</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nicotine dependence</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -3761,46 +3773,42 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3827,34 +3835,34 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3866,7 +3874,11 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3875,40 +3887,40 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3929,40 +3941,44 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3974,11 +3990,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3987,7 +3999,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -3996,31 +4008,27 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4045,40 +4053,32 @@
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>Parent or guardian</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4106,29 +4106,33 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>Preschool student role</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4149,11 +4153,15 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
@@ -4163,22 +4171,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>Quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4190,49 +4198,53 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>Queer</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4259,7 +4271,7 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>NCIT_C155691</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -4271,22 +4283,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>Questioning sexual orientation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4298,28 +4310,24 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
@@ -4329,22 +4337,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>Rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4360,20 +4368,20 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
@@ -4383,22 +4391,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>Retired status</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4416,20 +4424,24 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U72" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
@@ -4437,22 +4449,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>School student role</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4468,20 +4480,20 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -4491,22 +4503,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>Self employed status</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4520,28 +4532,28 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
@@ -4549,22 +4561,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>School student role</t>
+          <t>Sibling relationship</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4589,36 +4601,36 @@
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4632,11 +4644,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -4647,11 +4655,7 @@
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
@@ -4661,22 +4665,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4695,11 +4699,7 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -4715,22 +4715,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Socioeconomic status category</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4742,13 +4742,25 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U78" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -4765,22 +4777,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Socioeconomic status score</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4792,45 +4804,57 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Mean; Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>Stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4842,34 +4866,31 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
@@ -4877,22 +4898,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>Tobacco use disorder</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4904,57 +4925,53 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Mean; Minimum;Maximum;Median</t>
-        </is>
-      </c>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>Undergraduate student role</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4981,16 +4998,11 @@
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -4998,22 +5010,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>Unemployed status</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5031,47 +5043,51 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO_00010026 </t>
+        </is>
+      </c>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>Unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5096,13 +5112,13 @@
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -5110,22 +5126,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO:00010026 </t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>Valuable material resource</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5141,53 +5157,45 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>Value of valuable material resource</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5199,26 +5207,30 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -5226,22 +5238,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>Vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5257,18 +5269,18 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr">
         <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
@@ -5280,22 +5292,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>Voluntary worker status</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5307,24 +5319,20 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
@@ -5338,22 +5346,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5378,11 +5386,7 @@
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
@@ -5392,22 +5396,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>The age at which a person reports quitting smoking tobacco.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5421,47 +5425,51 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>ADDICTO:0000926</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>age of substance use initiation</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t>The age at which a person initiated substance use.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5480,28 +5488,32 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>ADDICTO:0001221</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>age of tobacco use initiation</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5511,7 +5523,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The age at which a person reports quitting smoking tobacco.</t>
+          <t xml:space="preserve">An age of substance use initiation in which the substance is tobacco. </t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5529,15 +5541,15 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr">
         <is>
           <t>JH</t>
@@ -5549,27 +5561,31 @@
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ADDICTO:0000926</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>age of substance use initiation</t>
+          <t>caste membership</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The age at which a person initiated substance use.</t>
+          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5587,45 +5603,45 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>https://sociologydictionary.org/c/caste/</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ADDICTO:0001221</t>
+          <t>ADDICTO:0001222</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>age of tobacco use initiation</t>
+          <t>cigarette dependence</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An age of substance use initiation in which the substance is tobacco. </t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -5647,7 +5663,7 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>class to be added to addicto</t>
+          <t>class not yet defined in addicto</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -5663,29 +5679,29 @@
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>caste membership</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
+          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5699,22 +5715,26 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>psychology, counselling, public health</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>https://sociologydictionary.org/c/caste/</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr">
         <is>
@@ -5723,17 +5743,21 @@
       </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5743,7 +5767,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
+          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5757,59 +5781,47 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
-        </is>
-      </c>
+      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>psychology, counselling, public health</t>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
-        </is>
-      </c>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+          <t>newly added</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>EFO:0001799</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
+          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -5827,43 +5839,59 @@
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Proportion belonging to a specified group</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>BCIO:010114 ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>newly added</t>
+          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EFO:0001799</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -5879,61 +5907,37 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>BCIO:010114 ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>ERO:0002033</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -5956,30 +5960,38 @@
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ERO:0002033</t>
+          <t>BCIO:050206</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>former cigarette smoker</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
+          <t>former tobacco user who smoked cigarettes</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6001,7 +6013,11 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
       <c r="Y100" t="inlineStr">
         <is>
           <t>AW</t>
@@ -6018,22 +6034,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050206</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>former cigarette smoker</t>
+          <t>former tobacco user</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>former psychoactive substance user</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>former tobacco user who smoked cigarettes</t>
+          <t>former substance user whose substance was a tobacco-containing produce</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6051,15 +6067,15 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000777</t>
+        </is>
+      </c>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>class to be added to addicto</t>
-        </is>
-      </c>
+      <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr">
         <is>
           <t>AW</t>
@@ -6071,27 +6087,31 @@
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>former psychoactive substance user</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>former substance user whose substance was a tobacco-containing produce</t>
+          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6107,53 +6127,49 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+        </is>
+      </c>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000777</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
+          <t>An attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6171,47 +6187,55 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+          <t>Having chicken pox, asthma, a heart attack</t>
         </is>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion (for specific health conditions)</t>
         </is>
       </c>
       <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+        </is>
+      </c>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
+          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>An attribute that is the state of an individual's mental or physical condition.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6227,22 +6251,18 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
+      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Proportion (for specific health conditions)</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr">
         <is>
-          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -6253,31 +6273,27 @@
       </c>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
-        </is>
-      </c>
+      <c r="AB104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6298,21 +6314,13 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
@@ -6320,22 +6328,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6349,43 +6357,51 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+        </is>
+      </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>BCIO:015160</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>household</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
+          <t>household income</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t>an aggregate of the individual incomes received by all the members of a household</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6398,52 +6414,56 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
-        </is>
-      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>OMRSE:00000076</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFO_0009695 </t>
+        </is>
+      </c>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:015160</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>household income</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>an aggregate of the individual incomes received by all the members of a household</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6456,33 +6476,25 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
+      <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>walks for 15 mins/day, never eats meat, attends school</t>
+        </is>
+      </c>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
-        </is>
-      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EFO_0009695 </t>
-        </is>
-      </c>
+      <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
@@ -6490,22 +6502,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>role in human social processes</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6521,45 +6533,45 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school</t>
-        </is>
-      </c>
+      <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>BCIO</t>
-        </is>
-      </c>
+      <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>OMRSE:00000092</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>role in human social processes</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6578,42 +6590,46 @@
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Proportion with a particular interpersonal role</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
+        </is>
+      </c>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
-        </is>
-      </c>
+      <c r="AB110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015100</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>linguistic capability (MF_0000050)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6629,18 +6645,18 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
+        </is>
+      </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>Proportion with a particular interpersonal role</t>
-        </is>
-      </c>
+      <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr">
         <is>
-          <t>NCIT_C92454</t>
+          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
@@ -6651,27 +6667,31 @@
       </c>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015100</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>linguistic capability (MF_0000050)</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
+          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6685,22 +6705,22 @@
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
+        </is>
+      </c>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
+      <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
-        </is>
-      </c>
+      <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr">
         <is>
@@ -6709,31 +6729,27 @@
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>member of a multi-person household all related</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6747,13 +6763,13 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
-        </is>
-      </c>
+      <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
@@ -6762,7 +6778,11 @@
         </is>
       </c>
       <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+        </is>
+      </c>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr">
         <is>
@@ -6776,12 +6796,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>member of a multi-person household all related</t>
+          <t>member of a multi-person household not related</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6791,7 +6811,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -6809,7 +6829,7 @@
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr">
         <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
         </is>
       </c>
       <c r="S114" t="inlineStr"/>
@@ -6822,7 +6842,7 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -6838,12 +6858,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>member of a multi-person household not related</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6853,7 +6873,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
+          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -6871,7 +6891,7 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
         </is>
       </c>
       <c r="S115" t="inlineStr"/>
@@ -6900,22 +6920,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>member of a multi-person household some related</t>
+          <t>member of a multi-person multi-generational household</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>Member of a multi-person household</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6929,11 +6949,15 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
+        </is>
+      </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
         </is>
       </c>
       <c r="S116" t="inlineStr"/>
@@ -6962,22 +6986,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>member of a multi-person multi-generational household</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
+          <t>A sociodemographic attribute of a person living alone in a household</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -6991,17 +7015,9 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
+      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
-        </is>
-      </c>
+      <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
@@ -7010,11 +7026,7 @@
         </is>
       </c>
       <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
-        </is>
-      </c>
+      <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
@@ -7028,22 +7040,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>ADDICTO:0000779</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>member of a one person household</t>
+          <t>never smoker</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>non-psychoactive substance user</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living alone in a household</t>
+          <t>a person who has never smoked tobacco</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -7061,43 +7073,47 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>ADDICTO:000079</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ADDICTO:0000779</t>
+          <t>ADDICTO:0001213</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>never smoker</t>
+          <t>nicotine dependence</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>non-psychoactive substance user</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>a person who has never smoked tobacco</t>
+          <t>Substance dependence in which the dependence is on nicotine.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7115,16 +7131,20 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>ADDICTO:000079</t>
-        </is>
-      </c>
+      <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr">
         <is>
           <t>External</t>
@@ -7133,7 +7153,7 @@
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
         </is>
       </c>
     </row>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -5976,7 +5976,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050206</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>former substance user</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>former tobacco user who smoked cigarettes</t>
+          <t>A person who was a cigarette smoker in the past but is not currently a cigarette smoker.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -6034,22 +6034,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>ADDICTO:0000713</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>former tobacco user</t>
+          <t>former tobacco smoker</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>former psychoactive substance user</t>
+          <t>former substance user</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>former substance user whose substance was a tobacco-containing produce</t>
+          <t>A person who was a tobacco smoker in the past but who is not currently a tobacco smoker.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6078,7 +6078,7 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -571,22 +571,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Addiction</t>
+          <t>Immigrant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -606,41 +606,41 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:015120</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ability to comprehend spoken intervention language</t>
+          <t>In permanent employment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An individual's ability to follow and understand speech in the intervention language</t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -656,20 +656,12 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Comprehend the German language</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -683,22 +675,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ability to read in intervention language</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An individual's ability to read and understand texts in the intervention language</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -714,49 +706,49 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>The exclusion criteria were an inability to read English</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>proportion</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:015115</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ability to speak in intervention language</t>
+          <t>Masters student role</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
+          <t>A higher education student  role realised by currently studying for a masters degree</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -772,24 +764,20 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -799,22 +787,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:015110</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ability to write in intervention language</t>
+          <t>Medication use status</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An individual's ability to formulate written text in the intervention language.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -828,19 +816,19 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Fluency in written English.</t>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>proportion</t>
@@ -857,22 +845,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>ERO:0002058</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Achieved bachelor's or equivalent level (ISCED Level 6)</t>
+          <t>Niece or nephew relationship</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
+          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -886,55 +874,47 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Achieved doctoral or equivalent level (ISCED Level 8)</t>
+          <t>Not seeking employment</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -948,19 +928,11 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -969,7 +941,11 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
@@ -977,22 +953,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:015250</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Achieved early childhood education (ISCED 0)</t>
+          <t>Not working for health reasons</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1006,19 +982,11 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -1027,7 +995,11 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -1035,22 +1007,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:015260</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Achieved lower secondary education (ISCED Level 2)</t>
+          <t>Number of years in education completed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
+          <t>the number of years a person spent engaged in a full time education process.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1062,57 +1034,53 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Achieved master's or equivalent level (ISCED Level 7)</t>
+          <t>Other gender</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
+          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1126,51 +1094,51 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>NCIT_C154420 BCIO:010113 other gender</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:015255</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Achieved primary education (ISCED Level 1)</t>
+          <t>Other sexual orientation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1184,30 +1152,18 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1217,22 +1173,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Achieved upper secondary education (ISCED Level 3)</t>
+          <t>Outpatient role</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
+          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1246,30 +1202,18 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1279,22 +1223,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>BCIO:015120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Agreed rent-free occupier</t>
+          <t>ability to comprehend spoken intervention language</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
+          <t>An individual's ability to follow and understand speech in the intervention language</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1310,18 +1254,30 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Comprehend the German language</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+        </is>
+      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
@@ -1329,22 +1285,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:015045</t>
+          <t>BCIO:015105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Asexual</t>
+          <t>ability to read in intervention language</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
+          <t>An individual's ability to read and understand texts in the intervention language</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1360,22 +1316,30 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>The exclusion criteria were an inability to read English</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>NCIT_C155696</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
@@ -1383,22 +1347,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ERO:0002055</t>
+          <t>BCIO:015115</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aunt or uncle relationship</t>
+          <t>ability to speak in intervention language</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
+          <t>An individual's ability to produce speech and be understood by speakers in the intervention language</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1414,45 +1378,53 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Residing in Hong Kong for at least 5 days a week, and able to speak Chinese.</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015005</t>
+          <t>BCIO:015110</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BCI participant</t>
+          <t>ability to write in intervention language</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>a person who is exposed to a BCI</t>
+          <t>An individual's ability to formulate written text in the intervention language.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1466,20 +1438,32 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Fluency in written English.</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>https://csb.uncw.edu/cen/docs/determining language proficiency.pdf</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
@@ -1487,22 +1471,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:015270</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Behaviour Change Intervention population</t>
+          <t>achieved bachelor's or equivalent level (ISCED Level 6)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Human population/ object aggregate</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>an aggregate of people who are exposed to a BCI</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in a specialized discipline, and culminates in the awarding of an undergraduate degree</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1516,20 +1500,36 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>BCIO</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002048</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
@@ -1537,22 +1537,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015050</t>
+          <t>BCIO:015280</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bisexual</t>
+          <t>achieved doctoral or equivalent level (ISCED Level 8)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
+          <t xml:space="preserve">Has completed an education process devoted to advanced study and original research, leading to the award of a PhD or equivalent level qualification. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1566,24 +1566,32 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
       <c r="U19" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>NCIT_C84364</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
@@ -1591,22 +1599,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015410</t>
+          <t>BCIO:015250</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Caregiving role</t>
+          <t>achieved early childhood education (ISCED 0)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
+          <t>Has completed an education process intended to introduce very young children to a school-type environment.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1620,13 +1628,17 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -1637,7 +1649,11 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
@@ -1645,22 +1661,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO_0002047 </t>
+          <t>BCIO:015260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Child relationship</t>
+          <t>achieved lower secondary education (ISCED Level 2)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialized than basic reading, writing, and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1674,47 +1690,59 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002036</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t>BCIO:015275</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Country of birth</t>
+          <t>achieved master's or equivalent level (ISCED Level 7)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
+          <t>Has completed an education process which has as a prerequisite an undergraduate degree and which is  intended to result in the acquisition and development of advanced academic and/or professional skills and knowledge in a specialized discipline, and culminates in the awarding of a Master's or equivalent level degree</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1728,13 +1756,17 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -1743,13 +1775,13 @@
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -1757,22 +1789,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">ERO:0002052 </t>
+          <t>BCIO:015255</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cousin relationship </t>
+          <t>achieved primary education (ISCED Level 1)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
+          <t>Has completed an education process intended to result in the acquisition and development of fundamental skills in reading, writing and mathematics</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1786,47 +1818,59 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">primary education objective in OMRSE. OMRSE categories also based on ISCED. //  http://purl.obolibrary.org/obo/OMRSE_00002035  </t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015265</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Divorced or separated</t>
+          <t>achieved upper secondary education (ISCED Level 3)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>Highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
+          <t>Has completed an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education, employment, or both</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1840,20 +1884,36 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>https://www.oecd-ilibrary.org/docserver/9789264104112-6-en.pdf?expires=1564050383andid=idandaccname=guestandchecksum=522E268BD893C2F81395805ABADE04F6    http://uis.unesco.org/sites/default/files/documents/international-standard-classification-of-education-isced-2011-en.pdf</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMRSE_00002040</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -1861,22 +1921,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Doctoral student role</t>
+          <t>addiction</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
+          <t xml:space="preserve">A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm. </t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1894,43 +1954,47 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>ADDICTO:0000796</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Education process</t>
+          <t>age of smoking cessation</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted</t>
+          <t>The age at which a person reports quitting smoking tobacco.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1948,12 +2012,20 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000796</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
           <t>External</t>
@@ -1965,22 +2037,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>ADDICTO:0000926</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>age of substance use initiation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>The age at which a person initiated substance use.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1999,42 +2071,42 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NCIT_C25172</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>ADDICTO:0001221</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>age of tobacco use initiation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t xml:space="preserve">An age of substance use initiation in which the substance is tobacco. </t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2053,42 +2125,50 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>OPMI:0000123</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Employed in shift work</t>
+          <t>agreed rent-free occupier</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>a person who lives in a residential facility they do not own with the agreement of the residential facility owner but without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2106,20 +2186,20 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>https://www.lexico.com/en/definition/shift_work</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -2127,22 +2207,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>BCIO:015045</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>asexual</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
+          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2169,11 +2249,15 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>NCIT_C75562</t>
+          <t>NCIT_C155696</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -2181,22 +2265,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SDGIO:00010004</t>
+          <t>ERO:0002055</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Employment process</t>
+          <t>aunt or uncle relationship</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their aunt or uncle. </t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2215,11 +2299,19 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
           <t>External</t>
@@ -2231,22 +2323,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:015005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>behaviour change intervention participant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>a person who is exposed to a BCI</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2260,47 +2352,47 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>"Exposed" encompasses both passive exposure to a BCI e.g. nudges/environmental changes, and more active participation in a BCI</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Human population/ object aggregate</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
+          <t>an aggregate of people who are exposed to a BCI</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2318,47 +2410,43 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:015050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>bisexual</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who experiences sexual attraction to members of both sexes. </t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2377,42 +2465,46 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>BCIO:010110 gender of person source</t>
+          <t>NCIT_C84364</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
-        </is>
-      </c>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>BCIO:015410</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Graduate student role</t>
+          <t>caregiving role</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
+          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who is incapable of self care.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2430,20 +2522,24 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>https://medical-dictionary.thefreedictionary.com/caregiver</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -2451,22 +2547,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ERO:0002048</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Grandchild relationship</t>
+          <t>caste membership</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
+          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2484,7 +2580,11 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>https://sociologydictionary.org/c/caste/</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -2493,24 +2593,24 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ERO:0002044</t>
+          <t xml:space="preserve">ERO_0002047 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Grandparent relationship</t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2520,7 +2620,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
+          <t xml:space="preserve">A family member relationship from a person to their biological parent or guardian </t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2547,7 +2647,11 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
           <t>External</t>
@@ -2559,24 +2663,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ERO:0002049</t>
+          <t>ADDICTO:0001222</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Great grandchild relationship</t>
+          <t>cigarette dependence</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>family member relationship</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
-        </is>
-      </c>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2593,42 +2693,50 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ERO:0002045</t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Great grandparent relationship</t>
+          <t>country of birth</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
+          <t xml:space="preserve"> the country that a given person (or animal) was born in.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2646,43 +2754,51 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genetic epidemiology ontology.  </t>
+        </is>
+      </c>
       <c r="U39" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094 (we didn't want to reuse as it has organism datum as the parent class)</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t xml:space="preserve">ERO:0002052 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Heterosexual</t>
+          <t xml:space="preserve">cousin relationship </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
+          <t xml:space="preserve">A family member relationship that is a collateral relationship of a person to their cousin. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2707,36 +2823,40 @@
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>NCIT_C84362</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sociodemographic attribute related to the highest level of education course achieved</t>
+          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2752,49 +2872,57 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
+          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>psychology, counselling, public health</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Proportion with a specific highest educational qualification</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
+          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Homemaker status</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
+          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2810,49 +2938,45 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NCIT_C75560</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>newly added</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Homosexual</t>
+          <t>divorced or separated</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
+          <t>A relationship status of an individual who was previously in a legally formalised relationship that has ended or dissolved.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2877,13 +3001,13 @@
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>NCIT_C84363</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -2891,22 +3015,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>BCIO:050288</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Human age</t>
+          <t>doctoral student role</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2927,44 +3051,44 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
-        </is>
-      </c>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>SDGIO:00010001</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Immigrant</t>
+          <t>education process</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has previously been a resident of a country and is now resident in another country</t>
+          <t>A planned process wherein knowledge and skill is imparted</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2982,43 +3106,43 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>In a legal marriage or union</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3043,9 +3167,17 @@
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3053,22 +3185,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>In a relationship (stable or common law)</t>
+          <t>employed full time</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
+          <t>an employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3093,9 +3225,17 @@
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>OPMI:0000123</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -3103,22 +3243,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>In permanent employment</t>
+          <t>employed in shift work</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>Employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3136,7 +3276,11 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>https://www.lexico.com/en/definition/shift_work</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -3145,7 +3289,11 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
@@ -3153,12 +3301,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>In short term or temporary employment with known conditions</t>
+          <t>employed part time</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3168,7 +3316,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3193,9 +3341,17 @@
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NCIT_C75562</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -3203,22 +3359,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>SDGIO:00010004</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In uncertain employment</t>
+          <t>employment process</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>A planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3237,38 +3393,42 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Income-related welfare benefit</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3289,26 +3449,34 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Proportion in receipt of such a benefit</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>EFO:0001799</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Independently wealthy status</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3318,7 +3486,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
+          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3334,49 +3502,61 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>https://www.yourdictionary.com/independently-wealthy</t>
-        </is>
-      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion belonging to a specified group</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>BCIO:010114 ethnic group membership of person source</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Individual income</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3395,11 +3575,7 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -3411,22 +3587,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>ERO:0002033</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Informal education student role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3445,42 +3621,42 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>BCIO:010085</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Inpatient role</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
+          <t>A gender of an individual who reports belonging to the cultural gender role distinction of female.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3505,32 +3681,44 @@
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>adapted from NCIT_C46110 BCIO:010111 female gender</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>ADDICTO:0000777</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>former cigarette smoker</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>former substance user</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports belonging to the cultural gender role distinction of male.</t>
+          <t>A person who was a cigarette smoker in the past but is not currently a cigarette smoker.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3549,46 +3737,46 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C46109 BCIO:010112 male gender </t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>class to be added to addicto</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>ADDICTO:0000713</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Masters student role</t>
+          <t>former tobacco smoker</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>former substance user</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree</t>
+          <t>A person who was a tobacco smoker in the past but who is not currently a tobacco smoker.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3606,43 +3794,51 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000777</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Medication use status</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A socio demographic attribute that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3656,51 +3852,51 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
-        </is>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>BCIO:010110 gender of person source</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>currently under gender of person source in BCIO - same issue as age.  Also note we need to explain why not reusing GSSO (answer: it's a controlled vocabulary, its top level isn't entirely BFO compatible)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ERO:0002058</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Niece or nephew relationship</t>
+          <t>graduate student role</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A family member relationship that is a collateral relationship of a person to their niece or nephew.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3725,36 +3921,40 @@
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>ERO:0002048</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Not seeking employment</t>
+          <t>grandchild relationship</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological grandparent. </t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3783,32 +3983,36 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr"/>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>ERO:0002044</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Not working for health reasons</t>
+          <t>grandparent relationship</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability</t>
+          <t>A family member relationship that is a lineal relationship from a person and their biological grandchild.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3837,32 +4041,36 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr"/>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>ERO:0002049</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Number of years in education completed</t>
+          <t>great grandchild relationship</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>the number of years a person spent engaged in a full time education process.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person to their biological great grandparent. </t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3874,11 +4082,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3887,40 +4091,44 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>should we specify "full-time" in the defn? It's often what's meant by this variable, but summarising education in terms of full time years has been criticised as it will underestimate level of education for people who did degrees part-time/did a combined work study apprenticeship etc.</t>
-        </is>
-      </c>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>ERO:0002045</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Other gender</t>
+          <t>great grandparent relationship</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A gender of an individual who reports not belonging to the cultural gender role distinctions of either male or female.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a person and their biological great grandchild. </t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3941,44 +4149,44 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>NCIT_C154420 BCIO:010113 other gender</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>currently under gender of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Other sexual orientation</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3994,12 +4202,16 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4008,27 +4220,31 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Outpatient role</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>a patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay</t>
+          <t>An attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4044,41 +4260,57 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Having chicken pox, asthma, a heart attack</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion (for specific health conditions)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ERO:0002043</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Parent or guardian</t>
+          <t>heterosexual</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the opposite sex.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4103,26 +4335,30 @@
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Preschool student role</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4132,7 +4368,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4163,7 +4399,11 @@
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
@@ -4171,22 +4411,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Quantity of valuable material resource</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>sociodemographic attribute related to the highest level of education course achieved</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4198,30 +4438,34 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion with a specific highest educational qualification</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C17953 </t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
@@ -4229,22 +4473,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Queer</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4265,15 +4509,11 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -4283,22 +4523,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Questioning sexual orientation</t>
+          <t>homemaker status</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process and who manages a home as their main daily activity</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4325,11 +4565,15 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>NCIT_C155692</t>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
@@ -4337,22 +4581,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rent-free occupier without owner's permission</t>
+          <t>homosexual</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of the same sex.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4368,22 +4612,26 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>NCIT_C84363</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
@@ -4391,12 +4639,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Retired status</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4406,7 +4654,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4420,20 +4668,20 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -4442,29 +4690,29 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015160</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>School student role</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
+          <t>household income</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>an aggregate of the individual incomes received by all the members of a household</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4477,7 +4725,11 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4485,17 +4737,21 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t xml:space="preserve">EFO_0009695 </t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
@@ -4503,22 +4759,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Self employed status</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>A socio-demographic attribute of a person that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4532,51 +4788,55 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion belonging to a specified age range</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr">
         <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
+          <t>based on PATO:0000011 (age), BCIO:010109 = age of person source</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>we  have "age of person source" in the BCIO atm - another case where we need to define human age and then have terms to link with both BCI participant and person source</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ERO:0002039</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sibling relationship</t>
+          <t>in a legal marriage or union</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
+          <t>A relationship status of an individual  who is in a legally formalised by marriage or civil partnership.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4603,24 +4863,24 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>in a relationship (stable or common law)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4630,7 +4890,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
+          <t>A relationship status of an individual that has had the same partner for a significant length of time but are not in a legal union. Specifically common law refers to a person who is living with another person as a couple but who is not legally married.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4657,7 +4917,11 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -4665,22 +4929,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OPMI:0000121</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>in short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4699,38 +4963,42 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Socioeconomic status category</t>
+          <t>in uncertain employment</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
+          <t>Employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4742,25 +5010,13 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -4769,7 +5025,11 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
@@ -4777,22 +5037,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Socioeconomic status score</t>
+          <t>income-related welfare benefit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers, universal credit or benefits.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -4804,34 +5064,26 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion in receipt of such a benefit</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -4839,12 +5091,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Stay at home parent or guardian status</t>
+          <t>independently wealthy status</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4854,7 +5106,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t>A sociodemographic attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -4872,23 +5124,22 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>https://www.yourdictionary.com/independently-wealthy</t>
+        </is>
+      </c>
       <c r="U80" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr"/>
@@ -4898,22 +5149,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tobacco use disorder</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4929,11 +5180,15 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>walks for 15 mins/day, never eats meat, attends school</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>BCIO</t>
         </is>
       </c>
       <c r="U81" t="inlineStr"/>
@@ -4941,37 +5196,29 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Undergraduate student role</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
+          <t>a socio demographic attribute of an individual reflecting a benefit received  derived from their capital or labour, usually measured in money</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4992,17 +5239,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -5010,22 +5257,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO:00010026 </t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Unemployed status</t>
+          <t>informal education student role</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5052,42 +5299,38 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Unpaid carer for an adult status</t>
+          <t>inpatient role</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
+          <t>a patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5108,7 +5351,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -5116,7 +5359,7 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr"/>
@@ -5126,22 +5369,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valuable material resource</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>role in human social processes</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5157,45 +5400,45 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Value of valuable material resource</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5207,30 +5450,30 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion with a particular interpersonal role</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -5238,22 +5481,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015100</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vocational training student or trainee role</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>linguistic capability (MF_0000050)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5269,45 +5512,53 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr">
         <is>
-          <t>BCIO - source student or trainee role types</t>
+          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Voluntary worker status</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5323,7 +5574,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>may include unpaid internships</t>
+          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
@@ -5338,7 +5589,11 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -5346,22 +5601,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>member of a multi-person household all related</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5377,7 +5632,11 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
@@ -5386,9 +5645,17 @@
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
@@ -5396,22 +5663,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ADDICTO:0000796</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>age of smoking cessation</t>
+          <t>member of a multi-person household not related</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The age at which a person reports quitting smoking tobacco.</t>
+          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -5427,49 +5694,53 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000796</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ADDICTO:0000926</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>age of substance use initiation</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The age at which a person initiated substance use.</t>
+          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -5485,45 +5756,53 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ADDICTO:0001221</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>age of tobacco use initiation</t>
+          <t>member of a multi-person multi-generational household</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>Member of a multi-person household</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">An age of substance use initiation in which the substance is tobacco. </t>
+          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5537,45 +5816,49 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>class to be added to addicto</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>this could be a class of age of substance use initiation but have left that for RW to decide upon</t>
-        </is>
-      </c>
+      <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>caste membership</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5585,7 +5868,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A socio demographic attribute of an individual who is a member of a group within  a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals do not have mobility due to custom or law.</t>
+          <t>A sociodemographic attribute of a person living alone in a household</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5603,11 +5886,7 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>https://sociologydictionary.org/c/caste/</t>
-        </is>
-      </c>
+      <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -5628,20 +5907,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ADDICTO:0001222</t>
+          <t>ADDICTO:0000779</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cigarette dependence</t>
+          <t>never smoker</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>non-psychoactive substance user</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>a person who has never smoked tobacco</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -5657,20 +5940,16 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>ADDICTO:000079</t>
+        </is>
+      </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
           <t>External</t>
@@ -5679,29 +5958,29 @@
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>cigarette dependence is proposed (parent = dependence) but doesn't have a def yet</t>
+          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>ADDICTO:0001213</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>nicotine dependence</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>dependence</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role</t>
+          <t>Substance dependence in which the dependence is on nicotine.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -5715,59 +5994,55 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
-        </is>
-      </c>
+      <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>psychology, counselling, public health</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:010093 but proposing a change from the previous definition </t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr"/>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>NB We are proposing a slight change to the definition used in the source ontology, as that defined discipline of a current programme of study/training as a subtype of student or trainee role.  JH advised that discipline should be an attribute of the programme of study/training course itself, not a role.</t>
+          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>ADDICTO:0000386</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>non-daily tobacco smoker</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>expertise discipline of the highest level of formal educational qualification a person has achieved</t>
+          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5782,46 +6057,50 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
-        </is>
-      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Occasional current tobacco user</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000386</t>
+        </is>
+      </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>newly added</t>
-        </is>
-      </c>
+      <c r="AB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EFO:0001799</t>
+          <t>ADDICTO:0000690</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>number of cigarettes smoked per day</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A socio demographic attribute that is the group or groups to which an individual identifies as belonging, whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -5837,28 +6116,20 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Participants were on average 19.8 years old, the majority (77.1%) were of White ethnicity</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>ADDICTO0000690</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>BCIO:010114 ethnic group membership of person source</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -5869,29 +6140,29 @@
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>currently under ethnic group membership of person source in BCIO - same issue as age</t>
+          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>ADDICTO:0001223</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>number of times formerly tobacco used</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t xml:space="preserve">A data item that is about how many times tobacco was formerly used. </t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -5913,31 +6184,47 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>class not yet defined in addicto</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ERO:0002033</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>family member relationship</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">An interpersonal role that is a relationship between an individual to others that are related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption </t>
+          <t>A role that is realised by a person doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -5956,42 +6243,46 @@
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>proportion with a specific occupational role</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>occupational role of source BCIO:010004</t>
+        </is>
+      </c>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ADDICTO:0000777</t>
+          <t>BCIO:015200</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>former cigarette smoker</t>
+          <t>occupier of employer-provided housing</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>former substance user</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A person who was a cigarette smoker in the past but is not currently a cigarette smoker.</t>
+          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6010,46 +6301,38 @@
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>class to be added to addicto</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ADDICTO:0000713</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>former tobacco smoker</t>
+          <t>organisational role</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>former substance user</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A person who was a tobacco smoker in the past but who is not currently a tobacco smoker.</t>
+          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6067,54 +6350,54 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000777</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Proportion with a specific organisational role</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>OBI_0000245.  (organization)</t>
+        </is>
+      </c>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>(this is currently in addicto labelled as "former tobacco smoker" but RW agrees that this entity is actually "former tobacco user" and we need a child class for "former smoker")</t>
-        </is>
-      </c>
+      <c r="AB101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>SDGIO:00010028</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>a policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -6127,13 +6410,13 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
-        </is>
-      </c>
+      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
       <c r="U102" t="inlineStr">
         <is>
           <t>proportion</t>
@@ -6143,33 +6426,33 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>newly added - would like JH to give this a final review ahead of publishing.  Previously had "health insurance coverage" adapted from NCIT health insurance - 'A type of insurance designed to cover some of or all the cost of treating an insured person's illnesses or injuries. In some cases, it pays for preventive care, such as annual physicals and diagnostic tests.'  THEN realised we needed to define "insurance" in ontological terms and that wasn't easy!</t>
-        </is>
-      </c>
+      <c r="AB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>SDGIO:00010018</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>owner role</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>An attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6179,63 +6462,55 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>ownership process</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
+      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>Proportion (for specific health conditions)</t>
-        </is>
-      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>NCIT_C16669 BCIO:010117 health status of person source</t>
-        </is>
-      </c>
+      <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>We currently have "health status of person source" - same issue as age etc.  Also, we need to tell people that they could use another existing ontology, such as DOID,  (other ontologies are available :-) ), to describe health status</t>
-        </is>
-      </c>
+      <c r="AB103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015170</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>owner-occupier</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6256,21 +6531,13 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
@@ -6278,22 +6545,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>SDGIO:00010027</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>ownership process</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>a person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility</t>
+          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6311,39 +6578,47 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>ERO:0002043</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>household</t>
+          <t>parent or guardian</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t xml:space="preserve">A family member relationship that is a lineal relationship from a parent to their biological offspring. </t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -6357,26 +6632,22 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>A houshold is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
-        </is>
-      </c>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>OMRSE:00000076</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
@@ -6390,18 +6661,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:015160</t>
+          <t>OBI:0000093</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>household income</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>patient role</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>an aggregate of the individual incomes received by all the members of a household</t>
+          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -6414,11 +6689,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
+      <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
@@ -6426,44 +6697,44 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; proportion with a specified range of income</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EFO_0009695 </t>
-        </is>
-      </c>
+      <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6479,15 +6750,11 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school</t>
-        </is>
-      </c>
+      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
-          <t>BCIO</t>
+          <t>MFO</t>
         </is>
       </c>
       <c r="U108" t="inlineStr"/>
@@ -6495,29 +6762,33 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>OMRSE:00000092</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>personal psychological attribute</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>role in human social processes</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A role that inheres in an organism that is able to receive benefits from an insurance policy. The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6530,48 +6801,56 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>BCI participant</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+        </is>
+      </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>do we need to add all the term relations specified for this class in OMRSE to the BCIO?</t>
+          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>OMRSE:00000094</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A  role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6590,46 +6869,42 @@
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>Proportion with a particular interpersonal role</t>
-        </is>
-      </c>
+      <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>NCIT_C92454</t>
-        </is>
-      </c>
+      <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:015100</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>preschool student role</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>linguistic capability (MF_0000050)</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>an individual's mental capability to use a language spontaneously for real-world purposes.</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6645,53 +6920,49 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
+      <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr">
         <is>
-          <t>BCIO:010116 language proficiency of person source                https://languages.wisc.edu/proficiency/</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>currently under language proficiency of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in  a household with more than one person</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -6703,20 +6974,24 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>A member of a multi-person household lives with at least one other person in the same dwelling. The nature of the relationship between the members of the household is not relevant/a defining feature of this entity.</t>
-        </is>
-      </c>
+      <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V112" t="inlineStr"/>
@@ -6724,7 +6999,7 @@
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
@@ -6734,22 +7009,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>member of a multi-person household all related</t>
+          <t>queer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and all household members are related </t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6765,11 +7040,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
@@ -6780,13 +7051,13 @@
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr">
         <is>
-          <t xml:space="preserve">(NCIT:C25173;PCO:0000020;STATO:0000257 - "family") </t>
+          <t>NCIT_C155691</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr"/>
@@ -6796,22 +7067,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>member of a multi-person household not related</t>
+          <t>questioning sexual orientation</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sociodemographic attribute of a person living in a multi-person household and none of the household members are related </t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -6827,11 +7098,7 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
-        </is>
-      </c>
+      <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
@@ -6842,13 +7109,13 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>NCIT_C155692</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr"/>
@@ -6858,22 +7125,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>member of a multi-person household some related</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household and some household members are related</t>
+          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -6889,24 +7156,16 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
-        </is>
-      </c>
+      <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion with a particular relationship status</t>
         </is>
       </c>
       <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
-        </is>
-      </c>
+      <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr">
         <is>
@@ -6920,22 +7179,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>member of a multi-person multi-generational household</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living in a multi-person household whose members belong to different generations</t>
+          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6949,28 +7208,24 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
+      <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
         </is>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Proportion belonging to a specified group</t>
         </is>
       </c>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCIT:C25173;PCO:0000020;STATO:0000257 ("family")</t>
+          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -6981,27 +7236,31 @@
       </c>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>member of a one person household</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute of a person living alone in a household</t>
+          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -7022,17 +7281,13 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
@@ -7040,22 +7295,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ADDICTO:0000779</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>never smoker</t>
+          <t>rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>non-psychoactive substance user</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>a person who has never smoked tobacco</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -7071,49 +7326,49 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>ADDICTO:000079</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>(AW comment - does this make sense as a parent class? You could be a never smoker but still use lots of other psychoactive substances!)  "Human being" might be simpler</t>
-        </is>
-      </c>
+      <c r="AB118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ADDICTO:0001213</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>nicotine dependence</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Substance dependence in which the dependence is on nicotine.</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7132,50 +7387,38 @@
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>nicotine dependence is proposed (parent = dependence) but doesn't have a def yet</t>
-        </is>
-      </c>
+      <c r="AB119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ADDICTO:0000386</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>non-daily tobacco smoker</t>
+          <t>renter of housing from a social provider</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A tobacco smoker who participates in tobacco smoking but not every day.</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -7190,50 +7433,46 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>Occasional current tobacco user</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
+        </is>
+      </c>
       <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000386</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">proportion </t>
+        </is>
+      </c>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ADDICTO:0000690</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>number of cigarettes smoked per day</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A data item which indicates the number of puffs cigarettes smoked per day by a person</t>
+          <t>an owner of a residential facility</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -7251,45 +7490,45 @@
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>ADDICTO0000690</t>
-        </is>
-      </c>
-      <c r="U121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>we previous had "No. of times tobacco used" but this isn't in Addicto yet and RW says it's complicated as the meaning of times tobacco used depends on tobacco type.  Therefore parked "times tobacco used" for now, reusing cigarettes per day</t>
+          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BCIO:015360</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>number of times formerly tobacco used</t>
+          <t>retired status</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -7305,51 +7544,47 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>class not yet defined in addicto</t>
-        </is>
-      </c>
+      <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>RW says "This [distinguishing past from present behaviour patterns] is a general issue that we will have to address in behaviour patterns. It's quite complex to come up with a general solution so let's discuss. In BFO terms anything from a person's past will come under 'history' classes of entity. I suspect all of this will need to be covered by defined classes."</t>
-        </is>
-      </c>
+      <c r="AB122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>school student role</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A role that is realised by a person doing a specified type of work or working in a specified way.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -7370,19 +7605,19 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>proportion with a specific occupational role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr">
         <is>
-          <t>occupational role of source BCIO:010004</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr"/>
@@ -7392,22 +7627,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
+          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -7425,16 +7660,24 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
@@ -7442,22 +7685,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>organisational role</t>
+          <t>self employed status</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -7471,26 +7714,30 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Proportion with a specific organisational role</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr">
         <is>
-          <t>OBI_0000245.  (organization)</t>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr"/>
@@ -7500,29 +7747,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SDGIO:00010028</t>
+          <t>BCIO:015040</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -7537,47 +7780,43 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SDGIO:00010018</t>
+          <t>ERO:0002039</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>owner role</t>
+          <t>sibling relationship</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>family member relationship</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A role which is realised by a person during processes of exercising their right to use, occupy, sell, rent, or gift an object (such as a parcel of land).</t>
+          <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -7587,11 +7826,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>ownership process</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -7599,16 +7834,20 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
-      <c r="U127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z127" t="inlineStr">
         <is>
           <t>External</t>
@@ -7620,22 +7859,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>owner-occupier</t>
+          <t>single</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility of which they are the residential facility owner</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -7656,13 +7895,17 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
@@ -7670,22 +7913,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SDGIO:00010027</t>
+          <t>BCIO:015010</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ownership process</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A process during which a person or organization, the owner, exercises their right to use, sell, rent, or gift an object.</t>
+          <t>an attribute of a person that describes their social or economic situation</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -7698,52 +7941,52 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
+      <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>BCIO:010108 socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>OBI:0000093</t>
+          <t>OPMI:0000121</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>socioeconomic status</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>a role which inheres in a person and is realized by being under the care of a physician or health care provider</t>
+          <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7762,17 +8005,13 @@
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
+      <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -7786,22 +8025,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socioeconomic status category</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -7813,49 +8052,61 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>MFO</t>
-        </is>
-      </c>
-      <c r="U131" t="inlineStr"/>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>socioeconomic status score</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -7867,57 +8118,61 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>BCI participant</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
-        </is>
-      </c>
+      <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>Mean; Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
-        </is>
-      </c>
+      <c r="AB132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>OMRSE:00000094</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -7936,42 +8191,47 @@
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+NCIT_C148253</t>
+        </is>
+      </c>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
-        </is>
-      </c>
+      <c r="AB133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7992,11 +8252,15 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>Proportion with a particular relationship status</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
@@ -8005,27 +8269,31 @@
       </c>
       <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t xml:space="preserve">Tobacco-containing product user </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
+          <t>A psychoactive substance user who participates in tobacco smoking.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -8041,57 +8309,41 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>Proportion belonging to a specified group</t>
-        </is>
-      </c>
+      <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr">
-        <is>
-          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>tobacco use disorder</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -8109,39 +8361,51 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000964</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>ADDICTO:0000849</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t xml:space="preserve">tobacco-containing product user </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -8156,42 +8420,54 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Current tobacco user</t>
+        </is>
+      </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">proportion </t>
-        </is>
-      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>undergraduate student role</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -8207,22 +8483,26 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
-        </is>
-      </c>
+      <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
@@ -8230,22 +8510,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>unemployed status</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>an owner of a residential facility</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -8266,30 +8546,38 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO_00010026 </t>
+        </is>
+      </c>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
       <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
-        </is>
-      </c>
+      <c r="AB139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8299,7 +8587,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -8317,11 +8605,7 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
           <t>Proportion</t>
@@ -8332,7 +8616,7 @@
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr"/>
@@ -8342,22 +8626,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015040</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>valuable material resource</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -8373,20 +8657,24 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr">
         <is>
-          <t>NCIT_C84361</t>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr"/>
@@ -8396,22 +8684,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015010</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>value of valuable material resource</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>an attribute of a person that describes their social or economic situation</t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -8423,28 +8711,32 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr">
-        <is>
-          <t>BCIO:010108 socio demographic attribute of person source</t>
-        </is>
-      </c>
+      <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
@@ -8454,22 +8746,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>vocational training student or trainee role</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -8496,42 +8788,38 @@
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
-        </is>
-      </c>
+      <c r="AB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ADDICTO:0000405</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>voluntary worker status</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t>sociodemographic attribute</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A psychoactive substance user who participates in tobacco smoking.</t>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8545,43 +8833,51 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ADDICTO:0000849</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">tobacco-containing product user </t>
+          <t>widowed</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
+          <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -8596,32 +8892,24 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000849</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr"/>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
     </row>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -4022,7 +4022,11 @@
           <t xml:space="preserve">proportion </t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>person experiencing homelessness</t>
+        </is>
+      </c>
       <c r="W57" s="2" t="inlineStr"/>
       <c r="X57" s="2" t="inlineStr"/>
       <c r="Y57" s="2" t="inlineStr">

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,12 +7147,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015010</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+          <t xml:space="preserve">To be imported from MF. </t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7177,21 +7177,25 @@
       <c r="N109" s="2" t="inlineStr"/>
       <c r="O109" s="2" t="inlineStr">
         <is>
-          <t>BCI participant</t>
-        </is>
-      </c>
-      <c r="P109" s="2" t="inlineStr"/>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="P109" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
       <c r="Q109" s="2" t="inlineStr"/>
-      <c r="R109" s="2" t="inlineStr">
-        <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
-        </is>
-      </c>
+      <c r="R109" s="2" t="inlineStr"/>
       <c r="S109" s="2" t="inlineStr"/>
       <c r="T109" s="2" t="inlineStr"/>
       <c r="U109" s="2" t="inlineStr"/>
       <c r="V109" s="2" t="inlineStr"/>
-      <c r="W109" s="2" t="inlineStr"/>
+      <c r="W109" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010108 socio demographic attribute of person source</t>
+        </is>
+      </c>
       <c r="X109" s="2" t="inlineStr"/>
       <c r="Y109" s="2" t="inlineStr">
         <is>
@@ -7204,147 +7208,147 @@
         </is>
       </c>
       <c r="AA109" s="2" t="inlineStr"/>
-      <c r="AB109" s="2" t="inlineStr">
+      <c r="AB109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015495</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>personal psychological attribute</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
+      <c r="L110" s="2" t="inlineStr"/>
+      <c r="M110" s="2" t="inlineStr"/>
+      <c r="N110" s="2" t="inlineStr"/>
+      <c r="O110" s="2" t="inlineStr">
+        <is>
+          <t>BCI participant</t>
+        </is>
+      </c>
+      <c r="P110" s="2" t="inlineStr"/>
+      <c r="Q110" s="2" t="inlineStr"/>
+      <c r="R110" s="2" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+        </is>
+      </c>
+      <c r="S110" s="2" t="inlineStr"/>
+      <c r="T110" s="2" t="inlineStr"/>
+      <c r="U110" s="2" t="inlineStr"/>
+      <c r="V110" s="2" t="inlineStr"/>
+      <c r="W110" s="2" t="inlineStr"/>
+      <c r="X110" s="2" t="inlineStr"/>
+      <c r="Y110" s="2" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z110" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA110" s="2" t="inlineStr"/>
+      <c r="AB110" s="2" t="inlineStr">
         <is>
           <t>Janna - how do we link this up to something specific e.g. people who are interested in making a quit attempt in the next month.</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>OMRSE:00000094</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>policy holder role</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>insured party role</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>An insured party role that inheres in a person who participates in the creation of the insurance contract and is eligible to receive benefits as specified by the insurance contract.</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr">
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr">
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr">
         <is>
           <t>we need to find a way to add "person with no health insurance" to the ontology.  Sometimes reported in American studies (e.g. % of participants with no health insurance)</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015445</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>preschool student role</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr"/>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr"/>
-      <c r="M111" s="2" t="inlineStr"/>
-      <c r="N111" s="2" t="inlineStr"/>
-      <c r="O111" s="2" t="inlineStr"/>
-      <c r="P111" s="2" t="inlineStr"/>
-      <c r="Q111" s="2" t="inlineStr"/>
-      <c r="R111" s="2" t="inlineStr"/>
-      <c r="S111" s="2" t="inlineStr"/>
-      <c r="T111" s="2" t="inlineStr"/>
-      <c r="U111" s="2" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
-      <c r="V111" s="2" t="inlineStr"/>
-      <c r="W111" s="2" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
-      <c r="X111" s="2" t="inlineStr"/>
-      <c r="Y111" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z111" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AA111" s="2" t="inlineStr"/>
-      <c r="AB111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>quantity of valuable material resource</t>
+          <t>preschool student role</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>The number of units of a valuable material resource possessed by a person</t>
+          <t>A student or trainee role realised by  currently learning at an initial level of organised instruction, primarily to familiarise the bearer to the school-type environment.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7356,28 +7360,24 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr"/>
       <c r="M112" s="2" t="inlineStr"/>
-      <c r="N112" s="2" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N112" s="2" t="inlineStr"/>
       <c r="O112" s="2" t="inlineStr"/>
       <c r="P112" s="2" t="inlineStr"/>
       <c r="Q112" s="2" t="inlineStr"/>
-      <c r="R112" s="2" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 40 sheep</t>
-        </is>
-      </c>
+      <c r="R112" s="2" t="inlineStr"/>
       <c r="S112" s="2" t="inlineStr"/>
       <c r="T112" s="2" t="inlineStr"/>
       <c r="U112" s="2" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V112" s="2" t="inlineStr"/>
-      <c r="W112" s="2" t="inlineStr"/>
+      <c r="W112" s="2" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X112" s="2" t="inlineStr"/>
       <c r="Y112" s="2" t="inlineStr">
         <is>
@@ -7395,22 +7395,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>queer</t>
+          <t>quantity of valuable material resource</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
+          <t>The number of units of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -7422,24 +7422,28 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr"/>
       <c r="M113" s="2" t="inlineStr"/>
-      <c r="N113" s="2" t="inlineStr"/>
+      <c r="N113" s="2" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O113" s="2" t="inlineStr"/>
       <c r="P113" s="2" t="inlineStr"/>
       <c r="Q113" s="2" t="inlineStr"/>
-      <c r="R113" s="2" t="inlineStr"/>
+      <c r="R113" s="2" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 40 sheep</t>
+        </is>
+      </c>
       <c r="S113" s="2" t="inlineStr"/>
       <c r="T113" s="2" t="inlineStr"/>
       <c r="U113" s="2" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V113" s="2" t="inlineStr"/>
-      <c r="W113" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="W113" s="2" t="inlineStr"/>
       <c r="X113" s="2" t="inlineStr"/>
       <c r="Y113" s="2" t="inlineStr">
         <is>
@@ -7457,12 +7461,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>questioning sexual orientation</t>
+          <t>queer</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -7472,7 +7476,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
+          <t>A sexual orientation used to describe an individuals sexual orientation that is not exclusively homosexual or heterosexual, or for individuals that do not identify with existing labels.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -7499,7 +7503,7 @@
       <c r="V114" s="2" t="inlineStr"/>
       <c r="W114" s="2" t="inlineStr">
         <is>
-          <t>NCIT_C155692</t>
+          <t>NCIT_C155691</t>
         </is>
       </c>
       <c r="X114" s="2" t="inlineStr"/>
@@ -7519,22 +7523,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>questioning sexual orientation</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who is unsure of their sexual orientation. </t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -7555,15 +7559,19 @@
       <c r="T115" s="2" t="inlineStr"/>
       <c r="U115" s="2" t="inlineStr">
         <is>
-          <t>Proportion with a particular relationship status</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V115" s="2" t="inlineStr"/>
-      <c r="W115" s="2" t="inlineStr"/>
+      <c r="W115" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="X115" s="2" t="inlineStr"/>
       <c r="Y115" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z115" s="2" t="inlineStr">
@@ -7577,22 +7585,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
+          <t>An interpersonal role that is the state of an individual being connected, related or associated by blood, adoption or marriage.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
@@ -7608,24 +7616,16 @@
       <c r="O116" s="2" t="inlineStr"/>
       <c r="P116" s="2" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr"/>
-      <c r="R116" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="R116" s="2" t="inlineStr"/>
       <c r="S116" s="2" t="inlineStr"/>
       <c r="T116" s="2" t="inlineStr"/>
       <c r="U116" s="2" t="inlineStr">
         <is>
-          <t>Proportion belonging to a specified group</t>
+          <t>Proportion with a particular relationship status</t>
         </is>
       </c>
       <c r="V116" s="2" t="inlineStr"/>
-      <c r="W116" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
-        </is>
-      </c>
+      <c r="W116" s="2" t="inlineStr"/>
       <c r="X116" s="2" t="inlineStr"/>
       <c r="Y116" s="2" t="inlineStr">
         <is>
@@ -7638,31 +7638,27 @@
         </is>
       </c>
       <c r="AA116" s="2" t="inlineStr"/>
-      <c r="AB116" s="2" t="inlineStr">
-        <is>
-          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
-        </is>
-      </c>
+      <c r="AB116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
+          <t xml:space="preserve">A socio demographic attribute that is the group to which an individual identifies as belonging, which is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
@@ -7678,20 +7674,28 @@
       <c r="O117" s="2" t="inlineStr"/>
       <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr"/>
-      <c r="R117" s="2" t="inlineStr"/>
+      <c r="R117" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
+        </is>
+      </c>
       <c r="S117" s="2" t="inlineStr"/>
       <c r="T117" s="2" t="inlineStr"/>
       <c r="U117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">proportion </t>
+          <t>Proportion belonging to a specified group</t>
         </is>
       </c>
       <c r="V117" s="2" t="inlineStr"/>
-      <c r="W117" s="2" t="inlineStr"/>
+      <c r="W117" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C103282 Religious group BCIO:010115 religious group membership of person source</t>
+        </is>
+      </c>
       <c r="X117" s="2" t="inlineStr"/>
       <c r="Y117" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z117" s="2" t="inlineStr">
@@ -7700,27 +7704,31 @@
         </is>
       </c>
       <c r="AA117" s="2" t="inlineStr"/>
-      <c r="AB117" s="2" t="inlineStr"/>
+      <c r="AB117" s="2" t="inlineStr">
+        <is>
+          <t>currently under religiious group membership of person source in BCIO - same issue as age</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier without owner's permission</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
+          <t>a person who lives in a residential facility they do not own without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
@@ -7736,11 +7744,7 @@
       <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr"/>
       <c r="Q118" s="2" t="inlineStr"/>
-      <c r="R118" s="2" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="R118" s="2" t="inlineStr"/>
       <c r="S118" s="2" t="inlineStr"/>
       <c r="T118" s="2" t="inlineStr"/>
       <c r="U118" s="2" t="inlineStr">
@@ -7767,22 +7771,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t>a person who lives in a residential facility they do not own without the agreement of the residential facility owner and without paying an agreed sum of money to the owner</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -7798,7 +7802,11 @@
       <c r="O119" s="2" t="inlineStr"/>
       <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr"/>
-      <c r="R119" s="2" t="inlineStr"/>
+      <c r="R119" s="2" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="S119" s="2" t="inlineStr"/>
       <c r="T119" s="2" t="inlineStr"/>
       <c r="U119" s="2" t="inlineStr">
@@ -7825,22 +7833,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
@@ -7856,11 +7864,7 @@
       <c r="O120" s="2" t="inlineStr"/>
       <c r="P120" s="2" t="inlineStr"/>
       <c r="Q120" s="2" t="inlineStr"/>
-      <c r="R120" s="2" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
-        </is>
-      </c>
+      <c r="R120" s="2" t="inlineStr"/>
       <c r="S120" s="2" t="inlineStr"/>
       <c r="T120" s="2" t="inlineStr"/>
       <c r="U120" s="2" t="inlineStr">
@@ -7887,22 +7891,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>renter of housing from a social provider</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>an owner of a residential facility</t>
+          <t>a person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner, who decides who can live in the residential facility based on their perceived social or economic needs</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7918,12 +7922,16 @@
       <c r="O121" s="2" t="inlineStr"/>
       <c r="P121" s="2" t="inlineStr"/>
       <c r="Q121" s="2" t="inlineStr"/>
-      <c r="R121" s="2" t="inlineStr"/>
+      <c r="R121" s="2" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing, housing association properties, non-profit organisation, almhouse occupier</t>
+        </is>
+      </c>
       <c r="S121" s="2" t="inlineStr"/>
       <c r="T121" s="2" t="inlineStr"/>
       <c r="U121" s="2" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t xml:space="preserve">proportion </t>
         </is>
       </c>
       <c r="V121" s="2" t="inlineStr"/>
@@ -7940,31 +7948,27 @@
         </is>
       </c>
       <c r="AA121" s="2" t="inlineStr"/>
-      <c r="AB121" s="2" t="inlineStr">
-        <is>
-          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
-        </is>
-      </c>
+      <c r="AB121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>retired status</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
+          <t>an owner of a residential facility</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7982,14 +7986,10 @@
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr"/>
       <c r="S122" s="2" t="inlineStr"/>
-      <c r="T122" s="2" t="inlineStr">
-        <is>
-          <t>https://www.merriam-webster.com/dictionary/retired</t>
-        </is>
-      </c>
+      <c r="T122" s="2" t="inlineStr"/>
       <c r="U122" s="2" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="V122" s="2" t="inlineStr"/>
@@ -7997,7 +7997,7 @@
       <c r="X122" s="2" t="inlineStr"/>
       <c r="Y122" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z122" s="2" t="inlineStr">
@@ -8006,27 +8006,31 @@
         </is>
       </c>
       <c r="AA122" s="2" t="inlineStr"/>
-      <c r="AB122" s="2" t="inlineStr"/>
+      <c r="AB122" s="2" t="inlineStr">
+        <is>
+          <t>Note: we have "residential facility" as a BCIO entity in setting</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>school student role</t>
+          <t>retired status</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>A sociodemographic attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -8044,22 +8048,22 @@
       <c r="Q123" s="2" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr"/>
       <c r="S123" s="2" t="inlineStr"/>
-      <c r="T123" s="2" t="inlineStr"/>
+      <c r="T123" s="2" t="inlineStr">
+        <is>
+          <t>https://www.merriam-webster.com/dictionary/retired</t>
+        </is>
+      </c>
       <c r="U123" s="2" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V123" s="2" t="inlineStr"/>
-      <c r="W123" s="2" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W123" s="2" t="inlineStr"/>
       <c r="X123" s="2" t="inlineStr"/>
       <c r="Y123" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z123" s="2" t="inlineStr">
@@ -8073,22 +8077,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>school student role</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -8106,22 +8110,22 @@
       <c r="Q124" s="2" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr"/>
       <c r="S124" s="2" t="inlineStr"/>
-      <c r="T124" s="2" t="inlineStr">
-        <is>
-          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
-        </is>
-      </c>
+      <c r="T124" s="2" t="inlineStr"/>
       <c r="U124" s="2" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V124" s="2" t="inlineStr"/>
-      <c r="W124" s="2" t="inlineStr"/>
+      <c r="W124" s="2" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X124" s="2" t="inlineStr"/>
       <c r="Y124" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z124" s="2" t="inlineStr">
@@ -8135,22 +8139,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>self employed status</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>a socio demographic attribute of an individual who has at least one parent who is an immigrant</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
@@ -8164,30 +8168,26 @@
       <c r="M125" s="2" t="inlineStr"/>
       <c r="N125" s="2" t="inlineStr"/>
       <c r="O125" s="2" t="inlineStr"/>
-      <c r="P125" s="2" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+      <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="S125" s="2" t="inlineStr"/>
-      <c r="T125" s="2" t="inlineStr"/>
+      <c r="T125" s="2" t="inlineStr">
+        <is>
+          <t>https://unstats.un.org/unsd/demographic-social/Standards-and-Methods/files/Handbooks/international-migration/2017-draft-E.pdf</t>
+        </is>
+      </c>
       <c r="U125" s="2" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
       <c r="V125" s="2" t="inlineStr"/>
-      <c r="W125" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="W125" s="2" t="inlineStr"/>
       <c r="X125" s="2" t="inlineStr"/>
       <c r="Y125" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z125" s="2" t="inlineStr">
@@ -8201,22 +8201,22 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015040</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>self employed status</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+          <t>Employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -8230,22 +8230,30 @@
       <c r="M126" s="2" t="inlineStr"/>
       <c r="N126" s="2" t="inlineStr"/>
       <c r="O126" s="2" t="inlineStr"/>
-      <c r="P126" s="2" t="inlineStr"/>
+      <c r="P126" s="2" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
       <c r="Q126" s="2" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr"/>
       <c r="S126" s="2" t="inlineStr"/>
       <c r="T126" s="2" t="inlineStr"/>
-      <c r="U126" s="2" t="inlineStr"/>
+      <c r="U126" s="2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>NCIT_C84361</t>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr"/>
       <c r="Y126" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z126" s="2" t="inlineStr">
@@ -8257,140 +8265,140 @@
       <c r="AB126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015040</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>sexual orientation</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>socio demographic attribute</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A socio demographic attribute that is the pattern of a person's emotional, romantic, and/or sexual attractions. </t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr"/>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
+      <c r="L127" s="2" t="inlineStr"/>
+      <c r="M127" s="2" t="inlineStr"/>
+      <c r="N127" s="2" t="inlineStr"/>
+      <c r="O127" s="2" t="inlineStr"/>
+      <c r="P127" s="2" t="inlineStr"/>
+      <c r="Q127" s="2" t="inlineStr"/>
+      <c r="R127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr"/>
+      <c r="T127" s="2" t="inlineStr"/>
+      <c r="U127" s="2" t="inlineStr"/>
+      <c r="V127" s="2" t="inlineStr"/>
+      <c r="W127" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
+      <c r="X127" s="2" t="inlineStr"/>
+      <c r="Y127" s="2" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z127" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA127" s="2" t="inlineStr"/>
+      <c r="AB127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>ERO:0002039</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>sibling relationship</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>family member relationship</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t xml:space="preserve">A family member relationship between two persons with at least one shared parent. </t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr">
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z127" t="inlineStr">
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z128" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015385</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>relationship status</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>A relationship status of an individual who is not in a relationship with another person.</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr"/>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
-      <c r="L128" s="2" t="inlineStr"/>
-      <c r="M128" s="2" t="inlineStr"/>
-      <c r="N128" s="2" t="inlineStr"/>
-      <c r="O128" s="2" t="inlineStr"/>
-      <c r="P128" s="2" t="inlineStr"/>
-      <c r="Q128" s="2" t="inlineStr"/>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
-      <c r="T128" s="2" t="inlineStr"/>
-      <c r="U128" s="2" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
-      <c r="V128" s="2" t="inlineStr"/>
-      <c r="W128" s="2" t="inlineStr"/>
-      <c r="X128" s="2" t="inlineStr"/>
-      <c r="Y128" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z128" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AA128" s="2" t="inlineStr"/>
-      <c r="AB128" s="2" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015010</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>single</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>an attribute of a person that describes their social or economic situation</t>
+          <t>A relationship status of an individual who is not in a relationship with another person.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -8403,27 +8411,23 @@
       <c r="L129" s="2" t="inlineStr"/>
       <c r="M129" s="2" t="inlineStr"/>
       <c r="N129" s="2" t="inlineStr"/>
-      <c r="O129" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="O129" s="2" t="inlineStr"/>
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
       <c r="S129" s="2" t="inlineStr"/>
       <c r="T129" s="2" t="inlineStr"/>
-      <c r="U129" s="2" t="inlineStr"/>
+      <c r="U129" s="2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V129" s="2" t="inlineStr"/>
-      <c r="W129" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:010108 socio demographic attribute of person source</t>
-        </is>
-      </c>
+      <c r="W129" s="2" t="inlineStr"/>
       <c r="X129" s="2" t="inlineStr"/>
       <c r="Y129" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z129" s="2" t="inlineStr">
@@ -8435,138 +8439,122 @@
       <c r="AB129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050289</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>socio demographic attribute of a population</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>population attribute</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A population attribute that is structural and relates to aggregates and distributions of individual, social or economic conditions of the members of the population. </t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr"/>
+      <c r="J130" s="2" t="inlineStr"/>
+      <c r="K130" s="2" t="inlineStr"/>
+      <c r="L130" s="2" t="inlineStr"/>
+      <c r="M130" s="2" t="inlineStr"/>
+      <c r="N130" s="2" t="inlineStr"/>
+      <c r="O130" s="2" t="inlineStr"/>
+      <c r="P130" s="2" t="inlineStr"/>
+      <c r="Q130" s="2" t="inlineStr"/>
+      <c r="R130" s="2" t="inlineStr"/>
+      <c r="S130" s="2" t="inlineStr"/>
+      <c r="T130" s="2" t="inlineStr"/>
+      <c r="U130" s="2" t="inlineStr"/>
+      <c r="V130" s="2" t="inlineStr"/>
+      <c r="W130" s="2" t="inlineStr"/>
+      <c r="X130" s="2" t="inlineStr"/>
+      <c r="Y130" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z130" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA130" s="2" t="inlineStr"/>
+      <c r="AB130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>OPMI:0000121</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>socioeconomic status</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>socio demographic attribute</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t xml:space="preserve">Sociodemographic attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z130" t="inlineStr">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z131" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015365</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr"/>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr"/>
-      <c r="J131" s="2" t="inlineStr"/>
-      <c r="K131" s="2" t="inlineStr"/>
-      <c r="L131" s="2" t="inlineStr"/>
-      <c r="M131" s="2" t="inlineStr"/>
-      <c r="N131" s="2" t="inlineStr">
-        <is>
-          <t>BCI participant socioeconomic status</t>
-        </is>
-      </c>
-      <c r="O131" s="2" t="inlineStr"/>
-      <c r="P131" s="2" t="inlineStr"/>
-      <c r="Q131" s="2" t="inlineStr"/>
-      <c r="R131" s="2" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
-      <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr">
-        <is>
-          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
-        </is>
-      </c>
-      <c r="U131" s="2" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
-      <c r="V131" s="2" t="inlineStr"/>
-      <c r="W131" s="2" t="inlineStr"/>
-      <c r="X131" s="2" t="inlineStr"/>
-      <c r="Y131" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z131" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AA131" s="2" t="inlineStr"/>
-      <c r="AB131" s="2" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score</t>
+          <t>socioeconomic status category</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -8576,7 +8564,7 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size and household. </t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -8594,13 +8582,13 @@
         </is>
       </c>
       <c r="O132" s="2" t="inlineStr"/>
-      <c r="P132" s="2" t="inlineStr">
-        <is>
-          <t>data item because it is a score</t>
-        </is>
-      </c>
+      <c r="P132" s="2" t="inlineStr"/>
       <c r="Q132" s="2" t="inlineStr"/>
-      <c r="R132" s="2" t="inlineStr"/>
+      <c r="R132" s="2" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="S132" s="2" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr">
         <is>
@@ -8609,7 +8597,7 @@
       </c>
       <c r="U132" s="2" t="inlineStr">
         <is>
-          <t>Mean; Minimum;Maximum;Median</t>
+          <t>Proportion</t>
         </is>
       </c>
       <c r="V132" s="2" t="inlineStr"/>
@@ -8631,22 +8619,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status</t>
+          <t>socioeconomic status score</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size and household composition. </t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -8658,29 +8646,36 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
       <c r="M133" s="2" t="inlineStr"/>
-      <c r="N133" s="2" t="inlineStr"/>
+      <c r="N133" s="2" t="inlineStr">
+        <is>
+          <t>BCI participant socioeconomic status</t>
+        </is>
+      </c>
       <c r="O133" s="2" t="inlineStr"/>
-      <c r="P133" s="2" t="inlineStr"/>
+      <c r="P133" s="2" t="inlineStr">
+        <is>
+          <t>data item because it is a score</t>
+        </is>
+      </c>
       <c r="Q133" s="2" t="inlineStr"/>
       <c r="R133" s="2" t="inlineStr"/>
       <c r="S133" s="2" t="inlineStr"/>
-      <c r="T133" s="2" t="inlineStr"/>
+      <c r="T133" s="2" t="inlineStr">
+        <is>
+          <t>https://www.apa.org/pi/ses/resources/class/measuring-status</t>
+        </is>
+      </c>
       <c r="U133" s="2" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean; Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V133" s="2" t="inlineStr"/>
-      <c r="W133" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="W133" s="2" t="inlineStr"/>
       <c r="X133" s="2" t="inlineStr"/>
       <c r="Y133" s="2" t="inlineStr">
         <is>
-          <t>AW; JH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Z133" s="2" t="inlineStr">
@@ -8694,22 +8689,22 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
@@ -8736,7 +8731,8 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t xml:space="preserve">
+NCIT_C148253</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr"/>
@@ -8751,81 +8747,93 @@
         </is>
       </c>
       <c r="AA134" s="2" t="inlineStr"/>
-      <c r="AB134" s="2" t="inlineStr">
+      <c r="AB134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015435</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr"/>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
+      <c r="L135" s="2" t="inlineStr"/>
+      <c r="M135" s="2" t="inlineStr"/>
+      <c r="N135" s="2" t="inlineStr"/>
+      <c r="O135" s="2" t="inlineStr"/>
+      <c r="P135" s="2" t="inlineStr"/>
+      <c r="Q135" s="2" t="inlineStr"/>
+      <c r="R135" s="2" t="inlineStr"/>
+      <c r="S135" s="2" t="inlineStr"/>
+      <c r="T135" s="2" t="inlineStr"/>
+      <c r="U135" s="2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
+      <c r="V135" s="2" t="inlineStr"/>
+      <c r="W135" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="X135" s="2" t="inlineStr"/>
+      <c r="Y135" s="2" t="inlineStr">
+        <is>
+          <t>AW; JH</t>
+        </is>
+      </c>
+      <c r="Z135" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA135" s="2" t="inlineStr"/>
+      <c r="AB135" s="2" t="inlineStr">
         <is>
           <t>We currently have student or trainee role in the BCIO defined in terms of person source, but we want to make these personal characteristics entities all in one place based on defs in column D (which aim to describe characteristics of people)</t>
         </is>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000405</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>tobacco smoker</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>A psychoactive substance user who participates in tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ADDICTO:0000964</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tobacco use disorder</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>addictive disorder</t>
+          <t xml:space="preserve">Tobacco-containing product user </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+          <t>A psychoactive substance user who participates in tobacco smoking.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -8843,51 +8851,39 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000964</t>
-        </is>
-      </c>
+      <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
-        </is>
-      </c>
+      <c r="AB136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ADDICTO:0000849</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">tobacco-containing product user </t>
+          <t>tobacco use disorder</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>addictive disorder</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
+          <t>An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -8902,16 +8898,12 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>Current tobacco user</t>
-        </is>
-      </c>
+      <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr">
         <is>
-          <t>ADDICTO:0000849</t>
+          <t>ADDICTO:0000964</t>
         </is>
       </c>
       <c r="U137" t="inlineStr"/>
@@ -8920,218 +8912,226 @@
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>closest is Tobacco use disorder = An addictive disorder in which the behaviour that is the subject of the addiction is the use of tobacco,</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tobacco-containing product user </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a person who uses tobacco-containing products</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Current tobacco user</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000849</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
+        <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
+      <c r="Z138" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>BCIO:015465</t>
         </is>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>undergraduate student role</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>higher education student role</t>
         </is>
       </c>
-      <c r="D138" s="2" t="inlineStr">
+      <c r="D139" s="2" t="inlineStr">
         <is>
           <t>A higher education student role realised by currently studying for an undergraduate degree</t>
         </is>
       </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr"/>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
-      <c r="L138" s="2" t="inlineStr"/>
-      <c r="M138" s="2" t="inlineStr"/>
-      <c r="N138" s="2" t="inlineStr"/>
-      <c r="O138" s="2" t="inlineStr"/>
-      <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr"/>
-      <c r="R138" s="2" t="inlineStr"/>
-      <c r="S138" s="2" t="inlineStr"/>
-      <c r="T138" s="2" t="inlineStr"/>
-      <c r="U138" s="2" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr"/>
+      <c r="J139" s="2" t="inlineStr"/>
+      <c r="K139" s="2" t="inlineStr"/>
+      <c r="L139" s="2" t="inlineStr"/>
+      <c r="M139" s="2" t="inlineStr"/>
+      <c r="N139" s="2" t="inlineStr"/>
+      <c r="O139" s="2" t="inlineStr"/>
+      <c r="P139" s="2" t="inlineStr"/>
+      <c r="Q139" s="2" t="inlineStr"/>
+      <c r="R139" s="2" t="inlineStr"/>
+      <c r="S139" s="2" t="inlineStr"/>
+      <c r="T139" s="2" t="inlineStr"/>
+      <c r="U139" s="2" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
-      <c r="V138" s="2" t="inlineStr"/>
-      <c r="W138" s="2" t="inlineStr">
+      <c r="V139" s="2" t="inlineStr"/>
+      <c r="W139" s="2" t="inlineStr">
         <is>
           <t>BCIO - source student or trainee role types</t>
         </is>
       </c>
-      <c r="X138" s="2" t="inlineStr"/>
-      <c r="Y138" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z138" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AA138" s="2" t="inlineStr"/>
-      <c r="AB138" s="2" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="X139" s="2" t="inlineStr"/>
+      <c r="Y139" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z139" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA139" s="2" t="inlineStr"/>
+      <c r="AB139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>unemployed status</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>socio demographic attribute</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr">
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr">
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr">
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
         <is>
           <t>AW; JH</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
+      <c r="Z140" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015345</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>unpaid carer for an adult status</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>socio demographic attribute</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr"/>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
-      <c r="H140" s="2" t="inlineStr"/>
-      <c r="I140" s="2" t="inlineStr"/>
-      <c r="J140" s="2" t="inlineStr"/>
-      <c r="K140" s="2" t="inlineStr"/>
-      <c r="L140" s="2" t="inlineStr"/>
-      <c r="M140" s="2" t="inlineStr"/>
-      <c r="N140" s="2" t="inlineStr"/>
-      <c r="O140" s="2" t="inlineStr"/>
-      <c r="P140" s="2" t="inlineStr"/>
-      <c r="Q140" s="2" t="inlineStr"/>
-      <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr"/>
-      <c r="T140" s="2" t="inlineStr"/>
-      <c r="U140" s="2" t="inlineStr">
-        <is>
-          <t>Proportion</t>
-        </is>
-      </c>
-      <c r="V140" s="2" t="inlineStr"/>
-      <c r="W140" s="2" t="inlineStr"/>
-      <c r="X140" s="2" t="inlineStr"/>
-      <c r="Y140" s="2" t="inlineStr">
-        <is>
-          <t>AW; JH</t>
-        </is>
-      </c>
-      <c r="Z140" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AA140" s="2" t="inlineStr"/>
-      <c r="AB140" s="2" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>valuable material resource</t>
+          <t>unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>socio demographic attribute</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t xml:space="preserve">A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities </t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -9147,24 +9147,20 @@
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
-      <c r="R141" s="2" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="R141" s="2" t="inlineStr"/>
       <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
-      <c r="U141" s="2" t="inlineStr"/>
+      <c r="U141" s="2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
       <c r="V141" s="2" t="inlineStr"/>
-      <c r="W141" s="2" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048 [added "non-monetary"]</t>
-        </is>
-      </c>
+      <c r="W141" s="2" t="inlineStr"/>
       <c r="X141" s="2" t="inlineStr"/>
       <c r="Y141" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>AW; JH</t>
         </is>
       </c>
       <c r="Z141" s="2" t="inlineStr">
@@ -9178,22 +9174,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>value of valuable material resource</t>
+          <t>valuable material resource</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>The monetary value of a valuable material resource possessed by a person</t>
+          <t>A non-monetary resource under control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -9205,28 +9201,24 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr"/>
       <c r="M142" s="2" t="inlineStr"/>
-      <c r="N142" s="2" t="inlineStr">
-        <is>
-          <t>valuable material resource</t>
-        </is>
-      </c>
+      <c r="N142" s="2" t="inlineStr"/>
       <c r="O142" s="2" t="inlineStr"/>
       <c r="P142" s="2" t="inlineStr"/>
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr">
         <is>
-          <t>$400, 3000 euros</t>
+          <t>farmland, jewellery, livestock</t>
         </is>
       </c>
       <c r="S142" s="2" t="inlineStr"/>
       <c r="T142" s="2" t="inlineStr"/>
-      <c r="U142" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="U142" s="2" t="inlineStr"/>
       <c r="V142" s="2" t="inlineStr"/>
-      <c r="W142" s="2" t="inlineStr"/>
+      <c r="W142" s="2" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048 [added "non-monetary"]</t>
+        </is>
+      </c>
       <c r="X142" s="2" t="inlineStr"/>
       <c r="Y142" s="2" t="inlineStr">
         <is>
@@ -9244,22 +9236,22 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role</t>
+          <t>value of valuable material resource</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>The monetary value of a valuable material resource possessed by a person</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
@@ -9271,24 +9263,28 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr"/>
       <c r="M143" s="2" t="inlineStr"/>
-      <c r="N143" s="2" t="inlineStr"/>
+      <c r="N143" s="2" t="inlineStr">
+        <is>
+          <t>valuable material resource</t>
+        </is>
+      </c>
       <c r="O143" s="2" t="inlineStr"/>
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
-      <c r="R143" s="2" t="inlineStr"/>
+      <c r="R143" s="2" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
-          <t>Proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="V143" s="2" t="inlineStr"/>
-      <c r="W143" s="2" t="inlineStr">
-        <is>
-          <t>BCIO - source student or trainee role types</t>
-        </is>
-      </c>
+      <c r="W143" s="2" t="inlineStr"/>
       <c r="X143" s="2" t="inlineStr"/>
       <c r="Y143" s="2" t="inlineStr">
         <is>
@@ -9306,22 +9302,22 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status</t>
+          <t>vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>sociodemographic attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
@@ -9335,11 +9331,7 @@
       <c r="M144" s="2" t="inlineStr"/>
       <c r="N144" s="2" t="inlineStr"/>
       <c r="O144" s="2" t="inlineStr"/>
-      <c r="P144" s="2" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+      <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr"/>
@@ -9350,7 +9342,11 @@
         </is>
       </c>
       <c r="V144" s="2" t="inlineStr"/>
-      <c r="W144" s="2" t="inlineStr"/>
+      <c r="W144" s="2" t="inlineStr">
+        <is>
+          <t>BCIO - source student or trainee role types</t>
+        </is>
+      </c>
       <c r="X144" s="2" t="inlineStr"/>
       <c r="Y144" s="2" t="inlineStr">
         <is>
@@ -9366,58 +9362,120 @@
       <c r="AB144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015325</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>voluntary worker status</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>sociodemographic attribute</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>sociodemographic attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr"/>
+      <c r="J145" s="2" t="inlineStr"/>
+      <c r="K145" s="2" t="inlineStr"/>
+      <c r="L145" s="2" t="inlineStr"/>
+      <c r="M145" s="2" t="inlineStr"/>
+      <c r="N145" s="2" t="inlineStr"/>
+      <c r="O145" s="2" t="inlineStr"/>
+      <c r="P145" s="2" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
+      <c r="Q145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr"/>
+      <c r="S145" s="2" t="inlineStr"/>
+      <c r="T145" s="2" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr">
+        <is>
+          <t>Proportion</t>
+        </is>
+      </c>
+      <c r="V145" s="2" t="inlineStr"/>
+      <c r="W145" s="2" t="inlineStr"/>
+      <c r="X145" s="2" t="inlineStr"/>
+      <c r="Y145" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z145" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AA145" s="2" t="inlineStr"/>
+      <c r="AB145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>BCIO:015405</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>widowed</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>relationship status</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>A relationship status of an individual who is no longer in a legally formalised relationship because of the death of their spouse or partner and has not entered into a subsequent legally formalised relationship.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr">
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
         <is>
           <t>Proportion</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Human population/ object aggregate</t>
+          <t>Human population</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Member of a multi-person household</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco-containing product user </t>
+          <t xml:space="preserve">tobacco-containing product user </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8856,7 +8856,11 @@
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Z136" t="inlineStr">
         <is>
           <t>External</t>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-